--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE54188-6527-4C3D-9CDE-64A468548BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5384EEB0-746F-4EE8-9319-6E4A2B67AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="313">
   <si>
     <t>url</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>original_price</t>
-  </si>
-  <si>
-    <t>discounted_price</t>
   </si>
   <si>
     <t>description</t>
@@ -100,9 +97,6 @@
 1x Gaming Mouse</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f_tn</t>
-  </si>
-  <si>
     <t>223946658</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
 Happy shopping 🌹</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef_tn</t>
-  </si>
-  <si>
     <t>659092716</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
 You can contact with us to get more detail of the goods .
 We are professional Shopee seller.
 </t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ce8d8ae4eb7e72579b0484907bcf9187_tn</t>
   </si>
   <si>
     <t>345334570</t>
@@ -373,9 +361,6 @@
 * We have self pick up at our warehouse from Monday-Saturday. Please message us if you need to self pick up</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/03cb30d96c47acc9a45c27972913f24c_tn</t>
-  </si>
-  <si>
     <t>271813511</t>
   </si>
   <si>
@@ -423,9 +408,6 @@
 All products in our store have a 3-month warranty. Physical damage to the product may not qualify for warranty or replacement. Upon receipt of the returned item, the company will immediately replace or refund it. We are available 24/7, please feel free to contact us. Thank you 🎉🎉
 #Key words#
 #bag#backpack#men's backpack#laptop backpack#student backpack#travel bag#women's backpack#business#leisure#waterproof bag#fashion female schoolbag#leisure computer bag#outdoor backpack#college student backpack#men's large-capacity backpack #</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547_tn</t>
   </si>
   <si>
     <t>10152719600</t>
@@ -594,9 +576,6 @@
 1 x USB cable</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133_tn</t>
-  </si>
-  <si>
     <t>131332496</t>
   </si>
   <si>
@@ -808,9 +787,6 @@
 #korean laptop bag</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541_tn</t>
-  </si>
-  <si>
     <t>341987306</t>
   </si>
   <si>
@@ -937,9 +913,6 @@
 </t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff_tn</t>
-  </si>
-  <si>
     <t>631898723</t>
   </si>
   <si>
@@ -1007,9 +980,6 @@
 If the plastic sheet of the battery compartment is torn off, there is still no response when pressing the remote control button?
 ——Need to check whether the remote control is aimed at the infrared receiver, it needs to be aimed to work normally
   Sekiranya anda tidak memahami masalah masalah yang lain, sila hubungi kami tepat pada waktunya dan kami akan membantu anda menanganinya tepat pada waktunya.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30_tn</t>
   </si>
   <si>
     <t>567493313</t>
@@ -1069,9 +1039,6 @@
 ★ Dear friend:you may find that someone sells at a lower price than us but they cannot guarantee the same quality and service as we do,Please Believe us And Follow our store.thank you so much!</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739_tn</t>
-  </si>
-  <si>
     <t>54615708</t>
   </si>
   <si>
@@ -1175,9 +1142,6 @@
 #children, #namelabels, #goodybaggifts, #party, #birthday, #school, #books, #waterbottle, #stationeries</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356_tn</t>
-  </si>
-  <si>
     <t>224587652</t>
   </si>
   <si>
@@ -1200,9 +1164,6 @@
 Our packaging will be re examined before leaving the warehouse, please be assured of your purchase.
 Our customer service hours are morning. 9: 00 to night18: Anything you have to ask us, we'd like to solve your problem with our hearts
 Relations, if you think our goods are good, just give a good compliment, your evaluation is very important to us.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb_tn</t>
   </si>
   <si>
     <t>258452033</t>
@@ -1240,9 +1201,6 @@
 Exquisite life, you deserve it, come and buy it ~~~
 If you have any questions, just talk ~
  I wish you a happy shopping ~~~</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd_tn</t>
   </si>
   <si>
     <t>309740850</t>
@@ -1492,9 +1450,6 @@
 3. 1 inch = 2.54 centimeters 1 centimeter = 0.39 inches</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912_tn</t>
-  </si>
-  <si>
     <t>809624709</t>
   </si>
   <si>
@@ -1630,9 +1585,6 @@
 📍(High quality print &amp; Exclusive)
 📍Material : 155mm x 80mm
 📍Quantity 1 pack : 10/pcs</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd_tn</t>
   </si>
   <si>
     <t>39869582</t>
@@ -1816,49 +1768,115 @@
 </t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc_tn</t>
-  </si>
-  <si>
     <t>472472246</t>
   </si>
   <si>
     <t>10113962114</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57_tn</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/7b5367205f971878c9ec3fe81095a1f6</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1_tn</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22110-j3rqezectwjv65_tn</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230_tn</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/b0e59fac88d60c0acfc9597e8f2ce02d</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e_tn</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/3dbb4e8b1674459ed48d3a45840cddf9</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa_tn</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d_tn</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/02a2d913ec0a73612df976e0cf432eb5</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc_tn</t>
+    <t>https://cf.shopee.sg/file/sg-11134201-23010-mhbxbmj21nmv5f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-22110-svqi34n7eckvdf</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/82995c90669097622600d0eaf6546dbd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/381b70c5821b518aa41574ebad62d698</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a14c3fbb9daf6c972aee7506801d9846</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/5c7f221a1eec85ec36c5a38884e953b5</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ce8d8ae4eb7e72579b0484907bcf9187</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/03cb30d96c47acc9a45c27972913f24c</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-22110-j3rqezectwjv65</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc</t>
+  </si>
+  <si>
+    <t>current_price</t>
   </si>
 </sst>
 </file>
@@ -2202,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2223,1005 +2241,1023 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>284</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
         <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>286</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="G26" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H31" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="H37" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
         <v>281</v>
       </c>
-      <c r="F39" t="s">
-        <v>305</v>
-      </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="H39" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H41" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5384EEB0-746F-4EE8-9319-6E4A2B67AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFBBF0-E98B-487F-AAD1-0EC060EB5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="320">
   <si>
     <t>url</t>
   </si>
@@ -1877,6 +1877,65 @@
   </si>
   <si>
     <t>current_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💖MILLIONPARCEL SINGAPORE STORE 💖
+📣100% Quality Brand Product 
+📣All product is ready stock 
+📣Join Fellows to enjoy Discount Voucher 
+📣Direct Factory, Wholesale Price
+📢 PaperOne have 3 type thickness:  70gsm (Green) &lt; 80gsm (Blue) &lt;100gsm (Red)
+Large Volume Label : 70gsm
+Office Printing: 80gsm
+Design Printing: 100gsm.
+Pls note:  During Courier Delivery, Minor blemishes to the cover surface are unavoidable. We appreciate your kind understanding❤️
+💡Product Highlight
+• Professional Printing paper
+• High Speed Printing
+• Multi Function Paper
+• Smudge Free
+• Save Ink
+</t>
+  </si>
+  <si>
+    <t>PaperOne Printing Paper | A4 Paper | A3 Paper | A5 Paper | Copy Paper 70gsm | 80gsm |100gsm</t>
+  </si>
+  <si>
+    <t>$4.10 - $13.90</t>
+  </si>
+  <si>
+    <t>🇸🇬2.2🔥Koala Home Chair Cover/Dining Chair Cover Elastic/Chair Cover seat Cover/Chair Cover Elastic Spandex/Seat Cus</t>
+  </si>
+  <si>
+    <t>Welcome to Koala Home Lifestyle SG!🥰
+🔥 Ready Stock! Ship out WITHIN 12 hours and receive in 2-3 working days on average.🔥🔥🔥
+🔥 If you face any issues, please chat with our friendly staff. If you are satisfied, please rate us ⭐⭐⭐⭐⭐
+🔥 Follow Koala Home Lifestyle SG to get follower-only vourcher, promotions, and giveaways.🔥🔥🔥
+📍Follow shop/ Like Items: Priority Shipping
+Our shop is a factory outlet store, if you want to buy a large number of goods or wholesale, please contact us, we will give you more discounts.
+📌Product Description
+ *Material: Spandex Polyester 
+📌Specifications:
+❤️Fashion design, high quality!
+❤️Material: Polyester Fiber
+❤️Style: Thick
+❤️Color: As the pic shows
+❤️Chair Back Height: About 32-43 cm
+📐Seat Width: About 38-45cm
+Seat Length: About 38-45cm
+📐L Chair cover:
+Chair Back Height: About 42-60 cm
+Seat Width: About 38-45cm
+Seat Length: About 38-45cm
+*Packing: 1pc Chair cover 
+*Wash Method: Hand Washable/Machine washable 
+Please note: Due to the difference between different monitors, the picture may not reflect the actual color of the item.</t>
+  </si>
+  <si>
+    <t>$3.00 - $10.00</t>
+  </si>
+  <si>
+    <t>$1.45 - $3.56</t>
   </si>
 </sst>
 </file>
@@ -2220,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3138,6 +3197,15 @@
       <c r="A36" t="s">
         <v>246</v>
       </c>
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" t="s">
+        <v>313</v>
+      </c>
       <c r="F36" t="s">
         <v>307</v>
       </c>
@@ -3223,6 +3291,18 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>268</v>
+      </c>
+      <c r="B40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
       </c>
       <c r="F40" t="s">
         <v>310</v>

--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFBBF0-E98B-487F-AAD1-0EC060EB5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDA7975-0C9D-4B75-BDF6-F895D18F9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="326">
   <si>
     <t>url</t>
   </si>
@@ -1936,6 +1936,24 @@
   </si>
   <si>
     <t>$1.45 - $3.56</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2277,19 +2295,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="51.81640625" customWidth="1"/>
-    <col min="6" max="6" width="53.36328125" customWidth="1"/>
+    <col min="7" max="7" width="53.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,16 +2324,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2332,16 +2353,19 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" t="s">
         <v>288</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2358,16 +2382,19 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2384,16 +2411,19 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2410,16 +2440,19 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" t="s">
         <v>289</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2436,16 +2469,19 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" t="s">
         <v>283</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2462,16 +2498,19 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
         <v>290</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2488,16 +2527,19 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
         <v>291</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2514,16 +2556,19 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" t="s">
         <v>292</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2540,16 +2585,19 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" t="s">
         <v>285</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2566,16 +2614,19 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2592,16 +2643,19 @@
         <v>82</v>
       </c>
       <c r="F12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" t="s">
         <v>293</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2618,16 +2672,19 @@
         <v>89</v>
       </c>
       <c r="F13" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2644,16 +2701,19 @@
         <v>97</v>
       </c>
       <c r="F14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" t="s">
         <v>284</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>98</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2670,16 +2730,19 @@
         <v>104</v>
       </c>
       <c r="F15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -2696,16 +2759,19 @@
         <v>111</v>
       </c>
       <c r="F16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" t="s">
         <v>294</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -2722,16 +2788,19 @@
         <v>118</v>
       </c>
       <c r="F17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" t="s">
         <v>295</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>119</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -2748,16 +2817,19 @@
         <v>125</v>
       </c>
       <c r="F18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" t="s">
         <v>278</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>126</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -2774,16 +2846,19 @@
         <v>132</v>
       </c>
       <c r="F19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" t="s">
         <v>296</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2797,16 +2872,19 @@
         <v>137</v>
       </c>
       <c r="F20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" t="s">
         <v>297</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>138</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2823,16 +2901,19 @@
         <v>144</v>
       </c>
       <c r="F21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" t="s">
         <v>298</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>145</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -2849,16 +2930,19 @@
         <v>151</v>
       </c>
       <c r="F22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" t="s">
         <v>299</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>152</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -2875,16 +2959,19 @@
         <v>158</v>
       </c>
       <c r="F23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" t="s">
         <v>300</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>159</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -2901,16 +2988,19 @@
         <v>165</v>
       </c>
       <c r="F24" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" t="s">
         <v>286</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>166</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -2927,16 +3017,19 @@
         <v>172</v>
       </c>
       <c r="F25" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" t="s">
         <v>173</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>174</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -2950,16 +3043,19 @@
         <v>179</v>
       </c>
       <c r="F26" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" t="s">
         <v>301</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>180</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -2976,16 +3072,19 @@
         <v>186</v>
       </c>
       <c r="F27" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" t="s">
         <v>302</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>187</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -3002,16 +3101,19 @@
         <v>193</v>
       </c>
       <c r="F28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" t="s">
         <v>303</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>194</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -3028,16 +3130,19 @@
         <v>200</v>
       </c>
       <c r="F29" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" t="s">
         <v>287</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>201</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -3054,16 +3159,19 @@
         <v>207</v>
       </c>
       <c r="F30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" t="s">
         <v>304</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>208</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -3080,16 +3188,19 @@
         <v>214</v>
       </c>
       <c r="F31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" t="s">
         <v>279</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -3106,16 +3217,19 @@
         <v>221</v>
       </c>
       <c r="F32" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" t="s">
         <v>305</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>222</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -3132,16 +3246,19 @@
         <v>228</v>
       </c>
       <c r="F33" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" t="s">
         <v>306</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>229</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -3158,16 +3275,19 @@
         <v>235</v>
       </c>
       <c r="F34" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" t="s">
         <v>280</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>236</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -3184,16 +3304,19 @@
         <v>242</v>
       </c>
       <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
         <v>243</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>244</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>246</v>
       </c>
@@ -3207,16 +3330,19 @@
         <v>313</v>
       </c>
       <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" t="s">
         <v>307</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>247</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -3230,16 +3356,19 @@
         <v>252</v>
       </c>
       <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
         <v>308</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>253</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -3256,16 +3385,19 @@
         <v>259</v>
       </c>
       <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -3279,16 +3411,19 @@
         <v>265</v>
       </c>
       <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
         <v>281</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>266</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -3305,16 +3440,19 @@
         <v>317</v>
       </c>
       <c r="F40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" t="s">
         <v>310</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>271</v>
       </c>
@@ -3331,12 +3469,15 @@
         <v>275</v>
       </c>
       <c r="F41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" t="s">
         <v>311</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>276</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>277</v>
       </c>
     </row>

--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -1,54 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFBBF0-E98B-487F-AAD1-0EC060EB5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE820E6-8587-473C-8E83-2BA27C46A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="396">
   <si>
     <t>url</t>
   </si>
   <si>
+    <t>shopid</t>
+  </si>
+  <si>
+    <t>itemid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>original_price</t>
   </si>
   <si>
+    <t>current_price</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
     <t>image_url</t>
   </si>
   <si>
-    <t>shopid</t>
-  </si>
-  <si>
-    <t>itemid</t>
+    <t>items_sold</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>rating_total</t>
   </si>
   <si>
     <t>https://shopee.sg/SG-Local-GTX300-LED-Gaming-Keyboard-and-Mouse-Set-Mechanical-Keyboard-with-7-Colour-Illuminated-Light-for-Gaming-Office-i.223946658.11315955990</t>
+  </si>
+  <si>
+    <t>223946658</t>
+  </si>
+  <si>
+    <t>11315955990</t>
   </si>
   <si>
     <t>SG Local GTX300 LED Gaming Keyboard and Mouse Set Mechanical Keyboard with 7 Colour Illuminated Light for Gaming Office</t>
@@ -97,13 +113,25 @@
 1x Gaming Mouse</t>
   </si>
   <si>
-    <t>223946658</t>
-  </si>
-  <si>
-    <t>11315955990</t>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f_tn</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>M/KB Combos</t>
   </si>
   <si>
     <t>https://shopee.sg/SSD-External-Hard-Disk-M.2-30TB-60TB-128TB-Portable-External-Hard-Disk-4TB-2TB-1TB-Portable-Hard-Drive-USB-3.0-i.915737909.13698127662</t>
+  </si>
+  <si>
+    <t>915737909</t>
+  </si>
+  <si>
+    <t>13698127662</t>
   </si>
   <si>
     <t>SSD External Hard Disk  M.2 30TB/60TB 128TB Portable External Hard Disk  4TB/2TB/1TB  Portable Hard Drive USB 3.0</t>
@@ -134,13 +162,25 @@
 1 USB 3.0 cable</t>
   </si>
   <si>
-    <t>915737909</t>
-  </si>
-  <si>
-    <t>13698127662</t>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-23010-53ufgwh21nmv88</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>External Storage Drives</t>
   </si>
   <si>
     <t>https://shopee.sg/Waterproof-Laptop-Bag-Handle-Case-For-Acer-Aspire-5-Swift-5-Zipper-Handbag-Sleeve-PC-Case-SF314-52G-5079-536Y-14''-Laptop-Cover-2020-Nootbook-Pouch-Cover-i.162297388.16148196943</t>
+  </si>
+  <si>
+    <t>162297388</t>
+  </si>
+  <si>
+    <t>16148196943</t>
   </si>
   <si>
     <t>Waterproof Laptop Bag Handle Case For Acer Aspire 5 Swift 5 Zipper Handbag Sleeve PC Case SF314-52G-5079 536Y 14'' Laptop Cover 2020 Nootbook Pouch Cover</t>
@@ -178,13 +218,19 @@
     <t>https://cf.shopee.sg/file/b1facd61d01c3e4c6315d55e22161628</t>
   </si>
   <si>
-    <t>162297388</t>
-  </si>
-  <si>
-    <t>16148196943</t>
+    <t>499</t>
+  </si>
+  <si>
+    <t>Cases &amp; Bags</t>
   </si>
   <si>
     <t>https://shopee.sg/Large-capacity-JanSport-tide-brand-backpack-outdoor-travel-backpack-computer-bag-i.659092716.20715716730</t>
+  </si>
+  <si>
+    <t>659092716</t>
+  </si>
+  <si>
+    <t>20715716730</t>
   </si>
   <si>
     <t>Large capacity JanSport tide brand backpack outdoor travel backpack computer bag</t>
@@ -206,13 +252,19 @@
 Happy shopping 🌹</t>
   </si>
   <si>
-    <t>659092716</t>
-  </si>
-  <si>
-    <t>20715716730</t>
+    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef_tn</t>
+  </si>
+  <si>
+    <t>308</t>
   </si>
   <si>
     <t>https://shopee.sg/M221-Wireless-Mouse-Silent-Mouse-2.4GHz-1000DPI-With-Optical-Computer-Mice-with-USB-Receiver-i.51134277.22307684396</t>
+  </si>
+  <si>
+    <t>51134277</t>
+  </si>
+  <si>
+    <t>22307684396</t>
   </si>
   <si>
     <t>M221 Wireless Mouse Silent Mouse 2.4GHz 1000DPI With Optical Computer Mice with USB Receiver</t>
@@ -245,13 +297,22 @@
 </t>
   </si>
   <si>
-    <t>51134277</t>
-  </si>
-  <si>
-    <t>22307684396</t>
+    <t>https://cf.shopee.sg/file/sg-11134201-22110-svqi34n7eckvdf</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Mice</t>
   </si>
   <si>
     <t>https://shopee.sg/4-Multi-Port-Fast-Quick-Charge-USB-Hub-Mains-Wall-Charger-UK-Adapter-Plug-R4N5-i.345334570.9802184451</t>
+  </si>
+  <si>
+    <t>345334570</t>
+  </si>
+  <si>
+    <t>9802184451</t>
   </si>
   <si>
     <t>4 Multi-Port Fast Quick Charge USB Hub Mains Wall Charger UK Adapter Plug R4N5</t>
@@ -286,22 +347,31 @@
 </t>
   </si>
   <si>
-    <t>345334570</t>
-  </si>
-  <si>
-    <t>9802184451</t>
+    <t>https://cf.shopee.sg/file/ce8d8ae4eb7e72579b0484907bcf9187</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>USB Hubs</t>
   </si>
   <si>
     <t>https://shopee.sg/Thermal-Printer-HPRT-N41-Label-Barcode-Printer-with-Bluetooth-USB-Ultimate-Supply-i.271813511.6967504523</t>
   </si>
   <si>
+    <t>271813511</t>
+  </si>
+  <si>
+    <t>6967504523</t>
+  </si>
+  <si>
     <t>Thermal Printer HPRT N41 Label | Barcode Printer with Bluetooth &amp; USB - Ultimate Supply</t>
   </si>
   <si>
-    <t>$23.60 - $165.00</t>
-  </si>
-  <si>
-    <t>$18.10 - $119.20</t>
+    <t>$23.60</t>
+  </si>
+  <si>
+    <t>$17.60</t>
   </si>
   <si>
     <t>✔️Ultimate Sup's e-commerce thermal label printer HPRT N41 is 7 times faster, 30% more economical than laser printer
@@ -361,22 +431,31 @@
 * We have self pick up at our warehouse from Monday-Saturday. Please message us if you need to self pick up</t>
   </si>
   <si>
-    <t>271813511</t>
-  </si>
-  <si>
-    <t>6967504523</t>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-22110-eam4eezogvjvea</t>
+  </si>
+  <si>
+    <t>2.4k</t>
+  </si>
+  <si>
+    <t>Printers &amp; Scanners</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Local-Multifunction-backpack-Lightweight-Casual-laptop-bagTravel-laptop-bag-School-Bag-waterproof-with-side-pockets-i.223946658.10152719600</t>
   </si>
   <si>
+    <t>10152719600</t>
+  </si>
+  <si>
     <t>[SG Local] Multifunction backpack Lightweight Casual laptop bagTravel laptop bag School Bag waterproof with side pockets</t>
   </si>
   <si>
-    <t>$28.00 - $36.90</t>
-  </si>
-  <si>
-    <t>$12.90 - $14.90</t>
+    <t>$36.90</t>
+  </si>
+  <si>
+    <t>$14.90</t>
   </si>
   <si>
     <t>✨✨Welcome to Hot Dog Digital Shop 😃
@@ -410,10 +489,19 @@
 #bag#backpack#men's backpack#laptop backpack#student backpack#travel bag#women's backpack#business#leisure#waterproof bag#fashion female schoolbag#leisure computer bag#outdoor backpack#college student backpack#men's large-capacity backpack #</t>
   </si>
   <si>
-    <t>10152719600</t>
+    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547_tn</t>
+  </si>
+  <si>
+    <t>420</t>
   </si>
   <si>
     <t>https://shopee.sg/For-iPad-10th-Generation-Round-Keycap-Wireless-Keyboard-Leather-Case-with-Built-in-Pen-Slot-Detachable-Magnetic-Keyboard-Soft-Case-For-10.2''-iPad-7th-8th-9th-Gen-10.9''-Air4-Air5-i.109755317.16556809203</t>
+  </si>
+  <si>
+    <t>109755317</t>
+  </si>
+  <si>
+    <t>16556809203</t>
   </si>
   <si>
     <t>For iPad 10th Generation Round Keycap Wireless Keyboard Leather Case with Built-in Pen Slot Detachable Magnetic Keyboard Soft Case For 10.2'' iPad 7th/8th/9th Gen 10.9'' Air4/Air5</t>
@@ -462,13 +550,19 @@
 iPadkeyboardcase iPkeyboard wirelesskeyboard 10.2iPad7thgen iPadpencilholder iPad iPadcover iPadcase iPadair4 iPadair5 bluetoothkeyboard softiPcase 10.2iPad9thgen 10.2iPad8thgen penslot 9.7iPad5thgen 9.7iPad6thgen 2021iPadpro11 air4thiPadcase 10.9iPadcase pro11iPadcase 10.9iPadkeyboardcase air5iPadkeyboardcase</t>
   </si>
   <si>
-    <t>109755317</t>
-  </si>
-  <si>
-    <t>16556809203</t>
+    <t>https://cf.shopee.sg/file/568c98f208cf8729d6ffd3b093d733b3_tn</t>
+  </si>
+  <si>
+    <t>302</t>
   </si>
   <si>
     <t>https://shopee.sg/8-IN-1-USB-C-HUB-Type-C-To-HDMI-Adapter-Type-c-To-USB-3.0-RJ45-Ethernet-Micro-SD-Card-Reader-USB-C-3.1-Data-Transfer-87W-PD-Charging-Multi-Port-HUB-Type-C-Docking-Station-i.401297909.19315708456</t>
+  </si>
+  <si>
+    <t>401297909</t>
+  </si>
+  <si>
+    <t>19315708456</t>
   </si>
   <si>
     <t>8-IN-1 USB C HUB Type C To HDMI Adapter Type-c To USB 3.0 RJ45 Ethernet Micro SD Card Reader USB C 3.1 Data Transfer 87W PD Charging Multi Port HUB Type C Docking Station</t>
@@ -512,13 +606,16 @@
     <t>https://cf.shopee.sg/file/c7926b742b45750253d19b54c842d758</t>
   </si>
   <si>
-    <t>401297909</t>
-  </si>
-  <si>
-    <t>19315708456</t>
+    <t>663</t>
   </si>
   <si>
     <t>https://shopee.sg/Easylabeltech-USB-Bluetooth-WiFi-Thermal-Printer-for-Waybill-Barcode-Label-Print-i.131332496.7115370896</t>
+  </si>
+  <si>
+    <t>131332496</t>
+  </si>
+  <si>
+    <t>7115370896</t>
   </si>
   <si>
     <t>Easylabeltech USB /Bluetooth /WiFi Thermal Printer for Waybill Barcode Label Print</t>
@@ -576,13 +673,19 @@
 1 x USB cable</t>
   </si>
   <si>
-    <t>131332496</t>
-  </si>
-  <si>
-    <t>7115370896</t>
+    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133_tn</t>
+  </si>
+  <si>
+    <t>5.6k</t>
   </si>
   <si>
     <t>https://shopee.sg/uk-plug-ac-to-dc-power-adapter-5v-6v-9v-12v-15v-18v-24v-ac-power-supply-transformer-adapter-converter-wall-charger-i.199314921.5052802905</t>
+  </si>
+  <si>
+    <t>199314921</t>
+  </si>
+  <si>
+    <t>5052802905</t>
   </si>
   <si>
     <t>uk plug ac to dc power adapter 5v 6v 9v 12v 15v 18v 24v ac power supply transformer adapter converter wall charger</t>
@@ -624,22 +727,28 @@
     <t>https://cf.shopee.sg/file/2adf68fe960bd68eb841018ee8a3acbe</t>
   </si>
   <si>
-    <t>199314921</t>
-  </si>
-  <si>
-    <t>5052802905</t>
+    <t>711</t>
+  </si>
+  <si>
+    <t>Power Supplies</t>
   </si>
   <si>
     <t>https://shopee.sg/Original-Razer-Mouse-DeathAdder-Essential-Essential-Gaming-For-PC-Laptop-Computer-Black-White--i.520130789.15306817355</t>
   </si>
   <si>
+    <t>520130789</t>
+  </si>
+  <si>
+    <t>15306817355</t>
+  </si>
+  <si>
     <t>Original Razer Mouse DeathAdder Essential - Essential Gaming For PC Laptop Computer [Black/White]</t>
   </si>
   <si>
     <t>$49.00 - $99.00</t>
   </si>
   <si>
-    <t>$12.80 - $28.90</t>
+    <t>$11.60 - $28.90</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -675,13 +784,19 @@
 😊 Thanks for you support，hope you shopping happy！</t>
   </si>
   <si>
-    <t>520130789</t>
-  </si>
-  <si>
-    <t>15306817355</t>
+    <t>https://cf.shopee.sg/file/56093e71b874c07e7ddb456ee911e3bd_tn</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>Gaming Mice</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-RGB-Gaming-MousePad-14-LED-Color-Backlit-large-desk-mat-mouse-pad-Waterproof-mouse-pad-i.223946658.4493125778</t>
+  </si>
+  <si>
+    <t>4493125778</t>
   </si>
   <si>
     <t>[SG] RGB Gaming MousePad, 14 LED Color Backlit large desk mat mouse pad Waterproof mouse pad</t>
@@ -710,12 +825,21 @@
     <t>https://cf.shopee.sg/file/42f6dbc69c0ca3022c755caa2ed250fb</t>
   </si>
   <si>
-    <t>4493125778</t>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>Mousepads</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥SG-Seller!!🔥-Portable-Mini-Thermal-Printer-Sticker-Label-No-Ink-Need-For-School-Work-Leis-i.189053145.8731434283</t>
   </si>
   <si>
+    <t>189053145</t>
+  </si>
+  <si>
+    <t>8731434283</t>
+  </si>
+  <si>
     <t>🔥SG Seller!!🔥 Portable Mini Thermal Printer / Sticker Label | No Ink Need For School / Work / Leis</t>
   </si>
   <si>
@@ -725,18 +849,19 @@
     <t>$4.50 - $19.90</t>
   </si>
   <si>
-    <t xml:space="preserve">💥Follow Renaissance To Get 3% Discount Voucher!!!💥
-💥Free Delivery - Spend a Minimum of $15 For Free Delivery!!
-</t>
-  </si>
-  <si>
-    <t>189053145</t>
-  </si>
-  <si>
-    <t>8731434283</t>
+    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57_tn</t>
+  </si>
+  <si>
+    <t>2.8k</t>
   </si>
   <si>
     <t>https://shopee.sg/Korean-style-laptop-bag-cute-embroidery-design-shockproof-suitable-for-10-11-inch-13-14-inch-15-15.6-inch-i.341987306.9762712988</t>
+  </si>
+  <si>
+    <t>341987306</t>
+  </si>
+  <si>
+    <t>9762712988</t>
   </si>
   <si>
     <t>Korean style laptop bag cute embroidery design shockproof suitable for 10/11 inch 13/14 inch 15/15.6 inch</t>
@@ -787,13 +912,19 @@
 #korean laptop bag</t>
   </si>
   <si>
-    <t>341987306</t>
-  </si>
-  <si>
-    <t>9762712988</t>
+    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541_tn</t>
+  </si>
+  <si>
+    <t>1.3k</t>
   </si>
   <si>
     <t>https://shopee.sg/HP-S1000-Wireless-Mouse-1600dpi-Ergonomic-2.4G-Mause-USB-Optical-Portable-Mouse-i.293604050.7347041940</t>
+  </si>
+  <si>
+    <t>293604050</t>
+  </si>
+  <si>
+    <t>7347041940</t>
   </si>
   <si>
     <t>HP S1000 Wireless Mouse 1600dpi Ergonomic 2.4G Mause USB Optical Portable Mouse</t>
@@ -836,22 +967,22 @@
 1 x USB Receiver</t>
   </si>
   <si>
-    <t>293604050</t>
-  </si>
-  <si>
-    <t>7347041940</t>
+    <t>https://cf.shopee.sg/file/7b5367205f971878c9ec3fe81095a1f6</t>
   </si>
   <si>
     <t>https://shopee.sg/SG-Local-6-Fans-RGB-Laptop-Cooling-Pad-Gaming-Laptop-Cool-Pad-with-7-Level-Adjustable-Height-Stand-for-12-17-Inch-Laptop-i.223946658.12216530963</t>
   </si>
   <si>
+    <t>12216530963</t>
+  </si>
+  <si>
     <t>SG Local 6 Fans RGB Laptop Cooling Pad Gaming Laptop Cool Pad with 7 Level Adjustable Height Stand for 12-17 Inch Laptop</t>
   </si>
   <si>
-    <t>$20.90</t>
-  </si>
-  <si>
-    <t>$14.20</t>
+    <t>$20.90 - $36.90</t>
+  </si>
+  <si>
+    <t>$14.80 - $28.90</t>
   </si>
   <si>
     <t>✨6 Fans RGB Laptop Cooling Pad
@@ -880,10 +1011,22 @@
 Laptop Cooling Pad x 1,User Manual x 1</t>
   </si>
   <si>
-    <t>12216530963</t>
+    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1_tn</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>Cooling Pads &amp; Stands</t>
   </si>
   <si>
     <t>https://shopee.sg/Label-Thermal-Printer-Shopee-E-commerce-Bluetooth-USB-Android-IOS-1-Year-Warranty-i.631898723.17057310419</t>
+  </si>
+  <si>
+    <t>631898723</t>
+  </si>
+  <si>
+    <t>17057310419</t>
   </si>
   <si>
     <t>Label Thermal Printer Shopee E commerce Bluetooth USB Android IOS 1 Year Warranty</t>
@@ -913,13 +1056,19 @@
 </t>
   </si>
   <si>
-    <t>631898723</t>
-  </si>
-  <si>
-    <t>17057310419</t>
+    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff_tn</t>
+  </si>
+  <si>
+    <t>233</t>
   </si>
   <si>
     <t>https://shopee.sg/TNF-Fuse-Box-super-waterproof-backpack-with-laptop-compartment-export-goods-i.594893584.18443701183</t>
+  </si>
+  <si>
+    <t>594893584</t>
+  </si>
+  <si>
+    <t>18443701183</t>
   </si>
   <si>
     <t>TNF Fuse Box super waterproof backpack with laptop compartment / export goods</t>
@@ -946,13 +1095,19 @@
 - Bringing the most dedicated and enthusiastic customer service, helping you get the best experience when buying.</t>
   </si>
   <si>
-    <t>594893584</t>
-  </si>
-  <si>
-    <t>18443701183</t>
+    <t>https://cf.shopee.sg/file/9d0dd92b4d8fd778cc9af22172f22884_tn</t>
+  </si>
+  <si>
+    <t>708</t>
   </si>
   <si>
     <t>https://shopee.sg/LED-Strip-Light-SMD-5050-RGB-LED-Light-Strip-5M-10M-20M-Fairy-Light-Waterproof-LED-Tape-Lights-with-Remote-Controller-for-Home-i.567493313.12866945589</t>
+  </si>
+  <si>
+    <t>567493313</t>
+  </si>
+  <si>
+    <t>12866945589</t>
   </si>
   <si>
     <t>LED Strip Light SMD 5050 RGB LED Light Strip 5M 10M 20M Fairy Light Waterproof LED Tape Lights with Remote Controller for Home</t>
@@ -982,13 +1137,22 @@
   Sekiranya anda tidak memahami masalah masalah yang lain, sila hubungi kami tepat pada waktunya dan kami akan membantu anda menanganinya tepat pada waktunya.</t>
   </si>
   <si>
-    <t>567493313</t>
-  </si>
-  <si>
-    <t>12866945589</t>
+    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30_tn</t>
+  </si>
+  <si>
+    <t>6.7k</t>
+  </si>
+  <si>
+    <t>Track Light</t>
   </si>
   <si>
     <t>https://shopee.sg/360-Degree-Swivel-3-Modes-Anti-Splash-Water-Saving-Faucet-Sprayer-Aerator-Sink-Faucet-Filter-Nozzle-Kitchen-Universal-Tap-Head-Attachment-Bathroom-Faucet-Purifier-i.54615708.20312538726</t>
+  </si>
+  <si>
+    <t>54615708</t>
+  </si>
+  <si>
+    <t>20312538726</t>
   </si>
   <si>
     <t>360 Degree  Swivel 3 Modes Anti-Splash Water Saving Faucet Sprayer Aerator / Sink Faucet Filter Nozzle / Kitchen Universal Tap Head Attachment / Bathroom Faucet Purifier</t>
@@ -1039,22 +1203,31 @@
 ★ Dear friend:you may find that someone sells at a lower price than us but they cannot guarantee the same quality and service as we do,Please Believe us And Follow our store.thank you so much!</t>
   </si>
   <si>
-    <t>54615708</t>
-  </si>
-  <si>
-    <t>20312538726</t>
+    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739_tn</t>
+  </si>
+  <si>
+    <t>4.4k</t>
+  </si>
+  <si>
+    <t>Sinks &amp; Taps</t>
   </si>
   <si>
     <t>https://shopee.sg/SunnySunny-Japanese-Minimalist-Style-Soft-Comforter-Premium-Cotton-Blanket-Single-Queen-King-Size-Air-Conditioning-Quilt-i.277390263.8786863720</t>
   </si>
   <si>
+    <t>277390263</t>
+  </si>
+  <si>
+    <t>8786863720</t>
+  </si>
+  <si>
     <t>SunnySunny Japanese Minimalist Style Soft Comforter Premium Cotton Blanket Single Queen King Size Air Conditioning Quilt</t>
   </si>
   <si>
-    <t>$19.00 - $50.00</t>
-  </si>
-  <si>
-    <t>$3.79 - $23.90</t>
+    <t>$19.00 - $54.00</t>
+  </si>
+  <si>
+    <t>$3.79 - $25.81</t>
   </si>
   <si>
     <t>👉Follow my store, it will be cheaper to place an order
@@ -1077,13 +1250,22 @@
 #cadar #comforter #cadarpacthwork #queen-comforter #single-comforter #beddingset #bedsheet #mickey-mouse #duvet #quilt #cotton #summer-blanket #queencadar #kingsize #magic-color #Airconditioningduvet #bedsheet-set #simple #cotton-comforter#bedcover #quilt #cotton #summer #comforter #duvet #blanket #Selimut</t>
   </si>
   <si>
-    <t>277390263</t>
-  </si>
-  <si>
-    <t>8786863720</t>
+    <t>https://cf.shopee.sg/file/e9959928ccc25c7f48cc616d56d2c285_tn</t>
+  </si>
+  <si>
+    <t>8.7k</t>
+  </si>
+  <si>
+    <t>Blankets, Comforters &amp; Quilts</t>
   </si>
   <si>
     <t>https://shopee.sg/100pcs-Rose-Petals-Flower-Girl-Toss-Fake-Silk-Petals-Artificial-Petals-For-Wedding-Confetti-Party-Event-Decorations-i.498018387.3397689550</t>
+  </si>
+  <si>
+    <t>498018387</t>
+  </si>
+  <si>
+    <t>3397689550</t>
   </si>
   <si>
     <t>100pcs Rose Petals Flower Girl Toss Fake Silk Petals Artificial Petals For Wedding Confetti Party Event Decorations</t>
@@ -1108,13 +1290,19 @@
     <t>https://cf.shopee.sg/file/576eb8142828378bd55ea16a28277920</t>
   </si>
   <si>
-    <t>498018387</t>
-  </si>
-  <si>
-    <t>3397689550</t>
+    <t>13.5k</t>
+  </si>
+  <si>
+    <t>Flowers</t>
   </si>
   <si>
     <t>https://shopee.sg/Personalised-name-stickers-M-sizes-available-Childrens-Day-Teachers-Day-Christmas-Gift-Birthdays-Gift-i.224587652.5716330077</t>
+  </si>
+  <si>
+    <t>224587652</t>
+  </si>
+  <si>
+    <t>5716330077</t>
   </si>
   <si>
     <t>Personalised name stickers | M sizes available, Childrens Day, Teachers Day, Christmas Gift, Birthdays Gift</t>
@@ -1142,13 +1330,22 @@
 #children, #namelabels, #goodybaggifts, #party, #birthday, #school, #books, #waterbottle, #stationeries</t>
   </si>
   <si>
-    <t>224587652</t>
-  </si>
-  <si>
-    <t>5716330077</t>
+    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356_tn</t>
+  </si>
+  <si>
+    <t>29.3k</t>
+  </si>
+  <si>
+    <t>Stickers &amp; Decals</t>
   </si>
   <si>
     <t>https://shopee.sg/Nano-Tape-Double-sided-Waterproof-Strong-Adhesive-Tape-i.258452033.6833792124</t>
+  </si>
+  <si>
+    <t>258452033</t>
+  </si>
+  <si>
+    <t>6833792124</t>
   </si>
   <si>
     <t>Nano Tape Double-sided Waterproof Strong Adhesive Tape</t>
@@ -1166,13 +1363,22 @@
 Relations, if you think our goods are good, just give a good compliment, your evaluation is very important to us.</t>
   </si>
   <si>
-    <t>258452033</t>
-  </si>
-  <si>
-    <t>6833792124</t>
+    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb_tn</t>
+  </si>
+  <si>
+    <t>34.8k</t>
+  </si>
+  <si>
+    <t>DIY Tools</t>
   </si>
   <si>
     <t>https://shopee.sg/(Buy-2-get-2-free)-Adjustable-and-detachable-jeans-buttons-nail-free-metal-buttons-clothing-sewing-clothing-accessor-i.309740850.4552408603</t>
+  </si>
+  <si>
+    <t>309740850</t>
+  </si>
+  <si>
+    <t>4552408603</t>
   </si>
   <si>
     <t>(Buy 2 get 2 free) Adjustable and detachable jeans buttons, nail-free metal buttons, clothing, sewing, clothing accessor</t>
@@ -1203,13 +1409,22 @@
  I wish you a happy shopping ~~~</t>
   </si>
   <si>
-    <t>309740850</t>
-  </si>
-  <si>
-    <t>4552408603</t>
+    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd_tn</t>
+  </si>
+  <si>
+    <t>21.4k</t>
+  </si>
+  <si>
+    <t>Sewing &amp; Stitching Supplies</t>
   </si>
   <si>
     <t>https://shopee.sg/Stationery-Organizer-Desk-Organiser-✨-Drawer-type-✨-SG-Ready-Stock-i.565068251.13833125344</t>
+  </si>
+  <si>
+    <t>565068251</t>
+  </si>
+  <si>
+    <t>13833125344</t>
   </si>
   <si>
     <t>Stationery Organizer Desk Organiser ✨ Drawer type ✨ SG Ready Stock</t>
@@ -1242,13 +1457,22 @@
 📝Feel free to approach us using ‘Chat Chat’, we will reply ASAP</t>
   </si>
   <si>
-    <t>565068251</t>
-  </si>
-  <si>
-    <t>13833125344</t>
+    <t>https://cf.shopee.sg/file/090e220bce66e2fef4b13b11f1f3b54c_tn</t>
+  </si>
+  <si>
+    <t>3k</t>
+  </si>
+  <si>
+    <t>Files &amp; Folders</t>
   </si>
   <si>
     <t>https://shopee.sg/Wall-Mounted-Storage-Boxs-Remote-Control-Storage-Organizer-Case-For-Air-Conditioner-TV-Mobile-Phone-Plug-Holder-Stand-Rack-i.61595324.4259916835</t>
+  </si>
+  <si>
+    <t>61595324</t>
+  </si>
+  <si>
+    <t>4259916835</t>
   </si>
   <si>
     <t>Wall Mounted Storage Boxs Remote Control Storage Organizer Case For Air Conditioner TV Mobile Phone Plug Holder Stand Rack</t>
@@ -1277,13 +1501,22 @@
 2. Please Allow 0.1-2cm Differences Due To Manual Measurement.</t>
   </si>
   <si>
-    <t>61595324</t>
-  </si>
-  <si>
-    <t>4259916835</t>
+    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230_tn</t>
+  </si>
+  <si>
+    <t>20.1k</t>
+  </si>
+  <si>
+    <t>Shelving Units</t>
   </si>
   <si>
     <t>https://shopee.sg/-Wholesale-100-50Pcs-Set-Transparent-Waterproof-PET-Self-Adhesive-Stationery-Stickers-Post-it-Notes-DIY-Decorative-Stickers-for-Hand-Account-Diary-Scrapbooking-i.127249066.20909574510</t>
+  </si>
+  <si>
+    <t>127249066</t>
+  </si>
+  <si>
+    <t>20909574510</t>
   </si>
   <si>
     <t>[Wholesale]100/50Pcs Set Transparent  Waterproof PET Self-Adhesive Stationery Stickers Post-it Notes / DIY Decorative Stickers for Hand Account, Diary, Scrapbooking</t>
@@ -1324,13 +1557,22 @@
 ★ Dear friend:you may find that someone sells at a lower price than us but they cannot guarantee the same quality and service as we do,Please Believe us And Follow our store.thank you so much!</t>
   </si>
   <si>
-    <t>127249066</t>
-  </si>
-  <si>
-    <t>20909574510</t>
+    <t>https://cf.shopee.sg/file/b0e59fac88d60c0acfc9597e8f2ce02d</t>
+  </si>
+  <si>
+    <t>2.5k</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
   </si>
   <si>
     <t>https://shopee.sg/HydroFlask-Boot-Silicon-Cover-Cap-Aquaflask-Water-Bottle-Accessories-Boots-Sleeve-Paracord-Handle-Set-i.329494459.21413462442</t>
+  </si>
+  <si>
+    <t>329494459</t>
+  </si>
+  <si>
+    <t>21413462442</t>
   </si>
   <si>
     <t>HydroFlask Boot Silicon Cover Cap Aquaflask Water Bottle Accessories Boots Sleeve Paracord Handle Set</t>
@@ -1388,13 +1630,19 @@
 3. After you receive the goods, if you have any questions, please contact us as soon as possible so that we can solve any problems.</t>
   </si>
   <si>
-    <t>329494459</t>
-  </si>
-  <si>
-    <t>21413462442</t>
+    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e_tn</t>
+  </si>
+  <si>
+    <t>Jugs &amp; Pitchers</t>
   </si>
   <si>
     <t>https://shopee.sg/【Ready-Stock】Smart-Air-Freshener-Automatic-Aroma-Sprayer-Essential-Oil-Diffuser-Aroma-Spray-Dispenser-Aroma-Diffuser-Air-Purifier-Deodorization-Toilet-Restroom-Bedroom-Bathroom-Be-i.809624709.21167359947</t>
+  </si>
+  <si>
+    <t>809624709</t>
+  </si>
+  <si>
+    <t>21167359947</t>
   </si>
   <si>
     <t>【Ready Stock】Smart Air Freshener Automatic Aroma Sprayer Essential Oil Diffuser Aroma Spray Dispenser Aroma Diffuser Air Purifier Deodorization Toilet Restroom Bedroom  Bathroom Be</t>
@@ -1450,13 +1698,22 @@
 3. 1 inch = 2.54 centimeters 1 centimeter = 0.39 inches</t>
   </si>
   <si>
-    <t>809624709</t>
-  </si>
-  <si>
-    <t>21167359947</t>
+    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912_tn</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>Diffusers</t>
   </si>
   <si>
     <t>https://shopee.sg/【Local-buy2free1】-Fairy-Light10M-1M-3M-5M50LEDCopper-Wire-String-Lighting-CakeDecoration-FlashingUSBLight(battery-includ-i.235307152.8742747229</t>
+  </si>
+  <si>
+    <t>235307152</t>
+  </si>
+  <si>
+    <t>8742747229</t>
   </si>
   <si>
     <t>【Local buy2free1】 Fairy Light10M/1M/3M/5M50LEDCopper Wire String Lighting CakeDecoration FlashingUSBLight(battery includ</t>
@@ -1504,13 +1761,22 @@
 Thank you &amp; enjoy your shopping</t>
   </si>
   <si>
-    <t>235307152</t>
-  </si>
-  <si>
-    <t>8742747229</t>
+    <t>https://cf.shopee.sg/file/3dbb4e8b1674459ed48d3a45840cddf9</t>
+  </si>
+  <si>
+    <t>23.9k</t>
+  </si>
+  <si>
+    <t>Fairy Light</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥SG-STOCK-40*60cm-Japanese-Style-Carpet-Floor-Mat-Rug-Kitchen-Bath-Mat-Carpet-Bath-Mats-i.857068188.19458919861</t>
+  </si>
+  <si>
+    <t>857068188</t>
+  </si>
+  <si>
+    <t>19458919861</t>
   </si>
   <si>
     <t>🔥SG STOCK 40*60cm Japanese Style Carpet Floor Mat Rug   Kitchen Bath Mat Carpet Bath Mats</t>
@@ -1548,13 +1814,16 @@
 3. Please Prevail On Real Item, Model Images For Reference Only.</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>https://cf.shopee.sg/file/sg-11134201-22100-bmz6itilnajvc8</t>
   </si>
   <si>
-    <t>857068188</t>
-  </si>
-  <si>
-    <t>19458919861</t>
+    <t>738</t>
+  </si>
+  <si>
+    <t>Bath Mats</t>
   </si>
   <si>
     <t>https://shopee.sg/PaperOne-Printing-Paper-A4-Paper-A3-Paper-A5-Paper-Copy-Paper-70gsm-80gsm-100gsm-i.84204959.6644641216</t>
@@ -1566,7 +1835,47 @@
     <t>6644641216</t>
   </si>
   <si>
+    <t>PaperOne Printing Paper | A4 Paper | A3 Paper | A5 Paper | Copy Paper 70gsm | 80gsm |100gsm</t>
+  </si>
+  <si>
+    <t>$4.10 - $13.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💖MILLIONPARCEL SINGAPORE STORE 💖
+📣100% Quality Brand Product 
+📣All product is ready stock 
+📣Join Fellows to enjoy Discount Voucher 
+📣Direct Factory, Wholesale Price
+📢 PaperOne have 3 type thickness:  70gsm (Green) &lt; 80gsm (Blue) &lt;100gsm (Red)
+Large Volume Label : 70gsm
+Office Printing: 80gsm
+Design Printing: 100gsm.
+Pls note:  During Courier Delivery, Minor blemishes to the cover surface are unavoidable. We appreciate your kind understanding❤️
+💡Product Highlight
+• Professional Printing paper
+• High Speed Printing
+• Multi Function Paper
+• Smudge Free
+• Save Ink
+</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa_tn</t>
+  </si>
+  <si>
+    <t>25.7k</t>
+  </si>
+  <si>
+    <t>Paper Supplies</t>
+  </si>
+  <si>
     <t>https://shopee.sg/(SG-Stock)-10pieces-128gsm-2023-Sampul-Duit-Raya-Murah-Viral-(Nurse-Floral-Mosque-Family)-Cheap-Money-Envelopes--i.39869582.22019679566</t>
+  </si>
+  <si>
+    <t>39869582</t>
+  </si>
+  <si>
+    <t>22019679566</t>
   </si>
   <si>
     <t>(SG Stock) 10pieces-128gsm | 2023 Sampul Duit Raya Murah Viral (Nurse, Floral, Mosque, Family) Cheap Money Envelopes,</t>
@@ -1587,13 +1896,25 @@
 📍Quantity 1 pack : 10/pcs</t>
   </si>
   <si>
-    <t>39869582</t>
-  </si>
-  <si>
-    <t>22019679566</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd_tn</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>Envelopes &amp; Angpao</t>
   </si>
   <si>
     <t>https://shopee.sg/Indoor-LED-Sensor-Night-Light-Human-Body-Induction-Sensor-Wall-Lamp-Magnetic-Adsorption-LED-Night-Lights-USB-Rechargeable-Battery-i.81087530.9534101347</t>
+  </si>
+  <si>
+    <t>81087530</t>
+  </si>
+  <si>
+    <t>9534101347</t>
   </si>
   <si>
     <t>Indoor LED Sensor Night Light Human Body Induction Sensor Wall Lamp Magnetic Adsorption LED Night Lights USB Rechargeable Battery</t>
@@ -1634,13 +1955,22 @@
 Happy Shopping in YXC</t>
   </si>
   <si>
-    <t>81087530</t>
-  </si>
-  <si>
-    <t>9534101347</t>
+    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d_tn</t>
+  </si>
+  <si>
+    <t>23.1k</t>
+  </si>
+  <si>
+    <t>Smart lighting</t>
   </si>
   <si>
     <t>https://shopee.sg/Soft-Fitted-Bed-Sheet-Set-*-Quilt-Cover-*-Plain-Colour-i.256689540.7641862066</t>
+  </si>
+  <si>
+    <t>256689540</t>
+  </si>
+  <si>
+    <t>7641862066</t>
   </si>
   <si>
     <t>Soft Fitted Bed Sheet Set * Quilt Cover * Plain Colour</t>
@@ -1687,10 +2017,13 @@
      If you wish to order bed sheet set and quilt cover, you have to order 1 bed sheet set and 1 quilt cover.</t>
   </si>
   <si>
-    <t>256689540</t>
-  </si>
-  <si>
-    <t>7641862066</t>
+    <t>https://cf.shopee.sg/file/02a2d913ec0a73612df976e0cf432eb5</t>
+  </si>
+  <si>
+    <t>18.2k</t>
+  </si>
+  <si>
+    <t>Bedsheets, Pillowcases &amp; Bolster Cases</t>
   </si>
   <si>
     <t>https://shopee.sg/🇸🇬2.2🔥Koala-Home-Chair-Cover-Dining-Chair-Cover-Elastic-Chair-Cover-seat-Cover-Chair-Cover-Elastic-Spandex-Seat-Cus-i.785454343.18907792814</t>
@@ -1702,7 +2035,56 @@
     <t>18907792814</t>
   </si>
   <si>
+    <t>🇸🇬2.2🔥Koala Home Chair Cover/Dining Chair Cover Elastic/Chair Cover seat Cover/Chair Cover Elastic Spandex/Seat Cus</t>
+  </si>
+  <si>
+    <t>$3.00 - $10.00</t>
+  </si>
+  <si>
+    <t>$1.45 - $3.48</t>
+  </si>
+  <si>
+    <t>Welcome to Koala Home Lifestyle SG!🥰
+🔥 Ready Stock! Ship out WITHIN 12 hours and receive in 2-3 working days on average.🔥🔥🔥
+🔥 If you face any issues, please chat with our friendly staff. If you are satisfied, please rate us ⭐⭐⭐⭐⭐
+🔥 Follow Koala Home Lifestyle SG to get follower-only vourcher, promotions, and giveaways.🔥🔥🔥
+📍Follow shop/ Like Items: Priority Shipping
+Our shop is a factory outlet store, if you want to buy a large number of goods or wholesale, please contact us, we will give you more discounts.
+📌Product Description
+ *Material: Spandex Polyester 
+📌Specifications:
+❤️Fashion design, high quality!
+❤️Material: Polyester Fiber
+❤️Style: Thick
+❤️Color: As the pic shows
+❤️Chair Back Height: About 32-43 cm
+📐Seat Width: About 38-45cm
+Seat Length: About 38-45cm
+📐L Chair cover:
+Chair Back Height: About 42-60 cm
+Seat Width: About 38-45cm
+Seat Length: About 38-45cm
+*Packing: 1pc Chair cover 
+*Wash Method: Hand Washable/Machine washable 
+Please note: Due to the difference between different monitors, the picture may not reflect the actual color of the item.</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc_tn</t>
+  </si>
+  <si>
+    <t>6.9k</t>
+  </si>
+  <si>
+    <t>Cushion &amp; Covers</t>
+  </si>
+  <si>
     <t>https://shopee.sg/-SG-stock-High-Quality-Adult-Waterproof-Raincoat-【5-Size】-top-Pants-PVC-night-Reflect-Hooded-outdoor-rainwear-防水雨衣-i.472472246.10113962114</t>
+  </si>
+  <si>
+    <t>472472246</t>
+  </si>
+  <si>
+    <t>10113962114</t>
   </si>
   <si>
     <t>[SG stock]High Quality Adult Waterproof Raincoat 【5 Size】[top+ Pants] PVC night Reflect Hooded outdoor rainwear  防水雨衣</t>
@@ -1768,174 +2150,13 @@
 </t>
   </si>
   <si>
-    <t>472472246</t>
-  </si>
-  <si>
-    <t>10113962114</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/7b5367205f971878c9ec3fe81095a1f6</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/b0e59fac88d60c0acfc9597e8f2ce02d</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3dbb4e8b1674459ed48d3a45840cddf9</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/02a2d913ec0a73612df976e0cf432eb5</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-23010-mhbxbmj21nmv5f</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22110-svqi34n7eckvdf</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/82995c90669097622600d0eaf6546dbd</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/381b70c5821b518aa41574ebad62d698</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/a14c3fbb9daf6c972aee7506801d9846</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/5c7f221a1eec85ec36c5a38884e953b5</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ce8d8ae4eb7e72579b0484907bcf9187</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/03cb30d96c47acc9a45c27972913f24c</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22110-j3rqezectwjv65</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc</t>
-  </si>
-  <si>
-    <t>current_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">💖MILLIONPARCEL SINGAPORE STORE 💖
-📣100% Quality Brand Product 
-📣All product is ready stock 
-📣Join Fellows to enjoy Discount Voucher 
-📣Direct Factory, Wholesale Price
-📢 PaperOne have 3 type thickness:  70gsm (Green) &lt; 80gsm (Blue) &lt;100gsm (Red)
-Large Volume Label : 70gsm
-Office Printing: 80gsm
-Design Printing: 100gsm.
-Pls note:  During Courier Delivery, Minor blemishes to the cover surface are unavoidable. We appreciate your kind understanding❤️
-💡Product Highlight
-• Professional Printing paper
-• High Speed Printing
-• Multi Function Paper
-• Smudge Free
-• Save Ink
-</t>
-  </si>
-  <si>
-    <t>PaperOne Printing Paper | A4 Paper | A3 Paper | A5 Paper | Copy Paper 70gsm | 80gsm |100gsm</t>
-  </si>
-  <si>
-    <t>$4.10 - $13.90</t>
-  </si>
-  <si>
-    <t>🇸🇬2.2🔥Koala Home Chair Cover/Dining Chair Cover Elastic/Chair Cover seat Cover/Chair Cover Elastic Spandex/Seat Cus</t>
-  </si>
-  <si>
-    <t>Welcome to Koala Home Lifestyle SG!🥰
-🔥 Ready Stock! Ship out WITHIN 12 hours and receive in 2-3 working days on average.🔥🔥🔥
-🔥 If you face any issues, please chat with our friendly staff. If you are satisfied, please rate us ⭐⭐⭐⭐⭐
-🔥 Follow Koala Home Lifestyle SG to get follower-only vourcher, promotions, and giveaways.🔥🔥🔥
-📍Follow shop/ Like Items: Priority Shipping
-Our shop is a factory outlet store, if you want to buy a large number of goods or wholesale, please contact us, we will give you more discounts.
-📌Product Description
- *Material: Spandex Polyester 
-📌Specifications:
-❤️Fashion design, high quality!
-❤️Material: Polyester Fiber
-❤️Style: Thick
-❤️Color: As the pic shows
-❤️Chair Back Height: About 32-43 cm
-📐Seat Width: About 38-45cm
-Seat Length: About 38-45cm
-📐L Chair cover:
-Chair Back Height: About 42-60 cm
-Seat Width: About 38-45cm
-Seat Length: About 38-45cm
-*Packing: 1pc Chair cover 
-*Wash Method: Hand Washable/Machine washable 
-Please note: Due to the difference between different monitors, the picture may not reflect the actual color of the item.</t>
-  </si>
-  <si>
-    <t>$3.00 - $10.00</t>
-  </si>
-  <si>
-    <t>$1.45 - $3.56</t>
+    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc_tn</t>
+  </si>
+  <si>
+    <t>5.2k</t>
+  </si>
+  <si>
+    <t>Raincoats</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2223,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2025,44 +2246,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2089,15 +2310,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2124,7 +2344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2136,160 +2355,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="51.81640625" customWidth="1"/>
-    <col min="6" max="6" width="53.36328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,1047 +2539,1536 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27">
+        <v>11154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>294</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34">
+        <v>2398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" t="s">
+        <v>330</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35">
+        <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" t="s">
+        <v>343</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J36" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" t="s">
+        <v>346</v>
+      </c>
+      <c r="L36">
+        <v>4645</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" t="s">
+        <v>352</v>
+      </c>
+      <c r="H37" t="s">
+        <v>353</v>
+      </c>
+      <c r="I37" t="s">
+        <v>354</v>
+      </c>
+      <c r="J37" t="s">
+        <v>355</v>
+      </c>
+      <c r="K37" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F38" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" t="s">
+        <v>363</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
+        <v>364</v>
+      </c>
+      <c r="J38" t="s">
+        <v>365</v>
+      </c>
+      <c r="K38" t="s">
+        <v>366</v>
+      </c>
+      <c r="L38">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>367</v>
+      </c>
+      <c r="B39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>373</v>
+      </c>
+      <c r="J39" t="s">
+        <v>374</v>
+      </c>
+      <c r="K39" t="s">
+        <v>375</v>
+      </c>
+      <c r="L39">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" t="s">
+        <v>379</v>
+      </c>
+      <c r="E40" t="s">
+        <v>380</v>
+      </c>
+      <c r="F40" t="s">
+        <v>381</v>
+      </c>
+      <c r="G40" t="s">
+        <v>382</v>
+      </c>
+      <c r="H40" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
+      <c r="I40" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" t="s">
+        <v>384</v>
+      </c>
+      <c r="K40" t="s">
+        <v>385</v>
+      </c>
+      <c r="L40">
+        <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" t="s">
-        <v>286</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>303</v>
-      </c>
-      <c r="G28" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" t="s">
-        <v>287</v>
-      </c>
-      <c r="G29" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G30" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>279</v>
-      </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" t="s">
-        <v>305</v>
-      </c>
-      <c r="G32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B36" t="s">
-        <v>314</v>
-      </c>
-      <c r="D36" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36" t="s">
-        <v>313</v>
-      </c>
-      <c r="F36" t="s">
-        <v>307</v>
-      </c>
-      <c r="G36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G37" t="s">
-        <v>253</v>
-      </c>
-      <c r="H37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" t="s">
-        <v>309</v>
-      </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
-      <c r="H38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>316</v>
-      </c>
-      <c r="C40" t="s">
-        <v>318</v>
-      </c>
-      <c r="D40" t="s">
-        <v>319</v>
-      </c>
-      <c r="E40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F40" t="s">
-        <v>310</v>
-      </c>
-      <c r="G40" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="H41" t="s">
-        <v>277</v>
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" t="s">
+        <v>394</v>
+      </c>
+      <c r="K41" t="s">
+        <v>395</v>
+      </c>
+      <c r="L41">
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\code\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE820E6-8587-473C-8E83-2BA27C46A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB986B-2D79-4856-81D1-D81C967B72B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="785">
   <si>
     <t>url</t>
   </si>
@@ -116,9 +116,6 @@
     <t>4.7</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f_tn</t>
-  </si>
-  <si>
     <t>2.2k</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
 💓Our working hours: 9-12 am, 14-18 pm, 19-22 pm
 💓Thank you for shopping here, the store often has flash sales promotions, you can click to follow the store, there will be promotion reminders🌹
 Happy shopping 🌹</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef_tn</t>
   </si>
   <si>
     <t>308</t>
@@ -489,9 +483,6 @@
 #bag#backpack#men's backpack#laptop backpack#student backpack#travel bag#women's backpack#business#leisure#waterproof bag#fashion female schoolbag#leisure computer bag#outdoor backpack#college student backpack#men's large-capacity backpack #</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547_tn</t>
-  </si>
-  <si>
     <t>420</t>
   </si>
   <si>
@@ -548,9 +539,6 @@
 【Not included iPad &amp; iPad pencil】
 If you have any information about our products, please feel free to chat with us, we will reply to your information in time, thank you for your support!
 iPadkeyboardcase iPkeyboard wirelesskeyboard 10.2iPad7thgen iPadpencilholder iPad iPadcover iPadcase iPadair4 iPadair5 bluetoothkeyboard softiPcase 10.2iPad9thgen 10.2iPad8thgen penslot 9.7iPad5thgen 9.7iPad6thgen 2021iPadpro11 air4thiPadcase 10.9iPadcase pro11iPadcase 10.9iPadkeyboardcase air5iPadkeyboardcase</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/568c98f208cf8729d6ffd3b093d733b3_tn</t>
   </si>
   <si>
     <t>302</t>
@@ -673,9 +661,6 @@
 1 x USB cable</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133_tn</t>
-  </si>
-  <si>
     <t>5.6k</t>
   </si>
   <si>
@@ -784,9 +769,6 @@
 😊 Thanks for you support，hope you shopping happy！</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/56093e71b874c07e7ddb456ee911e3bd_tn</t>
-  </si>
-  <si>
     <t>2.7k</t>
   </si>
   <si>
@@ -847,9 +829,6 @@
   </si>
   <si>
     <t>$4.50 - $19.90</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57_tn</t>
   </si>
   <si>
     <t>2.8k</t>
@@ -912,9 +891,6 @@
 #korean laptop bag</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541_tn</t>
-  </si>
-  <si>
     <t>1.3k</t>
   </si>
   <si>
@@ -1011,9 +987,6 @@
 Laptop Cooling Pad x 1,User Manual x 1</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1_tn</t>
-  </si>
-  <si>
     <t>637</t>
   </si>
   <si>
@@ -1056,9 +1029,6 @@
 </t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff_tn</t>
-  </si>
-  <si>
     <t>233</t>
   </si>
   <si>
@@ -1093,9 +1063,6 @@
 Commitment TO CUSTOMERS:
 - Bring the best quality products at the most suitable prices to customers. The product is the same as the description and picture posted in the store.
 - Bringing the most dedicated and enthusiastic customer service, helping you get the best experience when buying.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/9d0dd92b4d8fd778cc9af22172f22884_tn</t>
   </si>
   <si>
     <t>708</t>
@@ -1135,9 +1102,6 @@
 If the plastic sheet of the battery compartment is torn off, there is still no response when pressing the remote control button?
 ——Need to check whether the remote control is aimed at the infrared receiver, it needs to be aimed to work normally
   Sekiranya anda tidak memahami masalah masalah yang lain, sila hubungi kami tepat pada waktunya dan kami akan membantu anda menanganinya tepat pada waktunya.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30_tn</t>
   </si>
   <si>
     <t>6.7k</t>
@@ -1203,9 +1167,6 @@
 ★ Dear friend:you may find that someone sells at a lower price than us but they cannot guarantee the same quality and service as we do,Please Believe us And Follow our store.thank you so much!</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739_tn</t>
-  </si>
-  <si>
     <t>4.4k</t>
   </si>
   <si>
@@ -1250,9 +1211,6 @@
 #cadar #comforter #cadarpacthwork #queen-comforter #single-comforter #beddingset #bedsheet #mickey-mouse #duvet #quilt #cotton #summer-blanket #queencadar #kingsize #magic-color #Airconditioningduvet #bedsheet-set #simple #cotton-comforter#bedcover #quilt #cotton #summer #comforter #duvet #blanket #Selimut</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/e9959928ccc25c7f48cc616d56d2c285_tn</t>
-  </si>
-  <si>
     <t>8.7k</t>
   </si>
   <si>
@@ -1330,9 +1288,6 @@
 #children, #namelabels, #goodybaggifts, #party, #birthday, #school, #books, #waterbottle, #stationeries</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356_tn</t>
-  </si>
-  <si>
     <t>29.3k</t>
   </si>
   <si>
@@ -1361,9 +1316,6 @@
 Our packaging will be re examined before leaving the warehouse, please be assured of your purchase.
 Our customer service hours are morning. 9: 00 to night18: Anything you have to ask us, we'd like to solve your problem with our hearts
 Relations, if you think our goods are good, just give a good compliment, your evaluation is very important to us.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb_tn</t>
   </si>
   <si>
     <t>34.8k</t>
@@ -1407,9 +1359,6 @@
 Exquisite life, you deserve it, come and buy it ~~~
 If you have any questions, just talk ~
  I wish you a happy shopping ~~~</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd_tn</t>
   </si>
   <si>
     <t>21.4k</t>
@@ -1457,9 +1406,6 @@
 📝Feel free to approach us using ‘Chat Chat’, we will reply ASAP</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/090e220bce66e2fef4b13b11f1f3b54c_tn</t>
-  </si>
-  <si>
     <t>3k</t>
   </si>
   <si>
@@ -1499,9 +1445,6 @@
 Note :
 1. Due To The Light And Screen Difference, The Item's Color May Be Slightly Different From The Pictures.
 2. Please Allow 0.1-2cm Differences Due To Manual Measurement.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230_tn</t>
   </si>
   <si>
     <t>20.1k</t>
@@ -1630,9 +1573,6 @@
 3. After you receive the goods, if you have any questions, please contact us as soon as possible so that we can solve any problems.</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e_tn</t>
-  </si>
-  <si>
     <t>Jugs &amp; Pitchers</t>
   </si>
   <si>
@@ -1698,9 +1638,6 @@
 3. 1 inch = 2.54 centimeters 1 centimeter = 0.39 inches</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912_tn</t>
-  </si>
-  <si>
     <t>372</t>
   </si>
   <si>
@@ -1860,9 +1797,6 @@
 </t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa_tn</t>
-  </si>
-  <si>
     <t>25.7k</t>
   </si>
   <si>
@@ -1897,9 +1831,6 @@
   </si>
   <si>
     <t>5.0</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd_tn</t>
   </si>
   <si>
     <t>617</t>
@@ -1953,9 +1884,6 @@
 1. Due to the different monitor and light effect, the actual color of the item might be slightly different from the color showed on the pictures. Thank you! 
 2. Please allow 1-3cm measuring deviation due to manual measurement.
 Happy Shopping in YXC</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d_tn</t>
   </si>
   <si>
     <t>23.1k</t>
@@ -2067,9 +1995,6 @@
 *Packing: 1pc Chair cover 
 *Wash Method: Hand Washable/Machine washable 
 Please note: Due to the difference between different monitors, the picture may not reflect the actual color of the item.</t>
-  </si>
-  <si>
-    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc_tn</t>
   </si>
   <si>
     <t>6.9k</t>
@@ -2150,13 +2075,2424 @@
 </t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc_tn</t>
-  </si>
-  <si>
     <t>5.2k</t>
   </si>
   <si>
     <t>Raincoats</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Hair-Trimmer-Barber-Haircut-Rechargeable-Hair-Clipper-Cordless-Men-Hair-Cutting-Machine-Beard-Trimmer-shaver-shaving-电推剪理发器-i.828085525.21364167178</t>
+  </si>
+  <si>
+    <t>828085525</t>
+  </si>
+  <si>
+    <t>21364167178</t>
+  </si>
+  <si>
+    <t>Hair Trimmer Barber Haircut Rechargeable Hair Clipper Cordless Men Hair Cutting Machine Beard Trimmer shaver shaving 电推剪理发器</t>
+  </si>
+  <si>
+    <t>$18.62</t>
+  </si>
+  <si>
+    <t>$4.31</t>
+  </si>
+  <si>
+    <t>(Note, no box)
+Description:
+Professional Men&amp;#39;s Hair Trimmer Clipper 0mm Baldheaded Cutter Beard Shaving Precision Finishing Hair Cutting Machine Adult Kid
+Material: Titanium + stainless steel
+Power Type: Rechargeable, With USB Cable
+Voltage: 110-240V
+Product Size: 14.20*4.0*2.3cm
+Washing Mode: Cleaning brush clean
+Features: long life, high-speed charging, stable discharge, economical and environmentally friendly
+Note:
+1Pcs* hair trimmer, 1Pcs* brush, 4Pcs* limit comb(1.5MM 2MM 3MM 4MM) and 1Pcs*USB cable</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-22110-9y3t14e0a8jv86</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Shave</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Korean-Lip-Sleeping-Mask-Night-Sleep-Moistened-Lip-Balm-Bleaching-Cream-Lips-Care-i.393469970.12892464186</t>
+  </si>
+  <si>
+    <t>393469970</t>
+  </si>
+  <si>
+    <t>12892464186</t>
+  </si>
+  <si>
+    <t>Korean Lip Sleeping Mask Night Sleep Moistened Lip Balm Bleaching Cream Lips Care</t>
+  </si>
+  <si>
+    <t>$3.24</t>
+  </si>
+  <si>
+    <t>$0.54 - $1.07</t>
+  </si>
+  <si>
+    <t>Type Lip Mask
+Feature Moisturizing
+Use Lip
+Model Number pink lips cream
+NET WT 3G</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6ed4da65def1f33f50ba650465e628fc</t>
+  </si>
+  <si>
+    <t>3.8k</t>
+  </si>
+  <si>
+    <t>Lip Care</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/48V-Cordless-Drill-Electric-Drill-Wall-Drill-with-25-Pieces-Tools-Set-25-Torque-level-LED-电钻-墙钻-i.32811676.9454623023</t>
+  </si>
+  <si>
+    <t>32811676</t>
+  </si>
+  <si>
+    <t>9454623023</t>
+  </si>
+  <si>
+    <t>48V Cordless Drill Electric Drill Wall Drill with 25 Pieces Tools Set 25 Torque level LED 电钻 墙钻</t>
+  </si>
+  <si>
+    <t>$9.00 - $59.00</t>
+  </si>
+  <si>
+    <t>48V Cordless Drill Electric Drill Wall Drill Screwdriver Screw Driver 3 Speed 25 Torque LED 电钻 墙钻 
+Color = Red &amp; Black
+Features
+-Two-speed models (high-end and low-end) give you more choices
+-Built-in LED work light to provide lighting in dark places when working.
+-Ergonomic and comfortable handle provides ideal balance and tool control.
+-Forward/backward/lock switch, support forward/backward drive and safety lock.
+- Powered by Li-Ion rechargeable battery, provide longer running time and more power
+- High efficiency motor, delivers up to 28N.m of torque and 0-1450r/min of speed
+- Drill chuck for quick and simple bit replacement
+forward, reverse and lock. Due to a lockout mechanism, the forward/ reverse switch can only be adjusted when the trigger is not pressed. Always allow the motor to come to a complete stop before using the forward/reverse switch.
+- With in LED working light, provides illumination in dark spaces as you work
+Specifications：
+Name: Electric Drill
+Battery Voltage: 48V
+Max Torque: 25-28Nm
+No Load Speed: 0-450r/min, 0-1450r/min
+Charger:  SG 3pin Plug
+Input: 110V-240V 50-60Hz
+Output: 1.3A
+Color: Red &amp; Black
+Package included:
+1 x Electric Drill / Wall Drill
+1 X Battery /  2 x Battery
+1x Charger
+25 x Tools
+1 x Carry Box
+WARNING
+To reduce the risk of injury, wear safety boggles or glasses with side shields.
+Note:
+1. Please allow 0.5-1cm differences due to manual measurement.
+2. Due to the light and screen difference, the item's color may be slightly different from the pictures.</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/cf47548547ace821fb31446e730ab6df</t>
+  </si>
+  <si>
+    <t>1.4k</t>
+  </si>
+  <si>
+    <t>Power Tools &amp; Accessories</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Sewing-machine-Hand-held-sewing-machine-Mini-small-sewing-machine-simple-household-multi-function-manual-mini-portable-tailoring-machine-i.504637970.3496852656</t>
+  </si>
+  <si>
+    <t>504637970</t>
+  </si>
+  <si>
+    <t>3496852656</t>
+  </si>
+  <si>
+    <t>Sewing machine/Hand-held sewing machine/Mini small sewing machine simple household multi-function manual mini portable tailoring machine</t>
+  </si>
+  <si>
+    <t>$4.51</t>
+  </si>
+  <si>
+    <t>✨ Our products are in stock
+✨8-15The goods can be received within days ✅
+✨ Once the package is sent, it cannot be returned ⛄ Unable to cancel the order, please be informed ❤️
+✨ About chromatic aberration ⛅ It is normal for the goods to have a little color difference from the picture ❤️
+✨ No return or replacement is provided after sales ⛄ Mind if you don't place an order ❤️
+✨ Customers who often don't pick up goods should not place cash on delivery orders ❤️
+✨ Please do not give a four-star or below evaluation without reason, otherwise the transaction will be blocked ❤️
+✨ Another shop owner can buy Chinese goods ⚡ If you need retail and wholesale, please contact the shopkeeper ❤️</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/👍CHEAPEST!!!👍-12-Pcs-Acoustic-Sound-Proof-Absorber-Studio-KTV-Soundproof-Home-Wall-Foam-Sponge-Panels-Pyramid-30*30*5cm-i.177834208.8950548375</t>
+  </si>
+  <si>
+    <t>177834208</t>
+  </si>
+  <si>
+    <t>8950548375</t>
+  </si>
+  <si>
+    <t>👍CHEAPEST!!!👍 12 Pcs Acoustic Sound Proof Absorber Studio KTV Soundproof Home Wall Foam Sponge Panels Pyramid 30*30*5cm</t>
+  </si>
+  <si>
+    <t>$8.80 - $24.90</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT FRIENDLY AND HEALTHY: Reduce indoor echo interference and improve the quality of sound.
+FIRE AND FLAME RETARDANT: Sponge products, dust-free, with flame retardant function.
+HIGH-DENSITY: High density and high resilience.
+CLOSED CELL STRUCTURE: Prevent penetration of water vapor and prolong the service life.
+GOOD SOUND INSULATION: Interior is filled with small voids and semi-open hole structure, which enables it to absorb larger sound waves to achieve sound attenuation effect and reduce the interference and echo of sound waves reflected in the room.
+High quality Easy-to-use environmental friendly polyurethane foam
+Acoustic quiet and noise control can be used to limit unwanted noise. Soundproofing can suppress unwanted indirect soundwaves such as reflections that cause echoes and resonances that cause reverberation. Therefore we have this sound proof that can be able to limit it from 57hz to 20khz recommended.
+Key Features
+1. Fire Retardant
+2. Eco-friendly
+3. Easy to install
+4. High density
+5. Sound Absorbing
+How to use:
+Our acoustic foam comes compressed. Place it in a ventilated place and wait for 2-3 days for it to return to normal size. If the shape recovery is not good, spray water on it and wring it, and let it sit for 3-4 hours.
+Stick a double sided tape on all four corners and the center of the foam, then stick it on the wall.
+Product Description
+Model: Pyramid shape
+Color: Black, Red, Blue, Grey
+Materiel: High quality environmentally polyurethane foam
+Size: Size 30*30*5cm (12"*12"*2")
+Note: Colors may look different due to lighting.</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/7f4ebaea988b3a22be73ff74a0c05d9f</t>
+  </si>
+  <si>
+    <t>3.1k</t>
+  </si>
+  <si>
+    <t>Home Entertaiment System</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Electric-Food-Chopper-USB-Garlic-Chopper-Kitchen-Blender-Mixer-Vegetable-Meat-Chilli-Grinder-Machine-i.52652942.11409111620</t>
+  </si>
+  <si>
+    <t>52652942</t>
+  </si>
+  <si>
+    <t>11409111620</t>
+  </si>
+  <si>
+    <t>Electric Food Chopper / USB Garlic Chopper / Kitchen Blender Mixer / Vegetable Meat Chilli Grinder Machine</t>
+  </si>
+  <si>
+    <t>$6.90 - $13.60</t>
+  </si>
+  <si>
+    <t>$5.52 - $10.88</t>
+  </si>
+  <si>
+    <t>SG SELLER
+ALL ITEMS ARE MAIL OUT FROM OUR SG WAREHOUSE
+Description
+👍High Performing Electric Garlic Chopper: This Mini chopper fitted with a 30W motor designed to drive 3 stainless steel reinforced blades that provide great performance for reliable results. As a compact and lightweight electric garlic chopper, this mini food chopper is perfect for small jobs, like chopping garlic, ginger, peppers, carrots, vegetables, onions, nuts and more.
+🔋Portable &amp; USB Rechargeable: Mini chopper it is a great option when you travel or on camping trips. This Food Processor Mincer support USB rechargeable and can be used about 35 times after fully charged.
+💧Easy To Use and Clean: One touch button to switch the chopper on or off, just fill the container with your ingredients, lock the cover, you can get an evenly shred food in a few seconds. The whole body of the crusher is waterproof and the blades are removable. You can directly rinse the food chopper after use, which is easy cleaning with no residue.
+🌶【One-touch Operation】 The one-touch operation design of the mini food chopper will free your hand when you are chopping, just put food or ingredients in the mini food processor, lock the cover and press the button of the mini chopper, you can get an evenly shred food in a few seconds, saving you more time and energy, perfect for your everyday cooking. This electric food chopper made of food grade material, BPA FREE and safe to use, 304 stainless steel blades, durable and rust-resistance.
+🌶Tips for use and Warranty Customer Service: It is recommended that you cut large pieces of food into small pieces before use. Don't pile up the bottom space. For vegetables/fruits with hard skin, peel it off first. For hard roots such as carrots, beetroots, celeries, etc. make sure to PREBOIL them or MICROWAVE them quickly first before chopping them using the chopper. any question or concern please feel free to contact us.
+Premium material: The stainless-steel blade is durable, strong and powerful for efficient cutting. The food grade plastic in the cup is BPA free and safe to hold food, robust and germ free.
+Powerful function: The sharp blades of the garlic chopper are quick to chop garlic, seasoning, nuts, vegetables, meat, ice cubes and more, perfect for small foods. You can use it for cooking, baby food supplements, smoothie drinks.
+Good detail design: The Mini Garlic Grinder has good details, the square loop prevents slipping, the water outlet makes the residual water drained, the magnetic knife column makes it safer.</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>Speciality cooker</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/3-WAY-Extension-Socket-Plug-UK-(1.8-Meters)-With-Safety-Mark-3x-USB-charger-USB-Independent-switch-i.701776630.14080192123</t>
+  </si>
+  <si>
+    <t>701776630</t>
+  </si>
+  <si>
+    <t>14080192123</t>
+  </si>
+  <si>
+    <t>3 WAY Extension Socket Plug UK (1.8 Meters) With Safety Mark &amp; 3x USB charger USB &amp; Independent switch</t>
+  </si>
+  <si>
+    <t>$4.70</t>
+  </si>
+  <si>
+    <t>Colors: White, Black
+Switch mode: single control with switch
+Product Certification: CCC
+Rated current: 10A
+Number of USB ports: 3
+Number of holes: 3
+Conductor material: copper
+Shell material: ABS
+USB output parameters: 5V2.1A
+Adapter plug type: Rated voltage: 110~240V
+Rated voltage range: &lt;250V
+Rated power: 2500W
+Application range: home, office
+Dimensions: 22*8*3CM</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/420320f766d9aa79b4f175ba9becd022</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>Power Socket</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Dust-Mite-Remover-Electric-Vacuum-Cleaner-Handheld-Bed-Mattress-Vacuum-Vacumn-10000pa-UV-Light-i.1395055.20405707675</t>
+  </si>
+  <si>
+    <t>1395055</t>
+  </si>
+  <si>
+    <t>20405707675</t>
+  </si>
+  <si>
+    <t>Dust Mite Remover Electric Vacuum Cleaner Handheld Bed Mattress Vacuum Vacumn 10000pa UV Light</t>
+  </si>
+  <si>
+    <t>$78.00 - $219.90</t>
+  </si>
+  <si>
+    <t>$6.00 - $25.90</t>
+  </si>
+  <si>
+    <t>✅SG Ready Stocks✅
+💖 100% Quality Guarantee!
+✅ Features:
+👉 200,000 times of high-frequency vibration can quickly peel off dust mites
+👉 Innovative wireless charging, get rid of the shackles of wires
+👉 50℃ hot-air auxiliary heating, 45° oblique angle exhaust, rapid heating and wetting
+👉 3.8kpa powerful suction, high-speed imported movement, pull out deep mites
+👉 Ultraviolet cold light lamp, 100% removal rate of mites, 99.9% sterilization rate
+👉 Triple filtration system, filtering layer by layer to filter clean and fresh air
+✅ Details:
+👉 Product: Mite remover
+👉 Weight: 0.8kg
+👉 Material: ABS
+👉 Vacuum box: 200ml
+👉 Battery: 2000mAh
+👉 Voltage: 3.7V
+👉 Charging cable length: about 1 meter
+👉 Signal-to-noise ratio: ≤82dB
+👉 Vacuum degree: ≥10Kpa
+👉 Function: wet and dry use, remove mites, absorb dust, remove odor
+✅ Package Includes:
+1 x Mite Remover
+1 x Charging Cable
+1 x English User Manual
+🔥 ADD ON HEPA Filter (Not included in the package)</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/9588f27f9b5d1a38cd2221cc9e5469bd</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/For-Mitsubishi-air-conditioner-remote-control-for-KM05E-KM06E-KM09G-KD05D-SG10-MSZ-GE35VA-MSZ-GE42VA-MSZ-GE50VA-MSZ-GE25VA-MSZ-GE33VA-i.493466761.16981780495</t>
+  </si>
+  <si>
+    <t>493466761</t>
+  </si>
+  <si>
+    <t>16981780495</t>
+  </si>
+  <si>
+    <t>For Mitsubishi air conditioner remote control for KM05E KM06E KM09G KD05D SG10 MSZ-GE35VA MSZ-GE42VA MSZ-GE50VA MSZ-GE25VA MSZ-GE33VA</t>
+  </si>
+  <si>
+    <t>$3.76</t>
+  </si>
+  <si>
+    <t>$2.68</t>
+  </si>
+  <si>
+    <t>Mitsubishi air conditioner remote control for KM05E KM06E KM09G KD05D SG10 MSZ-GE35VA MSZ-GE42VA MSZ-GE50VA MSZ-GE25VA MSZ-GE33VA
+ Suitable for MITSUBISHI  Models: 
+MSZ-GE22VA MSZ-GE25VA MSZ-GE33VA 
+MSZ-GE35VA MSZ-GE42VA MSZ-GE50VA   MSZ-GE35VAD MSZ-Ge22VAD  MSZ-GE25VAD 
+KM05 KM07RV KM11H KM09A KM09D KM09E
+MSZ-GE35VA, MSZ-GE42VA, MSZ-GE50VA 
+MSZ-GE60VA, MSZ-GE71VA, MSZ-GE80VA
+MSZ-GA35VA, MSZ-GA42VA MSZ-GA71VA
+MSZ-GA50VA, MSZ-GA60VA, MSZ-GA80VA</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/449f144cb98edb607fbcbf60731a0af4</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>TV Remote Control</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/🇸🇬-450ML-Portable-Blender-Multi-function-Juicer-6-Blade-Mini-Juice-Cup-Household-Food-Soymilk-Fruit-Mixer-Juicer-blender-i.864052301.19958051705</t>
+  </si>
+  <si>
+    <t>864052301</t>
+  </si>
+  <si>
+    <t>19958051705</t>
+  </si>
+  <si>
+    <t>🇸🇬 450ML Portable Blender Multi-function Juicer 6 Blade Mini Juice Cup Household Food Soymilk Fruit Mixer Juicer blender</t>
+  </si>
+  <si>
+    <t>$5.99 - $23.99</t>
+  </si>
+  <si>
+    <t>$3.99 - $23.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⭐️Singapore seller, All products are in stock，ready to ship
+⭐️Before purchasing goods, please pay attention to the store to get free discount coupons,
+⭐️Order successfully paid, arrange delivery within 24 hours
+💡Highlights and Product Details:
+💥〖Compact but packed with power〗One full charge(about 3 Hours) equals to 5-10 cups of juices
+💥〖Simply Safe and User Friendly〗Built-in safety features enable the juicer to operate only when components properly assembled
+💥〖Long Lasting Durability〗 Made from high-quality BPA free and food grade materials (Borosilicate Glass - Tritan™, PP and ABS) suitable for long term usage
+💥〖Bring It Anywhere〗 Compact enough to bring anywhere for convenient daily uses such as gym, office, schools and even at home
+💥〖Natural Ice Breaker〗 6-point stainless steel blades crushes any of your favourite ingredients (ice, frozen fruits, vegetables, protein powders etc.) into amazing drink efficiently, easily and effortlessly
+💥〖Easy Clean Function〗Just add water and an optional drop of soap, and run your blender until it's clean! You’re ready for next use!
+💥〖Extremely Encourage For〗Mums with toddler, students, gym-goers, working adults who are always in a rush and yet want to have a healthy drink. Refill your daily vitamins needs within minutes!
+📝How to use:
+✔ Cut fruits into smaller sizes to fit into juicer cups
+✔ Attached the blender properly to juicer cups, remember to add in minor amount of water or milk
+✔ Double tap ‘Power’ button to start the juicer
+✔ Lightly shake the juicer to blend smoother
+⚠️Tips:
+💦Do not wash the blender in running water or fully dip into water, blender will be damaged if water seeps into the lining below On/Off Button or Charging Port
+❌Do not start up the juicer with the glass empty, it might damage the blender
+🔌Do not use Fast Charge power cable &amp; socket
+- All our items are as described in the description.
+- Items are 100% brand new and we offer the best products at the best prices.
+- If the item you received is defective, please contact us immediately.
+- If you are satisfied with our item, please give us a positive feedback (5 stars) ⭐️ ⭐️ ⭐️ ⭐️ ⭐️.
+💡关于产品:
+💥〖迷你机身，大电容量〗充电约3小时可连续打磨5-10杯水果汁
+💥〖微动装置保护〗机身设有微动装置保护，双击开启，放在包包也不怕意外开启
+💥〖健康安全耐用〗 杯子采用食品级健康安全高硼硅玻璃
+💥〖小巧便携〗 无线果汁机，小巧轻盈，专为出门便携而设计，可以每天携带去办公室，健身房或学校等等。
+💥〖锋利切碎蔬果〗304不锈钢4叶刀头，360°无死角旋风搅拌，轻松搅碎蔬果，小冰块等等，榨出你想要的营养美味
+💥〖轻松清洗机身〗只需在杯子装适量的水，加上几滴洗洁精，启动机子就可以完成清洗
+💥〖适用人群〗孕妇，孩子，老人家，学生，健身人士，办公室人群。每天只需双击摇一摇就可以榨出你想要的健康营养美味！
+📝如何使用:
+✔ 将食材去皮，核切小块装入杯中
+✔ 装上底座，可加适量的水或牛奶
+✔ 快速“双击”开关启动
+✔ 轻轻摇晃机身，更细腻
+⚠️小贴士:
+💦清洗时请不要把机身直接浸泡在水中或在水龙头下直接冲水，以避免机身的引擎进水，导致引擎不能继续操作。
+❌请不要在空机的情况下开启，以避免伤害果汁机机身。
+🔌请不要使用快充的插头或数据线进行充电。
+🗳️包装包含:
+🖲️ 1 x USB果汁机套装
+🥛 1 x 额外的高硼硅玻璃杯与盖
+🔌1 x USB充电数据线
+-我们所有的商品都如说明书所述。
+-产品100%全新，我们以最好的价格提供最好的产品。
+-如果您收到的商品有缺陷，请立即与我们联系。
+-如果您对我们的产品感到满意，请给我们积极的反馈（5星）⭐️ ⭐️ ⭐️ ⭐️ ⭐️
+</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Juicers &amp; Blenders</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Military-Laser-Pointer-Pen-Super-Powerful-Burning-Laser-High-Power-Lazer-Torch-Flashlight-Light-5mw-i.33542933.17241355235</t>
+  </si>
+  <si>
+    <t>33542933</t>
+  </si>
+  <si>
+    <t>17241355235</t>
+  </si>
+  <si>
+    <t>Military Laser Pointer Pen Super Powerful Burning Laser High Power Lazer Torch Flashlight Light 5mw</t>
+  </si>
+  <si>
+    <t>$7.56 - $27.00</t>
+  </si>
+  <si>
+    <t>$2.05 - $9.61</t>
+  </si>
+  <si>
+    <t>——Style A——
+Specifications:
+[product specifications]: φ14 × 155mm
+[product material]: copper + aluminum
+[Use battery]:
+styleA: 2*AAA Battery （Not included）
+styleB: 1 x 18650 button Battery
+styleC: USB Charging(waterproof/Can be used as a power bank）
+[product appearance]: pen shape
+[Appearance color]: black
+[Type]: Visible laser Diode
+[Specification parameters]: fixed focus, spot light spot, continuous output, continuous service life &gt; 5000 hours
+[Output wavelength]: Violet 405nm
+[output power]: 5MW
+[range range]: 8000meters
+[Beam diameter]: minimum spot diameter ≤ φ1.0mm; light spot at 15m &lt;Φ18mm
+[Circuit Control]: APC line
+[Working voltage]: DC=3.0V
+[Starting voltage]: DC=2.3V
+[Working current]: I&lt;350mA
+[Working temperature]: +20 ° C ~ +30 ° C
+[Storage temperature]: +10 ° C ~ +40 ° C
+[Net weight]: 20g/pcs
+Package included:
+1 x Laser Pen
+——Style B——
+Features:
+Presentation Controls, Waterproof, wiht star cap
+Portable size and science shape design.
+Simple and easy to use.
+A perfect gift for yourself or friend
+Specifications:
+Battery type: 1 x 18650 battery
+Laser Color: Green
+Power Source: Battery
+Power: 5mW
+Type: Pen
+Model: High Power Laser Pointer Pen
+Wavelength: 532nm
+Size: 157*22*18mm
+Package Included:
+1 x Laser Pen
+Notes:
+There is 2-3% difference according to manual measurement.
+Please check the measurement chart carefully before you buy the item.
+Due to the difference between different monitors, the picture may not reflect the actual color of the item. Thank you!</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Portable-Ironing-Machine-Electric-Iron-Steamer-Mini-Travel-Hand-held-Wet-Dry-Steam-Iron-i.15920950.16071785801</t>
+  </si>
+  <si>
+    <t>15920950</t>
+  </si>
+  <si>
+    <t>16071785801</t>
+  </si>
+  <si>
+    <t>Portable Ironing Machine Electric Iron Steamer Mini Travel Hand-held Wet Dry Steam Iron</t>
+  </si>
+  <si>
+    <t>$14.00</t>
+  </si>
+  <si>
+    <t>$12.90</t>
+  </si>
+  <si>
+    <t>2 in 1 design, supports dry and wet ironing.
+Titanium-soleplate heating, the ironing does not hurt the clothes.
+Designed as a rotatable handle. The handle can be rotated 180 degrees. fast Ironing
+It Irons at a constant temperature of 170℃, which can instantly smooth out the wrinkles of clothes and iron them quickly and efficiently.
+Hand-held design can save space, lightweight and compact,
+very suitable for travel and outing use.
+Specification:
+Product Material: ABS, PC, Electric Heating Module
+Product accessories: instruction+measuring cup+heat proof mat
+Rated Power: 33w
+Rated Frequency: 50hz
+Water Tank Capacity: 50ml
+Power cord length: 140cm
+Temperature: 170℃ constant temperature ironing
+Size: 115 x 62 x 84 mm                    
+Heating Method: Electric Heating
+Use Range: Ironing Clothes, Shirts, Underwear, Bags, Ties, Etc.
+Product Function: Ironing, Humidification, Disinfection and Sterilization
+Color: Dark Green
+Package Included:
+1* Mini Iron Machine
+1* Manual
+1* Measuring cup</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Digital-TV-Active-Antenna-DVB-T2-Set-Top-Box-with-Free-1-meter-HDMI-cable-Local-Warranty-i.84101.1981652583</t>
+  </si>
+  <si>
+    <t>84101</t>
+  </si>
+  <si>
+    <t>1981652583</t>
+  </si>
+  <si>
+    <t>Digital TV Active Antenna &amp; DVB-T2 Set Top Box with Free 1 meter HDMI cable Local Warranty</t>
+  </si>
+  <si>
+    <t>$12.00 - $34.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEASE TAKE NOTE: this box MUST use together with DVB-T2 Antenna , otherwise you can't receive any channel
+  Customer who has DVB-T2 antenna please choose option 'BOX ONLY', otherwise please choose 'BOX+ANTENNA'
+What's in the box
+1 * DVB-T2 box
+1 * AV cable
+1 * IR Remote controller 
+1 * Power Adapter
+1 * DC Power Cable
+1 * (English) User Manual 
+For DVB BOX Accessories please click :  https://shopee.sg/DVB-T2-QD66-SG-Accessories-i.84101.15779592915?sp_atk=024dc2f1-fe56-4796-8eb8-a15b7712e672&amp;xptdk=024dc2f1-fe56-4796-8eb8-a15b7712e672
+CEFideas - most reliable and responsible merchant online.
+Features :
+1.DVB-T2 compatible, supports MHEG4
+2. Compatible with 576i/576p/720p/1,080i/1080P video formats
+3. Mstar 7T01 chipset solution
+5. Supports HDMI 1.4 (1080P)
+6. Auto and manually scan all available TV and radio channels,Parental guidance locking
+7. Auto/manual program search, multi-language supported
+8. Supports MPEG-1, MPEG-2, MPEG-4 and H.264 decoder (up to 1,920 x 1,080 pixels)
+9. USB2.0 host support upgrade, PVR, time shifting and media play with U-Flash or HDD
+10. Supports HDMI output, scart output, coaxial, RF in and output
+11.Powerful and highly effective 7days EPG function
+Tuner :
+*Input Frequency: VHF 174~230 MHZ, UFH 470~ 862 MHZ
+*RF input level: -78~20 dBm
+*RF Bandwidth: 7MHZ and 8MHZ
+*Signal input: IEC-type female
+*QPSK, 16QAM,64QAM, 256QAM
+*FEC: 1/2, 2/3, 3/4, 4/5, 5/6
+Multimedia format :
+*Decoder format: MPEG 4 AVC/H.264 HP&amp;L4MPEG2 MP&amp;MP.HL
+*Output format:480i/480p/567i/567p/720i/720p/1080p/1080i
+*Output port: HDMI,AV/Scart(optional)
+*Decoder fomat: MPEG-1(layer 1&amp;2&amp;3),WMA.AC3,AAC
+*Audio output: Coaxial, L/R(AV or Scart)
+Hardware Interface :
+*Indicators: Power, signal lock
+*IR Receiver: 38KHZ
+*LED Display *HDMI 1.3
+*Loop through output: IEC- type, connector ,single tuner
+*Coaxial output*USB2.0
+*RCA Output(optional)*Scart Output
+What's in the box
+1 * DVB-T2 box
+1 * AV cable
+1 * IR Remote controller 
+1 * Power Adapter
+1 * DC Power Cable
+1 * (English) User Manual 
+Free
+1 * 1 meter HDMI cable
+Optional
+35 dBi Active Antenna with 3 Meter Cable
+Wifi dongle
+6 months local warranty, 1 to 1 exchange within 7days
+</t>
+  </si>
+  <si>
+    <t>4k</t>
+  </si>
+  <si>
+    <t>TV Boxes</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/-🇸🇬LocalSeller-Kitchen-Mini-Electric-Food-Processor-Rechargeable-Garlic-Blender-USB-Wireless-Cooking-Mixer-Machine-Gift-i.357973672.4689750446</t>
+  </si>
+  <si>
+    <t>357973672</t>
+  </si>
+  <si>
+    <t>4689750446</t>
+  </si>
+  <si>
+    <t>[🇸🇬LocalSeller] Kitchen Mini Electric Food Processor/Rechargeable Garlic Blender/USB Wireless/Cooking Mixer Machine/Gift</t>
+  </si>
+  <si>
+    <t>$5.99 - $28.99</t>
+  </si>
+  <si>
+    <t>$2.20 - $15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+📣𝙉𝙤𝙩 𝙮𝙤𝙪𝙧 𝙧𝙚𝙜𝙪𝙡𝙖𝙧 𝙚𝙡𝙚𝙘𝙩𝙧𝙞𝙘 𝙢𝙞𝙣𝙞 𝙛𝙤𝙤𝙙 𝙥𝙧𝙤𝙘𝙚𝙨𝙨𝙤𝙧! 𝐏𝐨𝐰𝐞𝐫𝐟𝐮𝐥 𝐡𝐢𝐠𝐡 𝐩𝐞𝐫𝐟𝐨𝐫𝐦𝐚𝐧𝐜𝐞 𝟒𝟓𝐰 𝐢𝐧𝐛𝐮𝐢𝐥𝐭 𝐦𝐨𝐭𝐨𝐫 𝐰𝐢𝐭𝐡 𝐬𝐡𝐚𝐫𝐩 𝐚𝐧𝐝 𝐩𝐫𝐞𝐜𝐢𝐬𝐞 𝟑𝟎° 𝐚𝐧𝐠𝐥𝐞𝐝 𝐝𝐨𝐮𝐛𝐥𝐞/𝐭𝐫𝐢𝐩𝐥𝐞 𝐚𝐮𝐬𝐭𝐞𝐧𝐢𝐭𝐢𝐜 𝐬𝐭𝐚𝐢𝐧𝐥𝐞𝐬𝐬 𝐬𝐭𝐞𝐞𝐥 𝐛𝐥𝐚𝐝𝐞𝐬. 𝐀𝐥𝐥𝐨𝐰𝐢𝐧𝐠 𝐲𝐨𝐮 𝐭𝐨 𝐜𝐨𝐧𝐯𝐞𝐧𝐢𝐞𝐧𝐭𝐥𝐲 𝐦𝐢𝐧𝐜𝐞/𝐝𝐢𝐜𝐞 𝐲𝐨𝐮𝐫 𝐟𝐨𝐨𝐝 𝐰𝐢𝐭𝐡𝐢𝐧 𝐬𝐞𝐜𝐨𝐧𝐝𝐬 𝐰𝐢𝐭𝐡 𝐨𝐮𝐫 𝐦𝐨𝐝𝐞𝐫𝐧𝐢𝐳𝐞 𝐥𝐨𝐨𝐤𝐢𝐧𝐠 𝐔𝐒𝐁 𝐰𝐢𝐫𝐞𝐥𝐞𝐬𝐬 𝐦𝐢𝐧𝐢 𝐟𝐨𝐨𝐝 𝐩𝐫𝐨𝐜𝐞𝐬𝐬𝐨𝐫 𝐡𝐞𝐫𝐞.
+✨𝐖𝐡𝐲 𝐜𝐡𝐨𝐨𝐬𝐞 𝐌𝐢𝐧𝐢 𝐄𝐥𝐞𝐜𝐭𝐫𝐢𝐜 𝐅𝐨𝐨𝐝 𝐏𝐫𝐨𝐜𝐞𝐬𝐬𝐨𝐫 𝐡𝐞𝐫𝐞✨
+✅ 𝙎𝙞𝙣𝙜𝙖𝙥𝙤𝙧𝙚 𝙁𝙤𝙤𝙙 𝘼𝙜𝙚𝙣𝙘𝙮 𝙇𝙞𝙘𝙚𝙣𝙘𝙚𝙙
+💵 𝘽𝙚𝙨𝙩 𝙥𝙧𝙞𝙘𝙚
+⭐ Mini, compact and convenient
+⭐ Long lasting 1300mAh battery
+⭐ BPA free and food grade materials
+⭐ Chops up to 30 times per full charge
+⭐ Wireless portable and USB rechargeable 
+⭐ Austenitic stainless steel double/triple precisely angled blades
+⭐ Hard to decide 150ml or 250ml? 2in1 available at reasonable and affordable price
+⭐ Friendly user, one button and operates it all. Click and hold to start and release to stop
+⭐ High performance with it's 45w inbuilt motor, stronger motor than regular mini food processors
+⭐ Additional anti-splash cover between machine and bowl for safety protection and partition for easy cleaning
+💯𝐀𝐯𝐚𝐢𝐥𝐚𝐛𝐥𝐞 𝐒𝐢𝐳𝐞𝐬 𝐚𝐧𝐝 𝐂𝐨𝐥𝐨𝐮𝐫𝐬💯
+𝐂𝐨𝐥𝐨𝐮𝐫𝐬,
+[White] - [Blue] - [Pink] - [Emerald]
+𝐒𝐢𝐳𝐞𝐬,
+[𝟏𝟓𝟎𝐦𝐥]
+Dimension - 8.5cm(W) x 10cm(H)
+Weight - 0.25kg
+Blades - 2 Blades
+[𝟐𝟓𝟎𝐦𝐥]
+Dimension - 8.5cm(W) x 12cm(H)
+Weight - 0.26kg
+Blades - 3 Blades
+[𝟐𝐢𝐧𝟏 𝟏𝟓𝟎+𝟐𝟓𝟎𝐦𝐥]
+Dimensions - 8.5cm(W) x 10cm(H) ~ 8.5cm(W) x 12cm(H)
+Weight - 0.25kg ~ 0.26kg
+Blades - 2 Blades + 3 Blades
+**𝘿𝙤𝙪𝙗𝙡𝙚/𝙩𝙧𝙞𝙥𝙡𝙚 𝙗𝙡𝙖𝙙𝙚𝙨 𝙤𝙣 𝙨𝙖𝙡𝙚 𝙤𝙣𝙡𝙮 𝙖𝙥𝙥𝙡𝙞𝙘𝙖𝙗𝙡𝙚 𝙩𝙤 250𝙢𝙡 𝙗𝙤𝙬𝙡𝙨
+💯𝐒𝐩𝐞𝐜𝐢𝐟𝐢𝐜𝐚𝐭𝐢𝐨𝐧𝐬💯
+Singapore Food Agency Licensed
+Certification : CIQ
+Certification : FDA
+Certification : CE / EU
+Engine power: 45W
+Rated voltage: 3.7V
+Rated current: 10A
+Charging voltage: 5V
+Charging current: 0.3A
+Material: Food Graded Polypropylene  / Austenitic 304 Stainless Steel
+</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Panasonic-Evolta-Battery-AA-AAA-x-4-8-18-Bundle-Pack-Alkaline-Batteries-Authentic-SG-Local-Neubie-i.202850780.20845692126</t>
+  </si>
+  <si>
+    <t>202850780</t>
+  </si>
+  <si>
+    <t>20845692126</t>
+  </si>
+  <si>
+    <t>Panasonic Evolta Battery AA / AAA x 4/8/18 Bundle Pack | Alkaline Batteries | Authentic | SG Local | Neubie</t>
+  </si>
+  <si>
+    <t>$6.80 - $23.90</t>
+  </si>
+  <si>
+    <t>$4.70 - $18.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic Evolta Battery AA x 4
+Panasonic Evolta Battery AAA x 4
+Panasonic Evolta Battery AA x 8
+Panasonic Evolta Battery AAA x 8
+Panasonic Evolta Battery AA x 18 Bundle Pack
+Panasonic Evolta Battery AAA x 18 Bundle Pack
+Standard delivery will be an estimate of 2-4 working days from the day of processing.
+20% Greater Endurance compared to normal Alkaline batteries
+Anti Leak Protection
+Store batteries safely for up to 10 Years
+Triple tough coating for a smooth energy flow
+Power: 1.5V
+Others: Up to 20 Percent longer battery life in continuous use., Certified Anti-Leak Protection </t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/15c99a2c086768120a2e4b3d42562025</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Oral-deep-cleaning-dental-floss-water-flosser-oral-irrigator-water-flush-spray-rechargeble-tooth-dental-plague-i.422695807.18920686025</t>
+  </si>
+  <si>
+    <t>422695807</t>
+  </si>
+  <si>
+    <t>18920686025</t>
+  </si>
+  <si>
+    <t>Oral deep cleaning dental floss water flosser oral irrigator water flush spray rechargeble tooth dental plague</t>
+  </si>
+  <si>
+    <t>$12.30 - $15.00</t>
+  </si>
+  <si>
+    <t>$12.20 - $12.30</t>
+  </si>
+  <si>
+    <t>Ship from Singapore. 
+Cable included for charging
+One Nozzle included
+Features and Functions:
+1. Designed with uninterrupted power memory function.
+2. Four modes for option: pulse,low,medium,high.
+3. Timed reminder: the appliance will stop after 30 seconds continuous work.
+4. Intelligent charging, automatic stop after full charging.
+5. With low battery indicator function.
+6. IPX7 grade waterproof design, can be washed all over
+Note: 
+💧 Charging Unit Prior to First Use
+💧 Plug the USB wire into any standard electrical outlet with DC 5V output
+💧 Make sure the appliance is not running while charging (do not charge while using it)
+1. Tongue tip: for tongue cleaning
+2. classic tip: normal use
+3. Small tip: high water pressure for plague removal
+4. Brush tip: for sticky stubborn dirt and people using braces
+7 days Free return/refund for faulty goods except consumables (sghouse) deep portable</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a354aa9392744c5921ac5b3c78fb1e91</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/household-hair-care-hair-dryer-Strong-wind-fast-drying-i.369862437.21506599843</t>
+  </si>
+  <si>
+    <t>369862437</t>
+  </si>
+  <si>
+    <t>21506599843</t>
+  </si>
+  <si>
+    <t>household  hair care hair dryer Strong wind fast drying</t>
+  </si>
+  <si>
+    <t>$38.90</t>
+  </si>
+  <si>
+    <t>$19.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💖Welcome to the Davidson store
+💖Bulk order and customization are welcome
+💖All products in this shop are shipped locally in Singapore
+💖Pay attention to this store, there will be more discounts and surprises
+🚚 Place your order with us today and you will receive within the next 1-3 working days!
+Feature:
+-Chic Design &amp; Strong Wind Power- Designed in T shape, Upgraded vent design reduces noises, making life quieter and more elegant. 2000W power makes heat even and strong for quick hair dryer.
+-Upgraded Technology- Blue light works with anion technology, this blower does not only dry hair, but also considerately reduces any possible harm to hair.
+-3 Gears Wind Power- 3 gears of wind power and wind temperature satisfy varied needs and different hair qualities.
+-Users Friendly Design- Detachable wind covers makes cleaning and dust exaction easier; 1 switch for on/ off and wind power switching.
+-Stylish Design Makes Perfect Gift-Mini size in stylish color makes this hair dryer a cute and sweet gift for friend, relatives, lover, and more.
+3 gears:
+1) Warm wind with strong power
+2) Hot wind with weak power
+3) Hot wind with strong power
+Specification:
+Material: ABS
+Voltage: 220V
+Frequency: 50HZ
+Power: 2000W
+Gear: 3
+Cable length: Approx. 1.4M
+Item size: 21x13.7x7.3cm
+Package Content:
+1 x hair dryer
+1 x wind collector head
+Do contact us before leaving a negative review and we will make you smile again!We strive to provide our customers an array of products that satisfy demand for quality and efficiency.
+---------------------------------------------------------------------------------------------
+★Note: Due to the light and screen difference, the item's color may be slightly different from the pictures. Please understand. Please allow some differences due to manual measurement.
+---------------------------------------------------------------------------------------------
+★★★ Best Service★★★
+★Fast Shipping
+→ Ready stock !  Large stock can be delivered locally. The transportation time is generally 2-4 days. There may be delays during holidays and promotions. Please wait patiently, but as long as you can order products in stock, please rest assured to buy.   
+★ Dear Friend! You may find that someone sells at a lower price than us but they cannot guarantee the same quality and service as we do.thank you!        </t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Hair Dryer</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/-SG-Seller-Legrand-Galion-Socket-and-Switch-White-Silver-Champagne-Rose-Gold-Goldberg-Home-i.362108962.5078204680</t>
+  </si>
+  <si>
+    <t>362108962</t>
+  </si>
+  <si>
+    <t>5078204680</t>
+  </si>
+  <si>
+    <t>[SG Seller] Legrand Galion Socket and Switch White Silver Champagne Rose Gold | Goldberg Home</t>
+  </si>
+  <si>
+    <t>$3.60 - $25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legrand Galion Socket and Switch
+DESIGN
+• Minimalistic design, French inspired.
+• Design to blend well with your luxurious home space
+• Color: White, Silver, Champagne &amp; Rose Gold
+• Galion compatible Mounting Box: https://shopee.sg/Legrand-galion-compatible-mounting-box-1-gang-2-gang-i.362108962.6180382576?sp_atk=a6b34456-8733-456f-bd4f-ec1d00a2bac1
+#Switch #Legrand #Galion #goldberghome #goldberg
+SAFETY FEATURES 
+• Safety Mark Certified 
+QUERIES ON OTHER PRODUCT 🔎
+Please reach out to us on chat if you have queries on products that are not listed here.  
+About
+-Goldberg Home is a SG local business and the products we sell are 100% authentic, tested and can be delivered to our customers within 2-4 days of order.
+</t>
+  </si>
+  <si>
+    <t>7.5k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Mini-Portable-Radio-KK-11-Handheld-Digital-FM-USB-TF-MP3-Player-Speaker-Rechargeable-i.281276851.4983913999</t>
+  </si>
+  <si>
+    <t>281276851</t>
+  </si>
+  <si>
+    <t>4983913999</t>
+  </si>
+  <si>
+    <t>Mini Portable Radio KK-11 Handheld Digital | FM | USB | TF | MP3 | Player Speaker Rechargeable</t>
+  </si>
+  <si>
+    <t>$9.90</t>
+  </si>
+  <si>
+    <t>$7.90</t>
+  </si>
+  <si>
+    <t>Package included:
+1 x Portable radio
+1 x 18650 battery
+1 x USB charging cable
+Specification:
+Color:Red
+Power Output: 3W
+THD: ≤5%
+Speaker: 57mm 3Ω
+Freq.Response:240Hz-15KHz
+FM Frequency:70MHz-108MHz
+Input Power:DC 5V 0.5A
+Battery:18650 3.7V/1200mAH
+Features:
+-Super LOUD despite its small size.
+-Plays up to 8000 songs in MP3 format.
+-Easy to use.
+-Power:Slide to switch ON or OFF.
+-Mode:Press to change source between MP3(USB/SD) AND FM.In FM mode,press and hold to auto-search and preset station frequency.
+-Previous:In MP3 mode, press to skip to previous track,press and hold to fast backward a track.In FM mode,press to selection previous preset station.
+-Next: In MP3 mode,press to skip to next track,press and hold to fast forward a track.In FM mode,press to selection next preset station.
+-Vol. Down:Press to decrease volume.
+-Vol. Up:Press to increase volume.
+-Number 0-9: In MP3 mode,press to select the specific track you want to listen (e.g. press 28 to select the 28th track in your playlist) .In FM mode, press to enter the station you want to listen(e.g. press 898 to select the 89.8MHz broadcasting station) .
+-USB Port:Insert USB flash-drive to play music track.
+-Headphone:Insert headphone if you do not want to disturb others when listening.
+-TF slot: Insert microSD flash-drive(TFcard) to play music track.
+-DC 5V:Connect the provided power cable(USB-mini USB)to charge battery.
+PLEASE NOTES: the default power on FM mode, will automatically open to the maximum volume to search for signals, you need to manually adjust the volume each time. pls do not place an order if u mind. thanks</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/72d9295bab412a749ff40a458f52f166</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Keromee-ANS-8050-Cordless-Electric-Spin-Scrubber-Rechargeable-waterproof-Shower-Bathroom-Cleaning-Brush-Household-Multi-function-i.893573886.17288898552</t>
+  </si>
+  <si>
+    <t>893573886</t>
+  </si>
+  <si>
+    <t>17288898552</t>
+  </si>
+  <si>
+    <t>Keromee ANS-8050 Cordless Electric Spin Scrubber Rechargeable waterproof Shower Bathroom Cleaning Brush Household Multi-function</t>
+  </si>
+  <si>
+    <t>$80.00</t>
+  </si>
+  <si>
+    <t>$12.00 - $55.00</t>
+  </si>
+  <si>
+    <t>Product Name: Electric Cleaning Brush
+Room Space: Kitchen, Bathroom
+Usage:Household Cleaning
+Material: ABS, ABS
+Color: black and white
+Size:Extende size:55in Shrink size:9.8in
+Speed: 180~280r/min
+Working time: 90 mins
+Weight: 900g
+Battery capacity: 2500mAh
+Charging time: 4H</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/🔥SG-Ready-Stocks🔥-Foldable-Washing-Machine-Portable-Electronic-Mini-Washing-Machine-with-drain-basket-i.1395055.11779899137</t>
+  </si>
+  <si>
+    <t>11779899137</t>
+  </si>
+  <si>
+    <t>🔥SG Ready Stocks🔥 Foldable Washing Machine Portable Electronic Mini Washing Machine with drain basket</t>
+  </si>
+  <si>
+    <t>$39.90 - $106.90</t>
+  </si>
+  <si>
+    <t>$15.90 - $79.80</t>
+  </si>
+  <si>
+    <t>💖 Ready Stock!
+💖 SG Local Seller!
+💖 Foldable Washing Machine (with drain basket)
+💖 Baby Clothes, Underwear, Handkerchief!!
+🔥 FREE local warranty for 1 Year!* 
+1️⃣ Small (Blue) with drain basket:
+👉 Product size: 20.5 x 20.5 x 26CM / Washing capacity 1kg
+👉 Power supply: plug-in
+👉 Rated voltage 220V
+👉 Rated frequency 50HZ
+👉 Product weight 2KG
+👉 Rated power 153W
+👉 Timing time 0-10min
+2️⃣  Small (Blue/Pink) with drain basket + blue light:
+👉 Product size: 28 x 28 x 26 CM / Washing capacity less than 2kg
+👉 Power supply: plug-in
+👉 Rated voltage 220V
+👉 Rated frequency 50HZ
+👉 Product weight 1.8KG
+👉 Rated power 153W
+👉 Timing time 0-10min
+3️⃣ Medium (Pastel Green) with drain basket &amp; Blue Light Sterilization:
+👉 Product size: 31.5 x 31.5 x 32CM / Washing machine capacity: 7 Liters / 2kg
+👉 Material: ABS + PP + TPR
+👉 Power supply: plug-in
+👉 Product weight: 2.3 KG (net weight)
+👉 Rated voltage: 220V
+👉 Rated power: 24W 
+👉 Voltage: 100-240V
+4️⃣ Big (Green) with drain basket:
+👉 Product size: 36 x36 x38CM / Washing machine capacity: 11 Liters / 3kg
+👉 Material: ABS + PP + TPR
+👉 Power supply: plug-in
+👉 Product weight: 6000g (net weight)
+👉 Rated voltage: 220V
+👉 Rated power: 135W 
+👉 Voltage: 220V
+✅ Feature:
+🤲 100% brand new and high quality. 
+🤲 Easy to carry, small footprint, easy to store &amp; easy to use
+🤲 High-temperature soaking, high-temperature soaking washing, regular washing
+🤲 With a portable folding washing machine, you don't need to put your delicate hands in hot water.
+🤲 Folding is convenient for travel. 
+🤲 Easy to carry: small washing machine, suitable for travel or business trip
+🤲Suitable as a gift box for friends or family!
+Mini Washer + BlueLight
+ Size: 10*5.5cm
+ Weight: 200g 
+ Capacity: below 4L
+ Operation mode: Manual on/off button
+ Bottom plate material: ABS
+ Power mode: USB
+ Rated voltage: 5 (V)
+ Rated power: 60 (W)
+ Rated frequency: 3200 (Hz)
+💥 Package Includes:
+1x folding washing machine
+*Warranty Terms under our FAQ</t>
+  </si>
+  <si>
+    <t>2.3k</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/【SG】-MINI-Fridge-8L-Multipurpose-Portable-Mini-Fridge-Outdoor-Indoor-mini-fridge-peti-sejuk-Panas-Fungsi-peti-sejuk-i.822004989.19835474527</t>
+  </si>
+  <si>
+    <t>822004989</t>
+  </si>
+  <si>
+    <t>19835474527</t>
+  </si>
+  <si>
+    <t>【SG】 MINI Fridge 8L/Multipurpose Portable Mini Fridge , Outdoor/Indoor mini fridge,peti sejuk/ Panas Fungsi peti sejuk</t>
+  </si>
+  <si>
+    <t>$98.00 - $118.00</t>
+  </si>
+  <si>
+    <t>$48.00</t>
+  </si>
+  <si>
+    <t>Product Features (8L Mini Fridge):
+1. Provided 8 liters storage capacity to store your cosmetic product, face masks, food and beverage.
+2. Single core motor.
+3. Provided two different cable for car use and home use.
+4. Provided cool and warm function.
+5. Stylish, lightweight, compact and fully portable which convenient to carry out.
+6. Provided one detachable rack for middle of the fridge which can put different size of product and one detachable rack for side door.
+7. The advanced semiconductor operation is energy-efficient, ultra-quiet and 100% environmentally friendly.
+8. Powerful cooling and efficient heat dissipation
+9. Can easily store up to 4 bottle 550ml mineral water or 8 can 330ml soft drink.
+10. Suitable for vacation, parties, and so on.
+11. The silver color is tempered glass cover.
+Product Specifications (8L Mini Fridge):
+* Type: Mini Fridge
+* Volume: 8L
+* Product Material: PP / Tempered Glass
+* Household voltage: 220V-240V
+* Vehicle Voltage: 12V
+* Heat Temperature: 65°C
+* Cool Temperature: 12°C - 16°C
+* Rated Power: 48W
+* Product Dimension
+ Outer Size: 29cm x 19cm x 27cm
+ Inner Size: 25cm x 14cm x 14.5cm
+* Power cord length
+ Car Adapter: 2 meters
+ Household Adapter: 1.5 meters</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Refrigerators</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/3-Month-Warranty-116-Plus-Smart-Watch-Blood-Pressure-Heart-Rate-Monitor-Waterproof-Fitness-Tracker-Watch-Smart-Band-i.139268812.6250395408</t>
+  </si>
+  <si>
+    <t>139268812</t>
+  </si>
+  <si>
+    <t>6250395408</t>
+  </si>
+  <si>
+    <t>3 Month Warranty 116 Plus Smart Watch Blood Pressure Heart Rate Monitor Waterproof Fitness Tracker Watch Smart Band</t>
+  </si>
+  <si>
+    <t>$16.14</t>
+  </si>
+  <si>
+    <t>$6.47</t>
+  </si>
+  <si>
+    <t>Specifications:
+USB direct charging;  
+Display: curved screen 1.3inch TFT color screen 128*128;
+Button: single touch;
+System: Android 4.4 or above, for IOS 8.4 or above, Bluetooth 4.0 above;
+Data storage: 7 days of history data of bracelets; 7 days of data retention APP;
+Waterproof level :IPX7 Waterproof, smart bracelet from water (Not for swimming or taking a shower).
+Description:
+- Personalized screen display, colorful UI interface design;
+- Function: step, mileage, calorie consumption, sleep detection, multi-sports modes, sedentary reminder, message reminder, call reminder, SMS reminder, shake a mobile phone photo, smart anti-lost, find bracelet, time synchronization;
+- The message pushes the caller ID Message reminder (Facebook, IMS, Wechat, QQ, Twiter, Whatsapp), Call reminder, controls the photo, and is very convenient for life;
+- Monitor physical health changes, Real-Time Heart Rate Monitoring, Blood Pressure Monitor, detect health data, display risk status, and evaluate results;
+APP Support Language: Chinese, English, Japanese, Turkish, Spanish, German, Russian, Finnish, Arabic, French, Malay, Indonesian, Korean, Portuguese
+➡️ This watch is USB direct charge,after removing the strap,you can find the USB interface
+Package Included:
+1* smart bracelet; 
+1* user manual.
+#Smartband #Smartwatch #116Plussmartwatch #Bluetoothwatch #bloodpressuremonitorwatch #116plussmartbracelet #smartheartwatch #waterproofsmartwatch  #HeartRateMonitor #BloodPressureMonitor  #Waterproofwatch #waterproof #smartbracelet #FitnessTrackerWatch #bluetooth #PedometerSmartBand #sportwatch #Smarttrackerwatch</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/5fba173d834f2615c08f7cf4f22a6cac</t>
+  </si>
+  <si>
+    <t>3.5k</t>
+  </si>
+  <si>
+    <t>Fitness Bands &amp; Smart Watches</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/TWS-Wave-300-True-Wireless-Bluetooth-Earphone-In-Ear-Music-Lightweight-Earbuds-With-Mic-Charging-type-c-voice-bass-i.196567990.19041907129</t>
+  </si>
+  <si>
+    <t>196567990</t>
+  </si>
+  <si>
+    <t>19041907129</t>
+  </si>
+  <si>
+    <t>TWS Wave 300 True Wireless Bluetooth Earphone In-Ear Music Lightweight Earbuds With Mic Charging type-c voice bass</t>
+  </si>
+  <si>
+    <t>$65.10</t>
+  </si>
+  <si>
+    <t>$16.07</t>
+  </si>
+  <si>
+    <t>wave 300 TWS true wireless Bluetooth earphone in-ear music headphones lightweight earbuds with mic charging case
+Description:
+Model: wave300tws
+Drive unit size: 12mm/0.47 "moving coil drive unit
+Earbud battery type: Li-ion polymer (40mAh/3.85V)
+Charging protection box battery type: Li-ion polymer (550mAh/3.8V)
+Charging time: within 2 hours (from empty to full)
+Music playback time with Bluetooth on: up to 6 hours
+Frequency response: 20Hz-20kHz
+Impedance: 32Ω
+Sensitivity: 105 dB SPL @ 1kHz
+Maximum SPL: 96dB
+Microphone sensitivity: -38±2dbv/PA @ 1kHz
+Bluetooth profile version: a2dpv1.3 AVRCP v1.6hfpv1.7
+Bluetooth transmitter frequency range: 2.4GHz-2.4835GHz
+Bluetooth transmitter power: &lt;12dbm
+Bluetooth transmitter modulation: GFSK, π/4-dqpsk, 8-dpsk
+Specifications:
+1.deep bass sound: the 12 mm drivers in these earbuds deliver deep bass and powerful sound, creating an immersive listening experience to enhance your everyday routine
+2. all-day listening: enjoy your favorite music and podcasts all day long with up to 26 hours of playback time plus an additional 20 hours when used with the included charging case
+3.comfortable fit: the ergonomic shape of these earbuds provide a comfortable and secure fit, while the open-ear design enhances your ambient awareness of your surroundings
+4.access voice assistant: manage calls and music or use the voice assistant with only one tap; dual Connect allows you to use the earbuds individually in order to save battery
+Package included:
+2 * headphones
+1 * charging box
+1 * charging cable
+1 * User Manual
+special attention
+special attention
+（Hello, this is a high-end Wave300 bluetooth earphone. Before charging, you need to take out the earphone and look at the correct position indicated by the red arrow in the picture to tear off the earphone charging protective film before normal charging）</t>
+  </si>
+  <si>
+    <t>Earphones</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/50000mAh-PowerBank-Built-in-3-Cables-Portable-Fast-Charging-Full-Screen-Power-bank-External-Batter-i.268041094.8522434693</t>
+  </si>
+  <si>
+    <t>268041094</t>
+  </si>
+  <si>
+    <t>8522434693</t>
+  </si>
+  <si>
+    <t>50000mAh PowerBank Built-in 3 Cables Portable Fast Charging Full Screen Power bank External Batter</t>
+  </si>
+  <si>
+    <t>$36.71 - $43.09</t>
+  </si>
+  <si>
+    <t>$16.09 - $18.90</t>
+  </si>
+  <si>
+    <t>50000mAh 4 Cables Full Capacity Mini Powerbank Dual USB Portable Fast Charging Digital Display Power Bank Slim Battery
+DX32 Data cable can be removed,A80 power bank comes with its own data cable!!!
+Feature:
+100% brand new high quality materials
+3.1A fast charging can bring you the fastest charging speed
+The high capacity of 50000mAh allows you to use the device for a long time.
+Built-in three sets of power cords, one for Type C, one for Micro USB, It can charge three devices at the same time, making it easier to hide and store.
+With the phone holder, you can see the screen while charging.
+Specification:
+Item Name: Portable mini Power Bank Mirror Screen Feature: Dual USB Ports charging, with LED Digital Disply, with LED Flashing light.
+Capacity: 50000mAh
+USB Input:DC 5V 3A
+USB Output:DC 5V 2.1A/5V 1A
+Micro USB &amp; Type-C input
+Color: Black/Red
+There are three 3cables
+One for Android (mrico cable)
+One is type-c (type-c cable)</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Zikir-Ruqyah-Plug-In-Al-Quran-Speaker-with-Light-Ramadan-Digital-Player-i.170710025.2665480855</t>
+  </si>
+  <si>
+    <t>170710025</t>
+  </si>
+  <si>
+    <t>2665480855</t>
+  </si>
+  <si>
+    <t>Zikir &amp; Ruqyah Plug-In Al Quran Speaker with Light Ramadan Digital Player</t>
+  </si>
+  <si>
+    <t>$23.00</t>
+  </si>
+  <si>
+    <t>$11.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌟3 VERSIONS!!
+Zikir Plug WITHOUT Light 2019 (V1) |   9 zikir dan 14 surah + Ruqyah
+Zikir &amp; Rygyah Plug with Light 2020 (V2) | 8 zikir dan melebihi 64 surah + Ruqyah
+Zikir &amp; Rygyah Plug with Light 2021 (V3) | 8 zikir dan melebihi 64 surah + Ruqyah
+Just plug in to socket and play. 
+It will play automatically from one Surah or zikir to another.
+📌 V1 : Contains 9 zikir dan 14 surah + Ruqyah
+🔸Lailahaillallah
+🔸Asma Al Husna
+🔸Ayat Kursi
+🔸Zikir Allah
+🔸Zikir Munajat
+🔸Zikir Lailahaillallah
+🔸Zikir Hasbi Rabbi
+🔸Zikir Taubat
+🔸Ya Nabi Salam Alaika
+🔸Surah Al-Faatihah
+🔸Surah Al-Baqarah (Ayat 1-5) (Ayat 255) (Ayat 284-286)
+🔸Surah Al-Kahfi (Ayat 1-10) (Ayat 101-110)
+🔸Surah As-Sajdah
+🔸Surah Yaa Siin
+🔸Surah Ad-Dukhaan
+🔸Surah Ar-Rahman
+🔸Surah Al-Waqiah
+🔸Surah Al-Mulk
+🔸Surah Al-Insaan
+🔸Surah Al-Kafirun
+🔸Surah Al-Ikhlas
+🔸Surah Al-Falaq
+🔸Surah An-Nas
+📌 V2 7 V3 With Lights : 
+Tambahan kontent terbaru:
+🔸RUQYAH
+A: Ruqyah untuk rumah barakah
+B: Ruqyah untuk anak &amp; bayi
+C: Ruqyah untuk perlindungan dari jin &amp; syaitan
+🔸 Ayat menjemput rezeki
+1. Al-An'am 151
+2. Ibrahim 32
+3. Toha 132
+4. Ash Shuara 75-79
+5. Al Ankabut 60-62
+6. Al Ankabut 16-17
+7. Ar-Rum 37
+8. Ar-Rum 40
+9. Ar-Rum 48
+10. Saba 24
+11. Saba 36
+12. Saba 39
+13. Fatir 3
+14. Fatir 15
+15. Yasin 32-36
+16. Az-Zumar 52
+17. Ghafir 13
+18. Ash Shura 12
+19. Ash Shura 19
+20. Ash Shura 27-28
+21. Adh Syariyat 58
+22. Al Hashr 8
+23. Al Jumuah 11
+24. Al Mulk 15
+25. Al Mulk 17
+🔸Surah Al Quran
+1. Al- Fatihah
+2. Al Baqarah 1-5
+3. Al Baqarah 255
+4. Al Baqarah 284-286
+5. As Sajadah
+6. Yasin
+7. Ad dukhan
+8. An-najm
+9. Al-qamar
+10. Ar-rahman
+11. Al-waqiah
+12. Al-mumtahanah
+13. As-saff
+14. Al-jummuah
+15. Al-munafiqun
+16. At-taghabun
+17. At-talaq
+18. At-tahrim
+19. Al-mulk
+20. Al-qalam
+21. Al-haqqah
+22. Al-maarij
+23. Nuh
+24. Al-jinn
+25. Al-muzammil
+26. Al-muddaththir
+27. Al-qiyamah
+28. Al-insan
+29. Al-mursalat
+30. An-naba
+31. An-naziat
+32. Abasa
+33. At-takwir
+34. Al-infitar
+35. Al-mutaffifin
+36. Al-inshiqaq
+37. Al-buruj
+38. At-tariq
+39. Al-ala
+40. Al-ghashiyah
+41. Al-fajr
+42. Al-balad
+43. Ash-shams
+44. Al-lail
+45. Ad-dhuha
+46. Ash-sharh
+47. At-tin
+48. Al-alaq
+49. Al-qadr
+50. Al-baiyyinah
+51. Az-zalzalah
+52. Al-adiyat
+53. Al-qariah
+54. At-takathur
+55. Al-asr
+56. Al-humazah
+57. Al-fil
+58. Quraish
+59. Al-maun
+60. Al-kauthar
+61. Al-kafirun
+62. An-nasr
+63. Al-masad
+64. Al-ikhlas
+65. Al-falaq
+66. An-nas
+</t>
+  </si>
+  <si>
+    <t>2.1k</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/2022-14-Series-7-T900-Pro-Max-Smartwatch-Sleep-Heart-Rate-Monitor-Multi-Dial-Bluetooth-Call-Men-Women-Watch-1.44-Inch-beautysecret-i.361959328.20455509058</t>
+  </si>
+  <si>
+    <t>361959328</t>
+  </si>
+  <si>
+    <t>20455509058</t>
+  </si>
+  <si>
+    <t>2022 14 Series 7 T900 Pro Max Smartwatch Sleep Heart Rate Monitor Multi Dial Bluetooth Call Men Women Watch 1.44 Inch beautysecret</t>
+  </si>
+  <si>
+    <t>$10.95</t>
+  </si>
+  <si>
+    <t>$8.88 - $8.91</t>
+  </si>
+  <si>
+    <t>Description:
+CPU HS6620+BK3266
+Flash 512KB+16M
+GPS/AGPS NO
+G-sensor YES
+M-sensor YES
+Wifi NO
+SIM NO
+BT 4.2+5.0 Dual-mode
+Bluetooth antenna Hs6620 + bk3266 all need welding wire
+LCD 1.44inch
+TP cob capacitance multi touch
+Heart rate sensor Heart rate
+Motor YES
+USB NO
+Charging mode 2pin thimble charging compatible with wireless charging
+Microphone YES
+Side key Knob button
+Horn YES,Two in one loudspeaker and handset
+Receiver
+Power amplifier YES
+Battery capacity 200mah
+&amp;nbsp;
+Specifications:
+1。【Smart watch Bluetooth call】-Using high-fidelity waterproof speakers, Bluetoothlistening to show high-definition original sound, nomatter Is it sports or driving? One-click answeringand releasing your hands to make communicationmore free
+2.【Integral Artisan Aesthetics】-1.75 inch high-definition screen , rich and delicatecolors , real high-definition resolution of the picture320 * 385 , make the field of view more natural touchsmoother , and display brighter effects Vivid , bringinga better sense of design and broader vision
+3.【Accurate heart rate monitoring】-Integrating PPG + ECG measurement technology ,PPG photoelectric measurement of heart rate isused Automatic recording throughout the day ,heart rate can be measured on the wrist to ensurehealth measurement The amount is effective andaccurate , allowing you to experience theconvenience brought by being your own health steward
+4.【Three menu modes canbe switched at wil】-Rich preset function menu to meet the diversifiedaesthetics , Meet various operating habits of daily use
+5。【Social on the wrist Synchronousreception of all kinds of information】-Synchronize with mobile phone , support WechatSMS , QQ , etc . Remind to check information intime without delaying important moments
+Package Included:
+1* Smart watch
+1* Charging cable
+1* Manual</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/TWS-Wireless-Earphones-Bluetooth-Headphones-Stereo-Bluetooth-5.0-Earbuds-with-Mic-i.51134277.11346896666</t>
+  </si>
+  <si>
+    <t>11346896666</t>
+  </si>
+  <si>
+    <t>TWS Wireless Earphones Bluetooth Headphones Stereo Bluetooth 5.0 Earbuds with Mic</t>
+  </si>
+  <si>
+    <t>$106.92 - $110.86</t>
+  </si>
+  <si>
+    <t>$12.37</t>
+  </si>
+  <si>
+    <t>Specifications:
+HD audio: SBC
+Bluetooth version: 5.0
+Conversation: 2.5-3 hours
+Listening to music: 2.5-3 hours
+Bluetooth distance: 10-15 meters
+Binaural charging cycle: 4-5 times
+Charging in the charging compartment: about 1 hour
+Headphone battery power: 30 ma
+Rechargeable battery capacity: 250 ma
+Speaker configuration: true copper ring speaker
+Features:
+1. listening to the song correct, support songs and call,
+2. remind call number, the last call back, all intelligent Chinese and English voice prompts, boot, pair, shut down the phone power will be low voice prompts;
+3. Power capacity will show on your phone, you can see the power situation anytime, do not worry about the electricity ,make your life without worry;
+4. Bluetooth headset connected to the phone after the shutdown , and then open the Bluetooth headset will connect back to the phone automatically , more convenient;
+5. Intelligent compatibility: support all Bluetooth mobile phone, tablet, notebook, singing it, music, movies, etc., universal all mobile phone.
+6. Small size, light weight, can be taken with you.
+7. Bluetooth version 5.0 has no delay, low power consumption and stable signal.
+8. Elegant and simple appearance.
+Packages Include：
+1 *One pair of Bluetooth Headphones
+1*Charging box
+1*USB Charging Cable
+1*User Manual
+Notes:
+- Due to different shooting angles and luminosity positions, there may be slight color difference between the picture and the real object, please refer to the actual object;
+- All are measured manually, plus or minus 1-2cm belongs to the normal range;
+-We provide VIP service to all buyers! If you have any questions, please contact customer service in time!
+-We are overseas sellers. In order to give you the best shopping experience, products ordered on the same day are basically shipped on the same day;
+[In case of individual out of stock, we will notify you as soon as possible, please rest assured to place an order;
+- Ships within 1-24 hours; We use Shopee official logistics;
+-If you are satisfied with our services and products, please leave your comments and pictures
+- Please read carefully before buying, if you mind or have questions about the product, Please Contact customer service for the first time! Thanks!</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a7fd5a369df55c10d0b429657c580984</t>
+  </si>
+  <si>
+    <t>13.3k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/AXTRO-Fit-3-strap-Silicone-strap-Sports-wristband-replacement-strap-watch-band-AXTRO-Fit-3-smart-watch-strap-i.752469724.22614826134</t>
+  </si>
+  <si>
+    <t>752469724</t>
+  </si>
+  <si>
+    <t>22614826134</t>
+  </si>
+  <si>
+    <t>AXTRO Fit 3 strap Silicone strap Sports wristband replacement strap watch band AXTRO Fit 3 smart watch strap</t>
+  </si>
+  <si>
+    <t>$5.51 - $8.62</t>
+  </si>
+  <si>
+    <t>$2.54 - $3.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXTRO Fit 3 strap Silicone strap Sports wristband replacement strap watch band AXTRO Fit 3 smart watch strap
+Strap Material Type: High quality TPU rubber
+Condition: Brand new without labels
+Buckle Type: Metal Buckle
+Compatible with: 20mm width wristband
+Specifications: Brand new, without labels
+Features:Durable, wear-resistant, and lasts longer
+Waterproof, stainless steel metal buckle, no rust
+Environmentally friendly and healthy, no irritation to the skin
+TPU material is better than silicone material, no silicone gas
+Washable, waterproof, scratch-resistant
+Item Properties: Smart Watch Accessories
+Due to shooting angle and lighting problems, the picture and the real object may be different, the real object shall prevail
+</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/sg-11134201-22120-dpm8zazyjmlvd6</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/【🚚SHIPS-FROM-SG】Xtreme-3-Portable-Outdoor-Waterproof-Speaker-Bluetooth-Wireless-Bass-Mini-Subwoofer-i.13898282.22719550820</t>
+  </si>
+  <si>
+    <t>13898282</t>
+  </si>
+  <si>
+    <t>22719550820</t>
+  </si>
+  <si>
+    <t>【🚚SHIPS FROM SG】Xtreme 3 Portable Outdoor Waterproof Speaker Bluetooth Wireless Bass Mini Subwoofer</t>
+  </si>
+  <si>
+    <t>$74.99</t>
+  </si>
+  <si>
+    <t>$25.80</t>
+  </si>
+  <si>
+    <t>Why Choose Us?
+⭐Cheapest Local Seller*
+⭐Only Local seller who offer FREE shipping no min. spend*
+⭐Local Seller (Fastest Delivery)
+⭐100% Ready Stock
+⭐24 Hours Fast ship
+⭐ Double Check Before ship
+⭐Safe Packaging
+⭐ Ultra low price
+*At the time of writing
+Specifications
+----------------------------
+Can connect via Bluetooth, Aux, USB, SD/TF Card, FM Radio
+(1) Wireless Bluetooth streaming
+Connect your smartphone or tablet to the speakers wirelessly and take turns to play powerful stereo sound.
+(2) Solid 1,500mAH rechargeable battery
+The built-in rechargeable lithium-ion battery can support up to 8 hours of playing time, and the device can be charged through dual USB ports.
+(3) Speaker
+Thanks to the speakerphone function that eliminates noise and echo, a clear call can be made from the speaker at the touch of a button.
+(4) Splashproof
+Splash-proof means no longer worry about rain or sprinkling; you can even clean it with tap water. Just don't drown it.
+(5) Living materials
+Durable fabric material and sturdy rubber shell make your speakers lasting.
+(6) Bass radiator
+Listen to the bass, feel the bass, appreciate the bass. Dual external passive radiators demonstrate the power of your speakers.
+Dimensions: 24 cm (length) x 10 cm (width) x 11 cm (height) mini
+Weight: 0.67 KG
+Support and apply to all USB, memory card, Pendrive, mobile phone, tablet PC and can be used directly from computer
+Output power: 2 x 20W
+-----------------------------
+What's in the box:
+-----------------------------
+1 x Speaker
+1 x Micro USB cable
+1 x strap
+ #Charge2 #Charge3 #COD #Bluetooth #Speaker #BluetoothSpeaker #Mini #Portable #XTREME #EX</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Spi-Silicone-Strap-for-iWatch-45mm-41mm-44mm-40mm-Band-Replacement-Watchband-Compatible-with-iWatch-Ultra-49mm-Series-8-7-6-5-4-3-SE2-Accessories-i.220078100.21445302666</t>
+  </si>
+  <si>
+    <t>220078100</t>
+  </si>
+  <si>
+    <t>21445302666</t>
+  </si>
+  <si>
+    <t>Spi Silicone Strap for iWatch 45mm 41mm 44mm 40mm Band Replacement Watchband Compatible with iWatch Ultra 49mm Series 8 7 6 5 4 3 SE2 Accessories</t>
+  </si>
+  <si>
+    <t>$11.59</t>
+  </si>
+  <si>
+    <t>$5.68</t>
+  </si>
+  <si>
+    <t>Compatible:
+For iWatch Ultra 49mm
+For iWatch 45mm/41mm(Series 8/7)
+For iWatch 44mm/40mm(Series 6/5/4/SE/SE2)
+For iWatch 42mm/38mm(Series 3/2/1)
+Feature:
+100% brand new and high quality.
+Made of high-quality silicone, soft and comfortable for wearing.
+Convenient and easy for use.
+Band is durable and comfortable, comparable to original iWatch sport band.
+Easy to install or remove.
+Fit For iWatch Series 8 7 6 5 4 3 2 1 sport edition and all version, both 45mm/41mm/44mm/40mm/42mm/38mm models available.
+Personalized designed, diversity colors for choice, nice and fashion, easily meet your different needs.
+38/40/41mm fits 5.1''-7.1'' Wrist
+42/44/45mm fits 6.3''-8.3'' Wrist
+Package included: 
+1pcs silicone watch band with box(not include the watch)</t>
+  </si>
+  <si>
+    <t>3.2k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/AMOI-F9-5-TWS-5.0-wireless-earphone-bluetooth-earphone-wireless-earbuds-bluetooth-earpiece-i.213719630.6828105284</t>
+  </si>
+  <si>
+    <t>213719630</t>
+  </si>
+  <si>
+    <t>6828105284</t>
+  </si>
+  <si>
+    <t>AMOI F9 -5 TWS 5.0 wireless earphone bluetooth earphone wireless earbuds bluetooth earpiece</t>
+  </si>
+  <si>
+    <t>$8.86 - $32.29</t>
+  </si>
+  <si>
+    <t>$7.78 - $11.77</t>
+  </si>
+  <si>
+    <t>✅【All goods are in stock】
+💁【We ship within 24 hours of your order】
+🚚【You can receive the package within 5 to 10 days】
+📦【Checked before shipment and properly packed to avoid damage during shipping】
+🔄【 Free replacement of new products within 1 year（if have bad quality problems）】
+❗Please note that this is an original product, but all English version products of AMOI do not have trademarks printed
+🔥Highlights:
+*  9D surround sound, 5.0 dual-ear chip, large capacity, true wireless Bluetooth headse
+*  Graphene bass diaphragm, HIFI high-frequency technology, 10MM dynamic speaker unit
+*  5.0 automatic boot pairing, built-in active noise reduction IC, HD call,5.0 bluetooth game without delay
+*  LED display charge box, know the electricity quantity easily.
+*  2000 mAh large capacity dual lithium battery, faster charging, longer lasting battery, can be used as an emergency charging treasure.
+*  Wireless Bluetooth 5.0 connection, stable and fast signal transmission.
+*  Touch control, easy to use and operate.
+*  Touch to summon Siri and Android Assistant to make your life easier.
+🙆Tips:
+When the earphones is connected for the first time, if it is not operated correctly, the earohones may not be successfully paired. It will cause only one of the earphones to make a sound, but not both. Please follow the steps below to solve the problem.
+1.Delete the connected F9 earphone in the phone's Bluetooth settings;
+2.Turn off the Bluetooth function of the phone and turn off the power of the earphones on both sides;
+3.You must press and hold the touch buttons on both sides of the earphones for 10 seconds at the same time. After releasing them, quickly click on the touch buttons of one of the earphones 3 times and they will be paired again.
+4.When the light of one of the earphones is turned off and the light of the other earphone is blinking, it means that they have been paired. Then you can use your phone to connect to the earphone.
+📘Specifications: 
+Model: F9 ver.5
+Headphone type: in-ear headphones
+Bluetooth protocol: HFP/HSP/A2DP/AVRCP
+Earphones battery capacity: 60mAh
+Charging box battery capacity: 2000 mAh
+Charges the earphones fully: 8 to 10 times
+Music time: 3 to 4 hours (related to playback volume)
+Call time: 3.5 hours
+Bluetooth distance: about 10 meters
+Waterproof: IPX7 waterproof
+Connection method: single/double free to use
+Color: black/white
+Function: music play / pause, call answering noise reduction, IOS power display, voice prompt
+Bluetooth version: V5.0
+Headphone charging time: about 1 hour
+Charging compartment charging time: about 1 hour
+📦Package Included:
+*  A Pair of Earbuds( right and left side)
+*  1 x Charging Case
+*  1 x Charge Cable
+*  3 pairs * earplug
+*  1 x User Manual</t>
+  </si>
+  <si>
+    <t>14.8k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Soft-Phone-Case-Compatible-for-iPhone-14-13-12-Pro-MAX-11-14Plus-Lambskin-Tide-Brand-North-Face-Shockproof-Cover-i.302712656.20649583962</t>
+  </si>
+  <si>
+    <t>302712656</t>
+  </si>
+  <si>
+    <t>20649583962</t>
+  </si>
+  <si>
+    <t>Soft Phone Case Compatible for iPhone 14 13 12 Pro MAX 11 14Plus Lambskin Tide Brand North Face Shockproof Cover</t>
+  </si>
+  <si>
+    <t>$6.46</t>
+  </si>
+  <si>
+    <t>$3.11</t>
+  </si>
+  <si>
+    <t>-welcome to our shop-
+I'm glad you can browse our store as we are a new store. But trust us to bring you quality products at the lowest prices. We have a large factory in mainland China.
+About product details
+1. Quality: The goods are strictly inspected before delivery to ensure new quality delivery.
+2. Material: Lambskin
+3. The mobile phone case adopts the real machine opening, the opening position is precise, and it perfectly fits your mobile phone.
+▪Special Note: Due to the limited number of options, not all models can be placed. If your model is not found in the options, please consult the online customer service for the model link.
+Product color may vary slightly from the picture due to different lighting and screen settings. It depends on the actual product received.
+Please confirm color and size details and your shipping address before ordering.
+If you are a wholesale customer, please contact us. I will give you a better price!
+#iphone7pluscase #iphone8pluscase #iphonexrcase #iphonexscase #iphonexcase #iphone11case #iphone11procase #iphone11promaxcase #iphone12case #iphone12procase #iphone12promaxcase #iPhone13case #iPhone13procase #iphone13promaxcase #Soft #PhoneCase #Lambskin #TideBrand #NorthFace #Shockproof #Cover</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>Cases &amp; Covers</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Sandisk-Ultra-Flair-USB-3.0-Thumb-Drive-Flash-Drive-Pen-Drive-150MB-s-16GB-32GB-64GB-128GB-CZ73-12BUY.SG-i.12078788.382785540</t>
+  </si>
+  <si>
+    <t>12078788</t>
+  </si>
+  <si>
+    <t>382785540</t>
+  </si>
+  <si>
+    <t>Sandisk Ultra Flair USB 3.0 Thumb Drive Flash Drive Pen Drive 150MB/s 16GB 32GB 64GB 128GB CZ73 12BUY.SG</t>
+  </si>
+  <si>
+    <t>$15.00 - $49.00</t>
+  </si>
+  <si>
+    <t>$7.88 - $19.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For Self Collection, Choose Store Pick-up At Checkout Page
+Points To Take Note:
+- Kindy Chat With Us To Check If Your Item Is Ready For Store Pickup
+- During Peak Periods, We May Require 1-2 Working Days To Process Your Order Before It Will Be Available For Collection
+- We Are Located In IMM Office Area , Not The Shopping Wing
+- Kindly Avoid Our Lunch Break Timing At 1PM to 2PM
+- Do Remember To Keep All Original Product Packaging As They Are Mandatory For Warranty Claims
+Sandisk Ultra Flair USB 3.0 Flash Drive 16GB to 128GB (CZ73)
+Read Speed 150MB/s 
+*Speed is UP TO stated MB/s
+Speed Meets Style
+The SanDisk Ultra Flair™ USB 3.0 flash drive moves your files fast. Spend less time waiting to transfer files and enjoy high-speed USB 3.0 performance of up to 150MB/s. Its durable and sleek metal casing is tough enough to handle knocks with style. And, with password protection, you can rest assured that your private files stay private. Store your files in style with the SanDisk Ultra Flair USB 3.0 flash drive.
+Fly through file transfers
+Experience high-speed USB 3.0 performance of up to 150MB/s with the SanDisk Ultra Flair USB 3.0 flash drive. Transfer files faster than standard USB 2.0 drives.
+Stylish and tough
+With a durable metal case, the SanDisk Ultra Flair USB 3.0 flash drive is both sleek and ready to handle unexpected knocks.
+Password-protect your files
+Share your movies or music, but rest assured that private files can stay private. Easy-to-use password protection lets you limit who sees certain files.
+Warranty
+The SanDisk Ultra Flair USB 3.0 Flash Drive is backed by a five-year limited warranty.
+Disclosures
+1GB=1,000,000,000 bytes. Actual user storage less. Based on internal testing; performance may be lower depending on host device. 1MB=1,000,000 bytes. 
+#sandisk #thumbdrive #16GB #32GB #64GB #128GB </t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>Memory Sticks &amp; OTG</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/-SG-Stock-Smart-Watch-Men's-And-Women's-Fitness-Tracker-Bluetooth-Call-Sports-Watch-i.668923729.13281103147</t>
+  </si>
+  <si>
+    <t>668923729</t>
+  </si>
+  <si>
+    <t>13281103147</t>
+  </si>
+  <si>
+    <t>[SG Stock] Smart Watch Men's And Women's  Fitness Tracker Bluetooth Call Sports Watch</t>
+  </si>
+  <si>
+    <t>$48.00 - $49.00</t>
+  </si>
+  <si>
+    <t>$23.90 - $27.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Local spot] [1-2 days delivery] [Singapore seller]
+Specification:
+Color: Black Pink Green
+Major function: custom dial,music control function,bluetooth call,Calls Reminder,Social APP reminder,Messages Reminder,Sedentary reminder,Blood Pressure,Blood Oxygen
+Sport Mode,Alarm,Play the music,Stopwatch"
+APP: HryFine
+Compatible System: Android 5.0 up IOS 9.0 up
+FLASH memory: 256KB Flash, 24KB RAM
+Screen size: 1.54
+Resolution: TFT 240*240 Full touch
+BT: BT 3.0/4.0
+G-Sensor: 3D-gsensor
+Capacity: 3.7V/180mAh Lithium polymer battery
+Charging Method: Charging clip
+Waterproof Level: Life waterproof
+Charging time: 1.5H
+Life time: 7 Days
+Wristband size: Total length 226.6mm, width20mm
+Appearance material: ABS
+Software features: Step,Distance,Calorie,Sleep monitoring,Heart Rate,Looking for Phones,Language switch,Raise-to-wake
+APP Language: English, Simplified Chinese, Italian, Portuguese, Polish, Spanish, French, Greek, Hungarian, Russian, Turkish, Dutch, German, Vietnamese, Finnish, Ukrainian. Arabic, Farsi, Thai
+Wisebrave/watch Language: English, Simplified Chinese, Italian, Portuguese, Polish, Spanish, French, Greek, Hungarian, Russian, Turkish, Dutch, German, Vietnamese, Finnish, Ukrainian. Arabic, Farsi, Thai
+Package list:
+1 * P6 Smart watch
+1 * Charger
+1 * User Manual.
+I7 Pro Max Phone Call Sport Waterproof Man Women Smart Watch 
+Specification:
+1. Watch size: 44mm
+2. Watch color: black, white,Pink
+3. Screen size: 1.8 inches
+4. Screen: HD IPS, 240*285 Pixels 2.5D curved full touch screen, 320x385 resolution
+5. CPU: MTK2502
+6. Memory: 256MB
+7. Battery: 220-300mAh lithium ion battery, longer battery life
+8. Strap size: 42/44mm
+9. System: Support Android5.0&amp;IOS9.0 and above.
+12. Languages: English Dutch Russian French Portuguese German Spain Turkey Poland Malay Czechoslovakia Arabic Thai Italy
+13. IP67 life waterproof, please do not bring your watch to swimming, diving, bathing and sauna!
+14.Appearance material: alloy
+Functions:
+2.Notification:Synchronous incoming messages notification from Notification Center in your phone(SMS,Fackbook,INS,Twitter,Whatsapp, etc.),incoming call reminder.
+3.Calls: Make &amp; Answer calls, after connecting Bluetooth with Smart Phone
+4.Heart rate detection/Blood Pressure detection/Blood oxygen detection
+5.Sleep monitoring: To record and analyze your sleep status objectively and scientifically
+6.Steps: Steps counting, Calories, distance monitor
+7.SportModes.(running,climbing,football)
+8.Bluetooth music player: Remote control phone music player
+9.Bluetooth Camera: Remote control mobile phone to take photo
+10.Find Phone: Anti-lost, Ring your phone or watch
+11.custom watch face:you can upload your own photos on the watch as the watch faces.
+12.Support different kind of 42/44 strap exchange
+13.Sedentary reminder: Set time to reminder you to sport, changing the unhealthy lifestyle
+14.Other function: Alarm, Calculator,Stop,Intelligent voice,Phone book,weather.
+Packing list:
+smart watch*1
+charging cable*1
+box*1
+</t>
+  </si>
+  <si>
+    <t>1.7k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/SAMSUNG-J18-Wireless-Bluetooth-Earphones-Wireless-Earbuds-In-ear-with-Stereo-Mic-Earhuds-Gamers-Headset-i.51134277.19953668176</t>
+  </si>
+  <si>
+    <t>19953668176</t>
+  </si>
+  <si>
+    <t>SAMSUNG J18 Wireless Bluetooth Earphones Wireless Earbuds In-ear with Stereo Mic Earhuds Gamers Headset</t>
+  </si>
+  <si>
+    <t>$11.57 - $27.97</t>
+  </si>
+  <si>
+    <t>$5.62 - $12.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifications:
+HD audio: SBC
+Bluetooth version: 5.0
+Conversation: 2.5-3 hours
+Listening to music: 2.5-3 hours
+Bluetooth distance: 10-15 meters
+Binaural charging cycle: 4-5 times
+Charging in the charging compartment: about 1 hour
+Headphone battery power: 30 ma
+Rechargeable battery capacity: 250 ma
+Speaker configuration: true copper ring speaker
+Package weight: 130g
+Features:
+1. listening to the song correct, support songs and call,
+2. remind call number, the last call back, all intelligent Chinese and English voice prompts, boot, pair, shut down the phone power will be low voice prompts;
+3. Power capacity will show on your Iphone, you can see the power situation anytime, do not worry about the electricity ,make your life without worry;
+4. One to two connections, can be connected to two mobile phones at the same time
+5. Bluetooth headset connected to the phone after the shutdown , and then open the Bluetooth headset will connect back to the phone automatically , more convenient;
+6. Intelligent compatibility: support all Bluetooth mobile phone, tablet, notebook, singing it, QQ music, movies, etc., universal all mobile phone
+7. Small size, light weight, can be taken with you
+8. Bluetooth version 5.0 has no delay, low power consumption and stable signal
+9. Elegant and simple appearance.
+Package Included:
+2*headphone
+1*Instruction
+1*charging cable
+1*Charging box
+</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/88da5f152151d4100be8862bb3b3c2a4</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/-SG-Seller-Universal-Compact-Travel-Adapter-Wall-Plug-with-USB-type-C-ports-i.84599953.20745261402</t>
+  </si>
+  <si>
+    <t>84599953</t>
+  </si>
+  <si>
+    <t>20745261402</t>
+  </si>
+  <si>
+    <t>[SG Seller] Universal Compact Travel Adapter Wall Plug with USB type C ports</t>
+  </si>
+  <si>
+    <t>$10.00 - $25.00</t>
+  </si>
+  <si>
+    <t>$4.19 - $15.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG Local Seller
+Ship From SG
+Dispatch within a day
+Receive within 3-7 days 
+Product Features:
+•	EU, UK, US ports compatible, suitable for more than 150 countries
+•	Surge Protection
+•	Comes with USB and PD ports depending on model
+Product Specifications:
+Universal Travel Adapter + No USB Port
+Dimension: 7.7cm x 5cm x 4cm
+Color: White
+Universal Travel Adapter + 2 USB Port
+USB Output: 5V/2.1A
+Dimension: 7.7cm x 5cm x 4cm
+Color: Matt Black
+Universal Travel Adapter + 3 USB Port + TypeC
+USB Output: 5V/2.4A
+PD Output: 5V/3.4A
+Dimension: 6.8cm x 5.3cm x 5.2cm
+Color: Matt Black
+Package Includes:
+1x Universal Travel Adapter
+For "5in1 cable box-black"
+(
+Material：PVC + ABS
+Color：White, Blue
+Transmission Speed：480Mbps
+Output Current：
+TYPE C to TYPE C: 3A
+Android to TYPE C: 3A
+TYPE C to IOS/ Micro: 2A
+Android to IOS/ Micro: 2A
+Cable Length：29cm
+Product Size：82.5x10mm
+Weight：70g
+)
+*For fast charging, it is recommended to use your own fast charging charger to plug into the socket instead of using the USB ports provided by the adapter as most of these adapters do not support fast charging due to circuitry restrictions and price affordability.
+*Due to the light and screen difference, the item's color may be slightly different from the pictures. There may also be some slight difference with the item measurement due to manufacturing tolerant. We hope for your understanding.
+</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/410cede6aaf4cdc938e89644e763cea1</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>Chargers</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/FEINODI-Wireless-Lavalier-Microphone-Portable-Audio-Video-Recording-Lapel-Mic-For-i-Phone-Android-DSLR-Camera-Vlog-Live-i.645726205.15936690306</t>
+  </si>
+  <si>
+    <t>645726205</t>
+  </si>
+  <si>
+    <t>15936690306</t>
+  </si>
+  <si>
+    <t>FEINODI Wireless Lavalier Microphone Portable Audio Video Recording Lapel Mic For i-Phone Android DSLR Camera Vlog Live</t>
+  </si>
+  <si>
+    <t>$66.00 - $85.00</t>
+  </si>
+  <si>
+    <t>$11.60 - $35.90</t>
+  </si>
+  <si>
+    <t>Note for smart phone connection microphone:
+The Android phone needs to support the OTG function before the wireless microphone can be used normally.
+1. Some Android phones (older models) do not support microphone input during local video recording. Buyers are recommended to record videos on APP, Such as Facebook, YouTube and other apps with video recording function
+2. If there is no response when your Android phone is plugged into the receiver, please turn on OTG in the phone settings.
+3. iPhone supports local and APP video recording.
+Features:
+1. 9 ms ultra-low latency, 20 m barrier-free reception, it can use outdoor live broadcast and take a small video.
+2. It doesn't need APP,plug-and-play,one-click connection,easy to wear.
+3. Intelligent noise reduction, long endurance of 5 hours, easy to cope with all kinds of noisy environment, worry-free shooting, meet your needs for a day.
+4. 360 full pointing pick up,record every detail of the sound.
+5. Small and convenient, it compatible with various devices,support mobile phone, tablet, camera, notebook,etc
+Specifications:
+Frequency: 2.4GHz
+Input voltage: DC4.8-5.4V
+Charging interface: Lightning/Type-C
+Battery capacity: 80mAh
+Transmission distance: 8 m barrier-free, 20 m barrier-free
+Microphone size: 62*23*28mm
+Microphone weight: 7g
+Receiver size: 45*27*7mm
+Receiver weight: 4g
+Package includes:
+1 x rechargeable wireless microphone
+1 x receiver
+1 x English manual
+1 x USB data cable
+1 xUSB-TYPE adapter
+After-sales service
+【Fast delivery speed】: Own factory, delivery guarantee
+【Worry-free Warranty】: 12-month factory warranty/refundable for quality problems
+【Wrong purchase】: The product was purchased incorrectly, as long as the packaging box and the appearance of the product are not damaged, contact us within 3 days, you can refund or exchange
+【After-sales service】: When you don’t know how to use the product, or the product is defective (the probability of product defect is very low), please contact us in time, we will solve any problems for you, please don’t give bad comments casually, thank you
+#MIC #Mini mic #Microphone #Phone microphone #Live microphone #Adapter # Wireless Lavalier Microphone #Wireless Microphone #Mini Microphone #Portable Mini Mic #Portable Microphone #Portable Mic #Lightning Mic#TYPE-C #Live Mini Mic #Lapel Clip Mic</t>
+  </si>
+  <si>
+    <t>Amplifier &amp; Microphone</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/New-Silicone-Case-For-Apple-Airtag-Protective-Sleeve-Cover-Keychain-For-Air-tags-i.181076293.9753691801</t>
+  </si>
+  <si>
+    <t>181076293</t>
+  </si>
+  <si>
+    <t>9753691801</t>
+  </si>
+  <si>
+    <t>New Silicone Case For Apple Airtag Protective Sleeve Cover Keychain For Air tags</t>
+  </si>
+  <si>
+    <t>$5.35</t>
+  </si>
+  <si>
+    <t>$1.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This protective case is professionally designed for Airtags, which can fix your Airtags device anywhere
+☞Material characteristics: It is made of comfortable soft liquid silicone, which has the characteristics of sweatproof, scratch-resistant and washable, and is easy to use and carry.
+☞Color: a variety of colors are available
+☞Packing list:
+Airtags Silicone Protective Case * 1
+</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/b7c3435ad2a6cc04d7dccb954f262b63</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Xiaomi-MI-True-wireless-Earbuds-Basic-BT5.0-TWS-Noise-reduction-Stereo-bass-Mi-Earbuds-AI-Control-i.27987240.4859617520</t>
+  </si>
+  <si>
+    <t>27987240</t>
+  </si>
+  <si>
+    <t>4859617520</t>
+  </si>
+  <si>
+    <t>Xiaomi MI True wireless Earbuds Basic  BT5.0 TWS Noise reduction Stereo bass Mi Earbuds AI Control</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>Remove the blue sticker！！！！
+There is no indicator light on the product box (new update)
+Main Features:Fully charged in 2 hours
+Quick connection-Automatic seconds connection, can be used with headphones
+7.2mm Audio Drivers-Produce deep bass and high-quality stereo audio
+Bluetooth 5.0-A new generation of Bluetooth technology more stable connections quickly
+4.1g light weight-Smooth and comfortable to fixes in ear with round body shape, free to adjust, not
+12h battery life-300mAh with the charging box/dock which delivers 12 hours of power, can watch up to 6 movies and 4 hours of playback time on
+Anti-missing-Binaural multi-function button for easy control of music and phone
+Voice control-Summon voice assistant, voice control mobile phoneOne touch to connect and listen to the original sound-Single click pauses songs while double clicking the button wakes up the Voice Assistance such as XiaoAI, Siri and so on
+Specification:
+Color: Black
+Model: TWSEJ061LS
+Wireless Range: 10m (in an obstacle-free environment)
+Battery capacity: 43 mAh (per Earbud)
+Charging Time: Approx. 1.5h
+Talk Time: Approx. 4hrs
+Standby time: Approx. 150hrs
+Earbuds Input: 5V/100mA
+Earbuds Battery type: Lithium Polymer
+Bluetooth version: 5.0
+Bluetooth profiles: HFP/A2DP/HSP/AVRCP
+Case Input: 5V/500mA
+Case Output: 5V/150mA
+Case Charging time: Approx. 2hr
+Case Battery capacity: 300 mAh
+Case Battery type: Lithium Polymer
+Package Included:
+Mi True Wireless Earbuds Basic 2
+Charging case
+Cable  no  have
+warranty notice</t>
+  </si>
+  <si>
+    <t>14k</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/60W-5-In-1-Multi-Functional-Fast-Charging-Box-For-Mobile-Phones-Portable-USB-Type-C-Data-Cable-Storage-Kit-With-Card-Pin-Hidden-Stand-i.217949200.19240130435</t>
+  </si>
+  <si>
+    <t>217949200</t>
+  </si>
+  <si>
+    <t>19240130435</t>
+  </si>
+  <si>
+    <t>60W 5 In 1 Multi-Functional Fast Charging Box For Mobile Phones Portable USB Type C Data Cable Storage Kit With Card Pin Hidden Stand</t>
+  </si>
+  <si>
+    <t>$5.57 - $10.37</t>
+  </si>
+  <si>
+    <t>$2.59 - $4.99</t>
+  </si>
+  <si>
+    <t>USB Cable Card Multifunctional Portable USB Adapter Storage Kit 60W Fast Charging USB-C/USB-A/Micro-USB/Charging Cable Kit SIM Card Tray Eject Plug Hidden Stand (Micro SD Card Not Included)
+Feature:
+【Portable and Money Saving USB Cable Storage Box】Mini USB Adapter Storage Box is 3.2 inches in diameter (about 8.1 cm) and 0.3 inches in thickness (about 1.0 cm), guaranteeing you can put it in any handbag or even pocket, it will Be the best companion for travel and business trips.
+【Quickly Resolve USB Cable Confusion】Includes three different types of USB adapters, you can quickly connect to any type of USB port no matter where you are, the storage case will ensure that the USB adapter is fully efficient at all times.
+【Safe and Efficient】Universal USB adapters ensure compatibility with common devices, all adapters are made of scratch-resistant aluminum alloy to ensure a long service life.
+【Multifunctional Storage Box】Contains 3 memory card storage slots (excluding micro SD card) and SIM card tray eject pins, ensuring that you can easily install or replace your SIM card at any time. The USB cable organizer is also a hidden phone holder.
+【WHAT YOU WILL GET】Protective Carrying Case, Bidirectional USB C Cable, USB C Female to USB A/Micro USB/Light Male Adapter, SIM Card Removal Pin.
+Product parameters:
+USB cable length: 11.8 inches
+Material: ABS + aluminum alloy
+Storage box size: diameter 8.1 cm, thickness 1.0 cm
+Maximum power: 60W
+Connector Type: Micro-USB,USB-A
+Color: blue, white
+Features:
+USB transfer
+USB charging
+SIM card exchange
+mobile phone holder
+One cable kit for everyone
+Compatible with Android / iOS / USB Type-C devices.
+#60w Fast Charging
+#multi-function data line conversion
+#Multi-function Data Line 
+#Conversion Head 
+#Wireless Charger Storage Bag  
+#USB Cable Card
+#Versatile Compact Cable Card
+#PD 60W Charging and Data Transfer Cable Kit
+#portable storage bag
+#Multi-function Data Line Storage Box
+#Portable Conversion Head Wireless Charger
+#Universal Portable Storage Bag
+#data cable usb charger set storage box</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Malaysia-Sim-Card-Unlimited-Data-(eSIM)-i.192924.20505179329</t>
+  </si>
+  <si>
+    <t>192924</t>
+  </si>
+  <si>
+    <t>20505179329</t>
+  </si>
+  <si>
+    <t>Malaysia Sim Card Unlimited Data (eSIM)</t>
+  </si>
+  <si>
+    <t>$2.90 - $20.30</t>
+  </si>
+  <si>
+    <t>⭐️Plug-and-Go: No activation or registration needed!
+⭐️Hotspot sharing support
+#################################
+(1) Daily 500mb/1GB/2GB Unlimited (eSIM)
+•	 Service Provider : Celcom
+•	 500mb/1GB/2GB daily on 4G network and unlimited 2G Speed, 
+•	⚠️ Data Only. No voice or SMS service.
+•	 No phone number 
+#Malaysia</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/efd81c96d31e69ea19f9470cd1061d32</t>
+  </si>
+  <si>
+    <t>1.9k</t>
+  </si>
+  <si>
+    <t>South-East Asia</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/13b2cc45f435854a85ad4fafbc04752f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/1e507ba7036436d0876626fb721fc9ef</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3fb1334e51c9c7e7908b70789e006547</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/568c98f208cf8729d6ffd3b093d733b3</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/9f9d4b5cfa8cfeadcb1a72bd6a41b133</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/56093e71b874c07e7ddb456ee911e3bd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/2a05ac4bcea98df2e81b74688c1ccd57</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/46201748bafe05e17d0c14a895cd2541</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/58a1ec4078933870fd4e44783b5198b1</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/b72fdf58e1bb4769868a8cbf03373cff</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/9d0dd92b4d8fd778cc9af22172f22884</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/5e62db9ae74d658ad2107a57e079cc30</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/70e2729bd1b61b523aa7e3e6c9bbc739</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/e9959928ccc25c7f48cc616d56d2c285</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3b50704610785e10c0e39107ce35f356</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/2b744ff57f8f391923bf04d5bc8193eb</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/3e71683c3437fb3a446c5d9dd690e7bd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/090e220bce66e2fef4b13b11f1f3b54c</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ae77abf2fa71e3b01f18112e98274230</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/f02a2b84fb6f3f6a9dd919ab8897b94e</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/763ce3264ae0faba11ac6578049d2912</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/a92ddd7d16a683196d1d13160b3c18fa</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6af93f4d672ba7dc50386860fd58cdcd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/936de8af42a2ff5ea27ea4f9a311f85d</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/60fe7b46b9480a071dcd65ea516907bc</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ffe9f7ae133be3ab793549c3c44afdbc</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6c30ed3367eef6aade0db5499fffb7ea</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/f6f20475ab23c4c8fef82f66c79ef97b</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/233476bb393d75a55c4ca06e377c0cc2</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/bab0ea583f6a2664eddc955575ad9198</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/f86c70bc67ed6db76391f90389d1c317</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/b22becda7a2838079852a220946d513e</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/d1944521168b337672b6291d08fded3a</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/bf91ab7842471d18b25941746ac30fb0</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/5d49cf90d7c71d88b16adf5dc4579c0f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/cda774b0d128535c813683f618b6977e</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/931c3bb4653160f9f5afcbdbc60c9fb6</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/d7d53ccc316d072e3ef81ac9a56b5adf</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/0740240b69fb1f76adcc5860ab0389cd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/26f667f89430bea2bdca1f163acab70f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/967c6d420d9b9f2b5a7411cc3368abe9</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/b580ab519b817a3ff40ea1cee2607637</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/7311ae5dc80942ee9fa0f68fa926f7bd</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/6f8ba3627a68a5bb3219b0c100db71ba</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/9c5f491c783a94c39700d7a20eb7ec93</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ee8904830cf3eb4892202bdde48bb58c</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/c76b6f60bd028b4bbed5ba71f221116c</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/54e448a47f9b94210fd53684aabc9b5f</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/ca9f7a700b16f33cbed350953b2cfa42</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/283f1939c9ec7d29b06d3198a3d93432</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.sg/file/59baa5997229f3cf6242d72b6bce893f</t>
   </si>
 </sst>
 </file>
@@ -2520,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2592,13 +4928,13 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>916</v>
@@ -2606,37 +4942,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
       </c>
       <c r="L3">
         <v>16</v>
@@ -2644,37 +4980,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
       </c>
       <c r="L4">
         <v>202</v>
@@ -2682,37 +5018,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>735</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>114</v>
@@ -2720,37 +5056,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6">
         <v>54</v>
@@ -2758,37 +5094,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
       </c>
       <c r="L7">
         <v>447</v>
@@ -2796,37 +5132,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
       </c>
       <c r="L8">
         <v>618</v>
@@ -2834,37 +5170,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>86</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>87</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>736</v>
+      </c>
+      <c r="J9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>200</v>
@@ -2872,37 +5208,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>737</v>
+      </c>
+      <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <v>457</v>
@@ -2910,37 +5246,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>223</v>
@@ -2948,37 +5284,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>738</v>
+      </c>
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12">
         <v>1845</v>
@@ -2986,37 +5322,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>125</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L13">
         <v>1320</v>
@@ -3024,37 +5360,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G14" t="s">
         <v>130</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>739</v>
+      </c>
+      <c r="J14" t="s">
         <v>131</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K14" t="s">
         <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
       </c>
       <c r="L14">
         <v>784</v>
@@ -3062,37 +5398,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
         <v>140</v>
       </c>
-      <c r="D15" t="s">
+      <c r="K15" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
       </c>
       <c r="L15">
         <v>469</v>
@@ -3100,34 +5436,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>740</v>
+      </c>
+      <c r="J16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L16">
         <v>557</v>
@@ -3135,37 +5471,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>741</v>
+      </c>
+      <c r="J17" t="s">
         <v>156</v>
       </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17">
         <v>487</v>
@@ -3173,37 +5509,37 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L18">
         <v>835</v>
@@ -3211,37 +5547,37 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>742</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L19">
         <v>240</v>
@@ -3249,34 +5585,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>743</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L20">
         <v>98</v>
@@ -3284,37 +5620,37 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>744</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <v>294</v>
@@ -3322,37 +5658,37 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>745</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L22">
         <v>1335</v>
@@ -3360,37 +5696,37 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>746</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L23">
         <v>1530</v>
@@ -3398,37 +5734,37 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>747</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L24">
         <v>2519</v>
@@ -3436,37 +5772,37 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L25">
         <v>606</v>
@@ -3474,34 +5810,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>748</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="L26">
         <v>5903</v>
@@ -3509,37 +5845,37 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>749</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="L27">
         <v>11154</v>
@@ -3547,37 +5883,37 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>750</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L28">
         <v>3144</v>
@@ -3585,37 +5921,37 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>751</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L29">
         <v>860</v>
@@ -3623,37 +5959,37 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>752</v>
       </c>
       <c r="J30" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="L30">
         <v>3263</v>
@@ -3661,37 +5997,37 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="L31">
         <v>110</v>
@@ -3699,37 +6035,37 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>753</v>
       </c>
       <c r="J32" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="L32">
         <v>950</v>
@@ -3737,37 +6073,37 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>754</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="L33">
         <v>49</v>
@@ -3775,37 +6111,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L34">
         <v>2398</v>
@@ -3813,37 +6149,37 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I35" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="L35">
         <v>267</v>
@@ -3851,34 +6187,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s">
-        <v>344</v>
+        <v>755</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L36">
         <v>4645</v>
@@ -3886,34 +6222,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F37" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>756</v>
       </c>
       <c r="J37" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="L37">
         <v>71</v>
@@ -3921,37 +6257,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="E38" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>364</v>
+        <v>757</v>
       </c>
       <c r="J38" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="L38">
         <v>7868</v>
@@ -3959,34 +6295,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="L39">
         <v>4292</v>
@@ -3994,37 +6330,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E40" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="F40" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>383</v>
+        <v>758</v>
       </c>
       <c r="J40" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="L40">
         <v>584</v>
@@ -4032,40 +6368,1615 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>393</v>
+        <v>759</v>
       </c>
       <c r="J41" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="L41">
         <v>1844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" t="s">
+        <v>374</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>376</v>
+      </c>
+      <c r="H42" t="s">
+        <v>313</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>386</v>
+      </c>
+      <c r="H43" t="s">
+        <v>387</v>
+      </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
+      <c r="D44" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>405</v>
+      </c>
+      <c r="H45" t="s">
+        <v>406</v>
+      </c>
+      <c r="I45" t="s">
+        <v>760</v>
+      </c>
+      <c r="J45" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" t="s">
+        <v>408</v>
+      </c>
+      <c r="L45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" t="s">
+        <v>412</v>
+      </c>
+      <c r="F46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" t="s">
+        <v>414</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>415</v>
+      </c>
+      <c r="J46" t="s">
+        <v>416</v>
+      </c>
+      <c r="K46" t="s">
+        <v>417</v>
+      </c>
+      <c r="L46">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" t="s">
+        <v>422</v>
+      </c>
+      <c r="F47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s">
+        <v>761</v>
+      </c>
+      <c r="J47" t="s">
+        <v>425</v>
+      </c>
+      <c r="K47" t="s">
+        <v>426</v>
+      </c>
+      <c r="L47">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>427</v>
+      </c>
+      <c r="B48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D48" t="s">
+        <v>430</v>
+      </c>
+      <c r="F48" t="s">
+        <v>431</v>
+      </c>
+      <c r="G48" t="s">
+        <v>432</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>433</v>
+      </c>
+      <c r="J48" t="s">
+        <v>434</v>
+      </c>
+      <c r="K48" t="s">
+        <v>435</v>
+      </c>
+      <c r="L48">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>436</v>
+      </c>
+      <c r="B49" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" t="s">
+        <v>440</v>
+      </c>
+      <c r="F49" t="s">
+        <v>441</v>
+      </c>
+      <c r="G49" t="s">
+        <v>442</v>
+      </c>
+      <c r="H49" t="s">
+        <v>406</v>
+      </c>
+      <c r="I49" t="s">
+        <v>443</v>
+      </c>
+      <c r="J49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K49" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
+      <c r="D50" t="s">
+        <v>449</v>
+      </c>
+      <c r="E50" t="s">
+        <v>450</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" t="s">
+        <v>452</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>453</v>
+      </c>
+      <c r="J50" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" t="s">
+        <v>458</v>
+      </c>
+      <c r="D51" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" t="s">
+        <v>460</v>
+      </c>
+      <c r="F51" t="s">
+        <v>461</v>
+      </c>
+      <c r="G51" t="s">
+        <v>462</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J51" t="s">
+        <v>463</v>
+      </c>
+      <c r="K51" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G52" t="s">
+        <v>471</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>763</v>
+      </c>
+      <c r="J52" t="s">
+        <v>472</v>
+      </c>
+      <c r="K52" t="s">
+        <v>473</v>
+      </c>
+      <c r="L52">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" t="s">
+        <v>475</v>
+      </c>
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" t="s">
+        <v>478</v>
+      </c>
+      <c r="F53" t="s">
+        <v>479</v>
+      </c>
+      <c r="G53" t="s">
+        <v>480</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>764</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>481</v>
+      </c>
+      <c r="L53">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>482</v>
+      </c>
+      <c r="B54" t="s">
+        <v>483</v>
+      </c>
+      <c r="C54" t="s">
+        <v>484</v>
+      </c>
+      <c r="D54" t="s">
+        <v>485</v>
+      </c>
+      <c r="F54" t="s">
+        <v>486</v>
+      </c>
+      <c r="G54" t="s">
+        <v>487</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>765</v>
+      </c>
+      <c r="J54" t="s">
+        <v>488</v>
+      </c>
+      <c r="K54" t="s">
+        <v>489</v>
+      </c>
+      <c r="L54">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>490</v>
+      </c>
+      <c r="B55" t="s">
+        <v>491</v>
+      </c>
+      <c r="C55" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" t="s">
+        <v>493</v>
+      </c>
+      <c r="E55" t="s">
+        <v>494</v>
+      </c>
+      <c r="F55" t="s">
+        <v>495</v>
+      </c>
+      <c r="G55" t="s">
+        <v>496</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>766</v>
+      </c>
+      <c r="J55" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>497</v>
+      </c>
+      <c r="B56" t="s">
+        <v>498</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>500</v>
+      </c>
+      <c r="E56" t="s">
+        <v>501</v>
+      </c>
+      <c r="F56" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" t="s">
+        <v>503</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>504</v>
+      </c>
+      <c r="J56" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B57" t="s">
+        <v>506</v>
+      </c>
+      <c r="C57" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" t="s">
+        <v>508</v>
+      </c>
+      <c r="E57" t="s">
+        <v>509</v>
+      </c>
+      <c r="F57" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" t="s">
+        <v>511</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>512</v>
+      </c>
+      <c r="J57" t="s">
+        <v>513</v>
+      </c>
+      <c r="K57" t="s">
+        <v>473</v>
+      </c>
+      <c r="L57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>514</v>
+      </c>
+      <c r="B58" t="s">
+        <v>515</v>
+      </c>
+      <c r="C58" t="s">
+        <v>516</v>
+      </c>
+      <c r="D58" t="s">
+        <v>517</v>
+      </c>
+      <c r="E58" t="s">
+        <v>518</v>
+      </c>
+      <c r="F58" t="s">
+        <v>519</v>
+      </c>
+      <c r="G58" t="s">
+        <v>520</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>767</v>
+      </c>
+      <c r="J58" t="s">
+        <v>521</v>
+      </c>
+      <c r="K58" t="s">
+        <v>522</v>
+      </c>
+      <c r="L58">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>524</v>
+      </c>
+      <c r="C59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59" t="s">
+        <v>527</v>
+      </c>
+      <c r="G59" t="s">
+        <v>528</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>768</v>
+      </c>
+      <c r="J59" t="s">
+        <v>529</v>
+      </c>
+      <c r="K59" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>530</v>
+      </c>
+      <c r="B60" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D60" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" t="s">
+        <v>534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>535</v>
+      </c>
+      <c r="G60" t="s">
+        <v>536</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s">
+        <v>537</v>
+      </c>
+      <c r="J60" t="s">
+        <v>140</v>
+      </c>
+      <c r="K60" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>538</v>
+      </c>
+      <c r="B61" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" t="s">
+        <v>540</v>
+      </c>
+      <c r="D61" t="s">
+        <v>541</v>
+      </c>
+      <c r="E61" t="s">
+        <v>542</v>
+      </c>
+      <c r="F61" t="s">
+        <v>543</v>
+      </c>
+      <c r="G61" t="s">
+        <v>544</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>769</v>
+      </c>
+      <c r="J61" t="s">
+        <v>545</v>
+      </c>
+      <c r="K61" t="s">
+        <v>445</v>
+      </c>
+      <c r="L61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>546</v>
+      </c>
+      <c r="B62" t="s">
+        <v>437</v>
+      </c>
+      <c r="C62" t="s">
+        <v>547</v>
+      </c>
+      <c r="D62" t="s">
+        <v>548</v>
+      </c>
+      <c r="E62" t="s">
+        <v>549</v>
+      </c>
+      <c r="F62" t="s">
+        <v>550</v>
+      </c>
+      <c r="G62" t="s">
+        <v>551</v>
+      </c>
+      <c r="H62" t="s">
+        <v>387</v>
+      </c>
+      <c r="I62" t="s">
+        <v>770</v>
+      </c>
+      <c r="J62" t="s">
+        <v>552</v>
+      </c>
+      <c r="K62" t="s">
+        <v>553</v>
+      </c>
+      <c r="L62">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" t="s">
+        <v>555</v>
+      </c>
+      <c r="C63" t="s">
+        <v>556</v>
+      </c>
+      <c r="D63" t="s">
+        <v>557</v>
+      </c>
+      <c r="E63" t="s">
+        <v>558</v>
+      </c>
+      <c r="F63" t="s">
+        <v>559</v>
+      </c>
+      <c r="G63" t="s">
+        <v>560</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>771</v>
+      </c>
+      <c r="J63" t="s">
+        <v>561</v>
+      </c>
+      <c r="K63" t="s">
+        <v>562</v>
+      </c>
+      <c r="L63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>563</v>
+      </c>
+      <c r="B64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" t="s">
+        <v>565</v>
+      </c>
+      <c r="D64" t="s">
+        <v>566</v>
+      </c>
+      <c r="E64" t="s">
+        <v>567</v>
+      </c>
+      <c r="F64" t="s">
+        <v>568</v>
+      </c>
+      <c r="G64" t="s">
+        <v>569</v>
+      </c>
+      <c r="H64" t="s">
+        <v>570</v>
+      </c>
+      <c r="I64" t="s">
+        <v>571</v>
+      </c>
+      <c r="J64" t="s">
+        <v>572</v>
+      </c>
+      <c r="K64" t="s">
+        <v>573</v>
+      </c>
+      <c r="L64">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>574</v>
+      </c>
+      <c r="B65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C65" t="s">
+        <v>576</v>
+      </c>
+      <c r="D65" t="s">
+        <v>577</v>
+      </c>
+      <c r="E65" t="s">
+        <v>578</v>
+      </c>
+      <c r="F65" t="s">
+        <v>579</v>
+      </c>
+      <c r="G65" t="s">
+        <v>580</v>
+      </c>
+      <c r="H65" t="s">
+        <v>570</v>
+      </c>
+      <c r="I65" t="s">
+        <v>772</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" t="s">
+        <v>581</v>
+      </c>
+      <c r="L65">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>582</v>
+      </c>
+      <c r="B66" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" t="s">
+        <v>584</v>
+      </c>
+      <c r="D66" t="s">
+        <v>585</v>
+      </c>
+      <c r="E66" t="s">
+        <v>586</v>
+      </c>
+      <c r="F66" t="s">
+        <v>587</v>
+      </c>
+      <c r="G66" t="s">
+        <v>588</v>
+      </c>
+      <c r="H66" t="s">
+        <v>570</v>
+      </c>
+      <c r="I66" t="s">
+        <v>773</v>
+      </c>
+      <c r="J66" t="s">
+        <v>589</v>
+      </c>
+      <c r="K66" t="s">
+        <v>590</v>
+      </c>
+      <c r="L66">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>591</v>
+      </c>
+      <c r="B67" t="s">
+        <v>592</v>
+      </c>
+      <c r="C67" t="s">
+        <v>593</v>
+      </c>
+      <c r="D67" t="s">
+        <v>594</v>
+      </c>
+      <c r="E67" t="s">
+        <v>595</v>
+      </c>
+      <c r="F67" t="s">
+        <v>596</v>
+      </c>
+      <c r="G67" t="s">
+        <v>597</v>
+      </c>
+      <c r="H67" t="s">
+        <v>331</v>
+      </c>
+      <c r="I67" t="s">
+        <v>774</v>
+      </c>
+      <c r="J67" t="s">
+        <v>598</v>
+      </c>
+      <c r="K67" t="s">
+        <v>599</v>
+      </c>
+      <c r="L67">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>600</v>
+      </c>
+      <c r="B68" t="s">
+        <v>601</v>
+      </c>
+      <c r="C68" t="s">
+        <v>602</v>
+      </c>
+      <c r="D68" t="s">
+        <v>603</v>
+      </c>
+      <c r="E68" t="s">
+        <v>604</v>
+      </c>
+      <c r="F68" t="s">
+        <v>605</v>
+      </c>
+      <c r="G68" t="s">
+        <v>606</v>
+      </c>
+      <c r="H68" t="s">
+        <v>406</v>
+      </c>
+      <c r="I68" t="s">
+        <v>775</v>
+      </c>
+      <c r="J68" t="s">
+        <v>607</v>
+      </c>
+      <c r="K68" t="s">
+        <v>573</v>
+      </c>
+      <c r="L68">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>608</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" t="s">
+        <v>610</v>
+      </c>
+      <c r="E69" t="s">
+        <v>611</v>
+      </c>
+      <c r="F69" t="s">
+        <v>612</v>
+      </c>
+      <c r="G69" t="s">
+        <v>613</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
+        <v>614</v>
+      </c>
+      <c r="J69" t="s">
+        <v>615</v>
+      </c>
+      <c r="K69" t="s">
+        <v>581</v>
+      </c>
+      <c r="L69">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>616</v>
+      </c>
+      <c r="B70" t="s">
+        <v>617</v>
+      </c>
+      <c r="C70" t="s">
+        <v>618</v>
+      </c>
+      <c r="D70" t="s">
+        <v>619</v>
+      </c>
+      <c r="E70" t="s">
+        <v>620</v>
+      </c>
+      <c r="F70" t="s">
+        <v>621</v>
+      </c>
+      <c r="G70" t="s">
+        <v>622</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s">
+        <v>623</v>
+      </c>
+      <c r="J70" t="s">
+        <v>624</v>
+      </c>
+      <c r="K70" t="s">
+        <v>473</v>
+      </c>
+      <c r="L70">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>625</v>
+      </c>
+      <c r="B71" t="s">
+        <v>626</v>
+      </c>
+      <c r="C71" t="s">
+        <v>627</v>
+      </c>
+      <c r="D71" t="s">
+        <v>628</v>
+      </c>
+      <c r="E71" t="s">
+        <v>629</v>
+      </c>
+      <c r="F71" t="s">
+        <v>630</v>
+      </c>
+      <c r="G71" t="s">
+        <v>631</v>
+      </c>
+      <c r="H71" t="s">
+        <v>387</v>
+      </c>
+      <c r="I71" t="s">
+        <v>776</v>
+      </c>
+      <c r="J71" t="s">
+        <v>632</v>
+      </c>
+      <c r="K71" t="s">
+        <v>599</v>
+      </c>
+      <c r="L71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B72" t="s">
+        <v>634</v>
+      </c>
+      <c r="C72" t="s">
+        <v>635</v>
+      </c>
+      <c r="D72" t="s">
+        <v>636</v>
+      </c>
+      <c r="E72" t="s">
+        <v>637</v>
+      </c>
+      <c r="F72" t="s">
+        <v>638</v>
+      </c>
+      <c r="G72" t="s">
+        <v>639</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>777</v>
+      </c>
+      <c r="J72" t="s">
+        <v>640</v>
+      </c>
+      <c r="K72" t="s">
+        <v>473</v>
+      </c>
+      <c r="L72">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>641</v>
+      </c>
+      <c r="B73" t="s">
+        <v>642</v>
+      </c>
+      <c r="C73" t="s">
+        <v>643</v>
+      </c>
+      <c r="D73" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" t="s">
+        <v>645</v>
+      </c>
+      <c r="F73" t="s">
+        <v>646</v>
+      </c>
+      <c r="G73" t="s">
+        <v>647</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>778</v>
+      </c>
+      <c r="J73" t="s">
+        <v>648</v>
+      </c>
+      <c r="K73" t="s">
+        <v>581</v>
+      </c>
+      <c r="L73">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>649</v>
+      </c>
+      <c r="B74" t="s">
+        <v>650</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
+      <c r="D74" t="s">
+        <v>652</v>
+      </c>
+      <c r="E74" t="s">
+        <v>653</v>
+      </c>
+      <c r="F74" t="s">
+        <v>654</v>
+      </c>
+      <c r="G74" t="s">
+        <v>655</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s">
+        <v>779</v>
+      </c>
+      <c r="J74" t="s">
+        <v>656</v>
+      </c>
+      <c r="K74" t="s">
+        <v>657</v>
+      </c>
+      <c r="L74">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>658</v>
+      </c>
+      <c r="B75" t="s">
+        <v>659</v>
+      </c>
+      <c r="C75" t="s">
+        <v>660</v>
+      </c>
+      <c r="D75" t="s">
+        <v>661</v>
+      </c>
+      <c r="E75" t="s">
+        <v>662</v>
+      </c>
+      <c r="F75" t="s">
+        <v>663</v>
+      </c>
+      <c r="G75" t="s">
+        <v>664</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s">
+        <v>780</v>
+      </c>
+      <c r="J75" t="s">
+        <v>665</v>
+      </c>
+      <c r="K75" t="s">
+        <v>666</v>
+      </c>
+      <c r="L75">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>667</v>
+      </c>
+      <c r="B76" t="s">
+        <v>668</v>
+      </c>
+      <c r="C76" t="s">
+        <v>669</v>
+      </c>
+      <c r="D76" t="s">
+        <v>670</v>
+      </c>
+      <c r="E76" t="s">
+        <v>671</v>
+      </c>
+      <c r="F76" t="s">
+        <v>672</v>
+      </c>
+      <c r="G76" t="s">
+        <v>673</v>
+      </c>
+      <c r="H76" t="s">
+        <v>406</v>
+      </c>
+      <c r="I76" t="s">
+        <v>781</v>
+      </c>
+      <c r="J76" t="s">
+        <v>674</v>
+      </c>
+      <c r="K76" t="s">
+        <v>573</v>
+      </c>
+      <c r="L76">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>675</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>676</v>
+      </c>
+      <c r="D77" t="s">
+        <v>677</v>
+      </c>
+      <c r="E77" t="s">
+        <v>678</v>
+      </c>
+      <c r="F77" t="s">
+        <v>679</v>
+      </c>
+      <c r="G77" t="s">
+        <v>680</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>681</v>
+      </c>
+      <c r="J77" t="s">
+        <v>682</v>
+      </c>
+      <c r="K77" t="s">
+        <v>581</v>
+      </c>
+      <c r="L77">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>683</v>
+      </c>
+      <c r="B78" t="s">
+        <v>684</v>
+      </c>
+      <c r="C78" t="s">
+        <v>685</v>
+      </c>
+      <c r="D78" t="s">
+        <v>686</v>
+      </c>
+      <c r="E78" t="s">
+        <v>687</v>
+      </c>
+      <c r="F78" t="s">
+        <v>688</v>
+      </c>
+      <c r="G78" t="s">
+        <v>689</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>690</v>
+      </c>
+      <c r="J78" t="s">
+        <v>691</v>
+      </c>
+      <c r="K78" t="s">
+        <v>692</v>
+      </c>
+      <c r="L78">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>693</v>
+      </c>
+      <c r="B79" t="s">
+        <v>694</v>
+      </c>
+      <c r="C79" t="s">
+        <v>695</v>
+      </c>
+      <c r="D79" t="s">
+        <v>696</v>
+      </c>
+      <c r="E79" t="s">
+        <v>697</v>
+      </c>
+      <c r="F79" t="s">
+        <v>698</v>
+      </c>
+      <c r="G79" t="s">
+        <v>699</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s">
+        <v>782</v>
+      </c>
+      <c r="J79" t="s">
+        <v>674</v>
+      </c>
+      <c r="K79" t="s">
+        <v>700</v>
+      </c>
+      <c r="L79">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>701</v>
+      </c>
+      <c r="B80" t="s">
+        <v>702</v>
+      </c>
+      <c r="C80" t="s">
+        <v>703</v>
+      </c>
+      <c r="D80" t="s">
+        <v>704</v>
+      </c>
+      <c r="E80" t="s">
+        <v>705</v>
+      </c>
+      <c r="F80" t="s">
+        <v>706</v>
+      </c>
+      <c r="G80" t="s">
+        <v>707</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s">
+        <v>708</v>
+      </c>
+      <c r="J80" t="s">
+        <v>213</v>
+      </c>
+      <c r="K80" t="s">
+        <v>473</v>
+      </c>
+      <c r="L80">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>709</v>
+      </c>
+      <c r="B81" t="s">
+        <v>710</v>
+      </c>
+      <c r="C81" t="s">
+        <v>711</v>
+      </c>
+      <c r="D81" t="s">
+        <v>712</v>
+      </c>
+      <c r="E81" t="s">
+        <v>713</v>
+      </c>
+      <c r="F81" t="s">
+        <v>714</v>
+      </c>
+      <c r="G81" t="s">
+        <v>715</v>
+      </c>
+      <c r="H81" t="s">
+        <v>387</v>
+      </c>
+      <c r="I81" t="s">
+        <v>783</v>
+      </c>
+      <c r="J81" t="s">
+        <v>716</v>
+      </c>
+      <c r="K81" t="s">
+        <v>581</v>
+      </c>
+      <c r="L81">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>717</v>
+      </c>
+      <c r="B82" t="s">
+        <v>718</v>
+      </c>
+      <c r="C82" t="s">
+        <v>719</v>
+      </c>
+      <c r="D82" t="s">
+        <v>720</v>
+      </c>
+      <c r="E82" t="s">
+        <v>721</v>
+      </c>
+      <c r="F82" t="s">
+        <v>722</v>
+      </c>
+      <c r="G82" t="s">
+        <v>723</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>784</v>
+      </c>
+      <c r="J82" t="s">
+        <v>572</v>
+      </c>
+      <c r="K82" t="s">
+        <v>724</v>
+      </c>
+      <c r="L82">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>725</v>
+      </c>
+      <c r="B83" t="s">
+        <v>726</v>
+      </c>
+      <c r="C83" t="s">
+        <v>727</v>
+      </c>
+      <c r="D83" t="s">
+        <v>728</v>
+      </c>
+      <c r="F83" t="s">
+        <v>729</v>
+      </c>
+      <c r="G83" t="s">
+        <v>730</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
+        <v>731</v>
+      </c>
+      <c r="J83" t="s">
+        <v>732</v>
+      </c>
+      <c r="K83" t="s">
+        <v>733</v>
+      </c>
+      <c r="L83">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/data/shopee_products.xlsx
+++ b/Crawling/data/shopee_products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="664">
   <si>
     <t>url</t>
   </si>
@@ -61,24 +61,15 @@
     <t>https://shopee.sg/SSD-External-Hard-Disk-M.2-30TB-60TB-128TB-Portable-External-Hard-Disk-4TB-2TB-1TB-Portable-Hard-Drive-USB-3.0-i.915737909.13698127662</t>
   </si>
   <si>
-    <t>https://shopee.sg/🔥SG-Seller!!🔥-Portable-Mini-Thermal-Printer-Sticker-Label-No-Ink-Need-For-School-Work-Leis-i.189053145.8731434283</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Waterproof-Laptop-Bag-Handle-Case-For-Acer-Aspire-5-Swift-5-Zipper-Handbag-Sleeve-PC-Case-SF314-52G-5079-536Y-14''-Laptop-Cover-2020-Nootbook-Pouch-Cover-i.162297388.16148196943</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥SG-INSTOCKS🔥*NEW-VERSION*-BT.L-Mouse-Grip-Tape-for-G-Pro-Wireless-G-Pro-Superlight-i.471742988.10449251562</t>
   </si>
   <si>
-    <t>https://shopee.sg/USB-C-HUB-Multi-USB-Port-Splitter-USB-C-To-USB-Adapter-With-OTG-Type-C-To-USB-HUB-3.0-i.883743929.23213676583</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Ultra-thin-Laptop-Sleeve-Bag-11-12-13-14-15-inch-Notebook-Liner-Bag-for-Macbook-Case-Cover-Computer-Handbag-i.285719570.20121722507</t>
   </si>
   <si>
-    <t>https://shopee.sg/MCAFEE-LIVESAFE-ANTIVIRUS-2022-ORIGINAL-10-YEARS-i.217781738.6657733363</t>
-  </si>
-  <si>
     <t>https://shopee.sg/SG-Local-GTX300-LED-Gaming-Keyboard-and-Mouse-Set-Mechanical-Keyboard-with-7-Colour-Illuminated-Light-for-Gaming-Office-i.223946658.11315955990</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>https://shopee.sg/Wireless-Bluetooth-Keyboard-Mouse-Set-Wireless-Keyboard-Bluetooth-Mouse-Full-Set-Wireless-Mouse-and-Keyboard-Silent-i.549252859.10284605700</t>
   </si>
   <si>
-    <t>https://shopee.sg/🔥SG-Seller!!🔥Promotion-Price!!🔥PLA-3D-Printer-Filament-330-Metres-Filament-3D-Printing-Filament-i.189053145.17269074660</t>
-  </si>
-  <si>
     <t>https://shopee.sg/8PIN-to-SD-Card-Reader-Adapter-Smart-Digital-Camera-Card-Readers-OTG-for-Phone-i.51134277.8888120988</t>
   </si>
   <si>
@@ -160,18 +148,12 @@
     <t>https://shopee.sg/-SG-RGB-Gaming-MousePad-14-LED-Color-Backlit-large-desk-mat-mouse-pad-Waterproof-mouse-pad-i.223946658.4493125778</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-HP-67-67XL-67XXL-Black-Tri-color-Ink-Cartridge-i.301789278.5768068944</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Cute-Cat-Artisan-Keycaps-OEM-Profile-Compatible-or-Gateron-Cherry-MX-Switches-Mechanical-Keyboard-keycap-i.237211081.18202504405</t>
   </si>
   <si>
     <t>https://shopee.sg/【SG-SELLER】ZEUSS-Transparent-Grey-HDD-Case-2.5-inch-SATA-to-USB-3.0-Tool-Free-support-5Gbps-4TB【No-HDD】-i.46769394.3570238977</t>
   </si>
   <si>
-    <t>https://shopee.sg/New-Type-C-USB-3.0-4-Port-High-Speed-Hub-Extension-Splitter-for-Laptop-Computer-Multiport-Port-USB-C-HUB-3.1-Mobile-Phone-OTG-Adapter-i.703107608.21961174478</t>
-  </si>
-  <si>
     <t>https://shopee.sg/-NEW-ARRIVAL-Mini-Portable-Square-Wireless-Bluetooth-Pocket-Thermal-Printer-Android-IOS-Print-Labels-Printer-Labeller-i.21596473.17285934126</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t>https://shopee.sg/【SG-Local-Stock】Korean-Cute-Cartoon-Mouse-Pad-Cute-Bear-Dog-Waterproof-Mousepad-i.320070742.5766743646</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-Canon-PG-745S-745S-PG-745-745-PG-745XL-745XL-CL-746S-746S-CL-746-746-CL-746XL-746XL-Ink-Cartridge-i.301789278.5151248061</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Permatex-22058-Lubricant-Dielectric-Grease-Lubricating-Mechanical-Keyboard-Stabilizers-Stabs-i.135527190.6251168665</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>https://shopee.sg/🍃READY-STOCK🍃USB-3.0-5Gbps-SuperSpeed-4-Ports-USB-HUB-(20cm-x-60cm-x-120cm)-i.489184415.9182118098</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-Epson-Ink-T04E-04E-C13T04E190-Black-C13T04E290-Cyan-C13T04E390-Magenta-C13T04E490-Yellow-i.301789278.4268120614</t>
-  </si>
-  <si>
     <t>https://shopee.sg/（Ready-Stock-）Wireless-Mouse-Bluetooth-Mouse-2.4GHz-Optical-Rechargeable-Silent-Mouse-for-Phone-Tablet-i.51134277.21545578387</t>
   </si>
   <si>
@@ -262,15 +238,9 @@
     <t>https://shopee.sg/Akko-CS-Jelly-V3-Switches-Mechanical-Keyboard-Switch-CREAM-YELLOW-BLUE-LAVENDER-JELLY-PURPLE-BLUE-BLACK-SILVER-ROSE-RED-i.415978729.17868931721</t>
   </si>
   <si>
-    <t>https://shopee.sg/-SG-Local-Seller-HDMI-to-VGA-Premium-Cable-1.8M-i.35062141.14316248775</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Genesis-Laptop-Stand-Adjustable-Portable-Foldable-Aluminium-Metal-Riser-Ergonomic-for-Notebook-i.262807707.21311931803</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-HP-63-63XL-Black-Tri-color-Ink-Cartridge-i.301789278.6750711038</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Keyboard-Mouse-Acrylic-dust-cover-anti-dust-guard-cap-for-mechanical-keyboards-for-NJ68-NJ80-Desktop-Computer-Transparent-Acrylic-Mouse-Cover-104-Key-87-Keyboard-Cover-i.498173133.13721662789</t>
   </si>
   <si>
@@ -352,9 +322,6 @@
     <t>https://shopee.sg/MOUSE-PAD-FOR-PC-LAPTOP-COMPUTER-ACCESORIES-MOUSEPAD-(BLACK)-i.446883346.8758404910</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-HP-65-65XL-Black-Tri-color-Ink-Cartridge-i.301789278.4150699607</t>
-  </si>
-  <si>
     <t>https://shopee.sg/SHIP-FROM-SG-Real-RGB-Mechanical-Keyboard-Changeable-Switch-Gaming-Keyboard-RGB-Keyboard-i.154953096.5345617515</t>
   </si>
   <si>
@@ -364,9 +331,6 @@
     <t>https://shopee.sg/【SG-Stock】-Ipad-protective-case-10.2-inches-10.9-inch-ipad-air-4-WITH-pencil-slot-holder-i.327481064.9065480511</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-Canon-PG-47-PG47-PG-47-CL-57-CL57-CL-57-CL-57s-CL57s-CL-57s-Ink-Cartridge-i.301789278.5454949576</t>
-  </si>
-  <si>
     <t>https://shopee.sg/Pebble-M350-POP-Mouse-Wireless-Mouse-2.4GHz-Silent-Slim-Bluetooth-Mice-High-Precision-1000DPI-Optical-Mouse-i.51134277.22111692563</t>
   </si>
   <si>
@@ -412,9 +376,6 @@
     <t>https://shopee.sg/-SG-Ready-Stock-25*25cm-22*22cm-Round-Mousepad-High-Quality-Double-sided-Waterproof-Mouse-Pad-Leather-Mouse-Pad-i.323750093.10235261616</t>
   </si>
   <si>
-    <t>https://shopee.sg/-ORIGINAL-HP-965-965XL-Black-Cyan-Magenta-Yellow-Ink-Cartridge-i.301789278.8851724720</t>
-  </si>
-  <si>
     <t>https://shopee.sg/LED-Strip-Light-SMD-5050-RGB-LED-Light-Strip-5M-10M-20M-Fairy-Light-Waterproof-LED-Tape-Lights-with-Remote-Controller-for-Home-i.567493313.12866945589</t>
   </si>
   <si>
@@ -502,9 +463,6 @@
     <t>https://shopee.sg/-SG-STOCKS-Colorful-Stackable-Plastic-Shoe-Box-Multiple-Colour-PP-Plastic-Foldable-Easy-To-Keep-i.474850985.13323692269</t>
   </si>
   <si>
-    <t>https://shopee.sg/Premium-Height-Adjustable-Hotel-Pillows!-【1000g-pillow-2pcs-offer!-1200-1500g-available】-i.20720050.6179407358</t>
-  </si>
-  <si>
     <t>https://shopee.sg/-SG-Stock-Double-Wall-Insulated-Drinking-Glass-Cup-Coffee-Tea-80ML-250ML-350ML-450ML-650ML-i.347119246.6771613098</t>
   </si>
   <si>
@@ -550,24 +508,15 @@
     <t>SSD External Hard Disk  M.2 30TB/60TB 128TB Portable External Hard Disk  4TB/2TB/1TB  Portable Hard Drive USB 3.0</t>
   </si>
   <si>
-    <t>🔥SG Seller!!🔥 Portable Mini Thermal Printer / Sticker Label | No Ink Need For School / Work / Leis</t>
-  </si>
-  <si>
     <t>Waterproof Laptop Bag Handle Case For Acer Aspire 5 Swift 5 Zipper Handbag Sleeve PC Case SF314-52G-5079 536Y 14'' Laptop Cover 2020 Nootbook Pouch Cover</t>
   </si>
   <si>
     <t>🔥SG INSTOCKS🔥*NEW VERSION* BT.L Mouse Grip Tape for G Pro Wireless G Pro Superlight</t>
   </si>
   <si>
-    <t>USB C HUB Multi USB Port Splitter USB C To USB Adapter With OTG Type C To USB HUB 3.0</t>
-  </si>
-  <si>
     <t>Ultra-thin Laptop Sleeve Bag 11/12/13/14/15 inch Notebook Liner Bag for Macbook Case Cover Computer Handbag</t>
   </si>
   <si>
-    <t>MCAFEE LIVESAFE ANTIVIRUS 2022 ORIGINAL 10 YEARS</t>
-  </si>
-  <si>
     <t>SG Local GTX300 LED Gaming Keyboard and Mouse Set Mechanical Keyboard with 7 Colour Illuminated Light for Gaming Office</t>
   </si>
   <si>
@@ -619,9 +568,6 @@
     <t>Wireless Bluetooth Keyboard Mouse Set Wireless Keyboard Bluetooth Mouse Full Set Wireless Mouse and Keyboard Silent</t>
   </si>
   <si>
-    <t>🔥SG Seller!!🔥Promotion Price!!🔥PLA 3D Printer Filament | 330 Metres Filament | 3D Printing Filament</t>
-  </si>
-  <si>
     <t>8PIN to SD Card Reader Adapter Smart Digital Camera Card Readers OTG for Phone</t>
   </si>
   <si>
@@ -649,18 +595,12 @@
     <t>[SG] RGB Gaming MousePad, 14 LED Color Backlit large desk mat mouse pad Waterproof mouse pad</t>
   </si>
   <si>
-    <t>[ORIGINAL] HP 67 / 67XL / 67XXL Black Tri-color Ink Cartridge</t>
-  </si>
-  <si>
     <t>Cute Cat Artisan Keycaps OEM Profile Compatible or Gateron Cherry MX Switches Mechanical Keyboard keycap</t>
   </si>
   <si>
     <t>【SG SELLER】ZEUSS Transparent &amp; Grey HDD Case 2.5 inch SATA to USB 3.0 Tool Free support 5Gbps 4TB【No HDD】</t>
   </si>
   <si>
-    <t>New Type C USB 3.0 4 Port High Speed Hub Extension Splitter for Laptop Computer Multiport Port USB C HUB 3.1 Mobile Phone OTG Adapter</t>
-  </si>
-  <si>
     <t>[NEW ARRIVAL] Mini Portable Square Wireless Bluetooth Pocket Thermal Printer Android IOS Print Labels Printer Labeller</t>
   </si>
   <si>
@@ -685,9 +625,6 @@
     <t>【SG Local Stock】Korean Cute Cartoon Mouse Pad Cute Bear Dog Waterproof Mousepad</t>
   </si>
   <si>
-    <t>[ORIGINAL] Canon PG-745S 745S / PG-745 745 / PG-745XL 745XL / CL-746S 746S / CL-746 746 / CL-746XL 746XL Ink Cartridge</t>
-  </si>
-  <si>
     <t>Permatex 22058 Lubricant Dielectric Grease Lubricating Mechanical Keyboard Stabilizers Stabs</t>
   </si>
   <si>
@@ -697,9 +634,6 @@
     <t>🍃READY STOCK🍃USB 3.0 5Gbps SuperSpeed 4 Ports USB HUB (20cm x 60cm x 120cm)</t>
   </si>
   <si>
-    <t>[ORIGINAL] Epson Ink T04E 04E / C13T04E190 Black / C13T04E290 Cyan / C13T04E390 Magenta / C13T04E490 Yellow</t>
-  </si>
-  <si>
     <t>（Ready Stock ）Wireless Mouse Bluetooth Mouse 2.4GHz Optical Rechargeable Silent Mouse for Phone/Tablet</t>
   </si>
   <si>
@@ -751,15 +685,9 @@
     <t>Akko CS/Jelly/V3 Switches Mechanical Keyboard Switch CREAM YELLOW BLUE LAVENDER JELLY PURPLE BLUE BLACK SILVER ROSE RED</t>
   </si>
   <si>
-    <t>[SG Local Seller] HDMI to VGA Premium Cable 1.8M</t>
-  </si>
-  <si>
     <t>Genesis Laptop Stand Adjustable Portable Foldable Aluminium Metal Riser Ergonomic for Notebook</t>
   </si>
   <si>
-    <t>[ORIGINAL] HP 63 / 63XL Black Tri-color Ink Cartridge</t>
-  </si>
-  <si>
     <t>Keyboard Mouse Acrylic dust cover anti dust guard cap for mechanical keyboards for NJ68 NJ80 Desktop Computer Transparent Acrylic Mouse Cover 104 Key 87 Keyboard Cover</t>
   </si>
   <si>
@@ -841,9 +769,6 @@
     <t>MOUSE PAD FOR PC LAPTOP COMPUTER ACCESORIES MOUSEPAD (BLACK)</t>
   </si>
   <si>
-    <t>[ORIGINAL] HP 65 / 65XL Black Tri-color Ink Cartridge</t>
-  </si>
-  <si>
     <t>SHIP FROM SG - Real RGB Mechanical Keyboard Changeable Switch | Gaming Keyboard | RGB Keyboard</t>
   </si>
   <si>
@@ -853,9 +778,6 @@
     <t>【SG Stock】 Ipad protective case 10.2 inches 10.9 inch ipad air 4  WITH pencil slot holder</t>
   </si>
   <si>
-    <t>[ORIGINAL] Canon PG-47 PG47 PG 47 / CL-57 CL57 CL 57 / CL-57s CL57s CL 57s Ink Cartridge</t>
-  </si>
-  <si>
     <t>Pebble M350/POP Mouse Wireless Mouse 2.4GHz Silent Slim Bluetooth Mice High Precision 1000DPI Optical Mouse</t>
   </si>
   <si>
@@ -901,9 +823,6 @@
     <t>[SG Ready Stock] 25*25cm &amp; 22*22cm Round Mousepad High Quality Double sided Waterproof Mouse Pad Leather Mouse Pad</t>
   </si>
   <si>
-    <t>[ORIGINAL] HP 965 / 965XL Black Cyan Magenta Yellow Ink Cartridge</t>
-  </si>
-  <si>
     <t>LED Strip Light SMD 5050 RGB LED Light Strip 5M 10M 20M Fairy Light Waterproof LED Tape Lights with Remote Controller for Home</t>
   </si>
   <si>
@@ -989,9 +908,6 @@
   </si>
   <si>
     <t>[SG STOCKS] Colorful Stackable Plastic Shoe Box Multiple Colour PP Plastic Foldable Easy To Keep</t>
-  </si>
-  <si>
-    <t>Premium Height Adjustable Hotel Pillows! 【1000g pillow 2pcs offer! 1200/1500g available】</t>
   </si>
   <si>
     <t>[SG Stock] Double Wall Insulated Drinking Glass Cup Coffee Tea 80ML/250ML/350ML/450ML/650ML</t>
@@ -1090,9 +1006,6 @@
 1 USB 3.0 cable</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Style : Liner Sleeve
 Origin : CN(Origin)
 Type : Laptop Sleeve
@@ -1132,40 +1045,6 @@
 We hope you can contact us if you want to open the dispute or give negative ratings.It's very important to us.
 Thank you for coming!!
 //NOTE:Please check your laptop size before buying,if you are not sure,please contact us,it's very important！！！</t>
-  </si>
-  <si>
-    <t>Welcome to my page!
-Why choose us?
-1. Global activation code / license (no need to set up any VPN during activation)
-2. Five minutes delivery via email
-3. 100% original and genuine
-4. Full of guarantee
-What you get after made payment?
-1. Download link
-2. Activation code
-3. Technical support from our service team through Shopee chat.
-Why Mcafee Livesafe?
-1. It's better and more features compare with Mcafee Antivirus, Mcafee Antivirus Plus &amp; Mcafee Internet Security
-2. One of the famous and top performance antivirus compare to other brand antivirus.
-Attention:
-1. This is online version key and NO POSTAGE will be made. I will send Activation code and installer link via EMAIL.
-2. Central account 
-**Compatible for**
-- Windows 7, 8, 8.1, 10, XP and Vista
-- Mac
-Product Features:
-- Award-Winning Antivirus
-  Cloud-based threat analysis keeps you protected without slowing you down
-- Ransomware Protection
-  McAfee Ransom Guard monitors and neutralizes Ransomware before it can take your device hostage
-- Safe Web Browsing
-  Sidestep attacks before they happen with clear warnings of risky websites, links and files
-- Performance Optimization
-  Keep your PC running like new, block auto-play videos on websites and minimize bandwidth usage
-- FREE Support
-  Get free customer support via phone, chat or online for the life of your subscription
-- Password Manager
-  Easily secure and manage your passwords with the multi-factor password manager app</t>
   </si>
   <si>
     <t>✨GTX300 LED Gaming Keyboard and Mouse Set/Mechanical Keyboard Mouse Set
@@ -1964,20 +1843,6 @@
 5.It will remember your last mode when you turn it off.</t>
   </si>
   <si>
-    <t>Item: Original HP 67 Black
-Page Yield: 120 Pages
-Item: Original HP 67 Tri-color
-Page Yield: 100 Pages
-Item: Original HP 67XL Black
-Page Yield: 240 Pages
-Item: Original HP 67XL Tri-color
-Page Yield: 200 Pages
-Item: Original HP 67XXL Black
-Page Yield: 400 Pages
-Hardware Compatibility: HP ENVY 6000 series, HP ENVY Pro 6400 series, HP Deskjet 1200 Printer, HP Deskjet 2300 All-in-One, HP DeskJet 2700 All in-One Printer, HP DeskJet Plus 4100 All in-One Printer
-** Page yield is base on 5% page coverage (ISO Standard)</t>
-  </si>
-  <si>
     <t>1 piece Keycap for mechanical keyboard
 💯% handmade
 Cross universal hole. 
@@ -2267,22 +2132,6 @@
  #bearmousepad #catmousepad #largemousepad #mousepads #mousepad #cutemousepad #mousepadmousepads #mousepadwrist #mousepadmousepads</t>
   </si>
   <si>
-    <t>Item: Original Canon PG-745S Black
-Page Yield: 100 Pages
-Item: Original Canon CL-746S Color
-Page Yield: 100 Pages
-Item: Original Canon PG-745 Black
-Page Yield: 180 Pages
-Item: Original Canon CL-746 Color
-Page Yield: 180 Pages
-Item: Original Canon PG-745XL Black
-Page Yield: 300 Pages
-Item: Original Canon CL-746XL Color
-Page Yield: 300 Pages
-Hardware Compatibility: PIXMA iP2870 / iP2872 / iP2870S / MX497 / TS207 / MG2570S / TR4570S / TS307 / MG3070S 
-** Page yield is base on 5% page coverage (ISO Standard)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Packed in a clear container, not the whole tube.
 One container is enough for multiple stabilizers/ keyboards.
 To be used on keyboard stabilizers.
@@ -2329,18 +2178,6 @@
  !  Additional power supply from 5V power adapter required for 2TB Portable Drive
  !  No power required for basic use (keyboard, mouse, speaker, usb bluetooth, printer, usb wifi, flash drive)
  !  Micro USB port only for power supply, can't use for data / detect device.</t>
-  </si>
-  <si>
-    <t>Item: Original Epson C13T04E190 Black
-Page Yield: 250 Pages
-Item: Original Epson C13T04E290 Cyan
-Page Yield: 200 Pages
-Item: Original Epson C13T04E390 Magenta
-Page Yield: 200 Pages
-Item: Original Epson C13T04E490 Yellow
-Page Yield: 200 Pages
-Hardware Compatibility: XP2101 / XP4101 / WF2851
-** Page yield is base on 5% page coverage (ISO Standard)</t>
   </si>
   <si>
     <t>Specifications:
@@ -2795,36 +2632,6 @@
 For more switches, kits, keycaps and other accessories, do check out our store and our other listings. Thank you for the support! Have a nice day 🥰</t>
   </si>
   <si>
-    <t>READY Stock!!
-Fast Shipping!! Our Assurance at BOTTLEDSG strives to Ship out to our customers quickly, being regular online shoppers ourselves, we know the anticipation in waiting for your orders!
-All Parcels shipped by us via Speedpost Economy, Our customers often receive their items within 2-3 Business Days.
-NOTE: This Cable works from HDMI Laptop/Desktop -&gt; VGA Monitor ONLY, If you require a cable from a different kind of conversion, do reach out to us for a different adapter. It does not convert ANALOG signals to DIGITAL as well.
-Product information:
-HDMI-compatible To VGA Cable Converter For HDTV PC Desktop Adapter Cable 1.8m
-Features:
-1. High definition: This supports full-size high definition resolutions of 720p and 1080P.
-2. ABS and PVC construction: This product is made of high-quality materials, exquisite workmanship, very good quality and long service life.
-3. Convenient: No external power supply is required. Powered by HDMI-compatible source.
-4. Compatible: This product is suitable for almost all HDMI-compatible input and VGA output connections.
-5. Easy installation: This product is very easy to install, no additional tools are needed, and the installation process is very convenient.
-This HDMI-compatible to VGA adapter allows connection to VGA monitors and projectors. Connect new notebooks, laptops, high definition DVD, high definition DV without VGA interface to the projector, and connect old monitors with VGA interface, LCD, TV and monitors to the old model, only for large-screen viewing.
-Specifications:
-Color: Black
-Length: 1.8m cable
-Usage: Convert HDMI-compatible to VGA video
-Material: ABS and PVC
-Support the definition: 1080P and 2160P
-Compliant with: HDMI-compatible 1.4 and 1.3 versions, HDCP
-Input resolution: 480i / 480P / 576i / 576P / 720P / 1080I / 1080P
-HDMI-compatible: Standard Type A port male
-VGA: VGA video port male
-Package Included:
-1 pc * Gold-plated Connectors, HDMI to VGA Cable 1.8 Meter
-Notes:
-1. Please allow 0-1 inch error due to manual measurement. Thanks for your understanding.
-2. Monitors are not calibrated same, item color displayed in photos may be showing slightly different from real object.</t>
-  </si>
-  <si>
     <t>🇸🇬 Local seller with ready stock
 🚚 Ship within same/next day
 💵 10% Discount for 2 or more pieces bought! (Phone case &amp; camera protectors etc are also valid)
@@ -2842,18 +2649,6 @@
 ABS Pro, White
 ✉️ Do not hesitate to drop us a message if you have any queries!
 #supportlocal</t>
-  </si>
-  <si>
-    <t>Item: Original HP 63 Black
-Page Yield: 190 Pages
-Item: Original HP 63 Tri-color
-Page Yield: 165 Pages
-Item: Original HP 63XL Black
-Page Yield: 480 Pages
-Item: Original HP 63XL Tri-color
-Page Yield: 330 Pages
-Hardware Compatibility: HP OfficeJet 3830 / 4650/ 5220 Deskjet 1110 / 1112 / 2130 / 2131 / 2132 / 3630 / 3632 / Envy 4520 / 4522
-** Page yield is base on 5% page coverage (ISO Standard)</t>
   </si>
   <si>
     <t xml:space="preserve">Last Modified Feb 26:
@@ -3502,18 +3297,6 @@
  Easy cleaning and maintenance</t>
   </si>
   <si>
-    <t>Item: Original HP 65 Black
-Page Yield: 120 Pages
-Item: Original HP 65 Tri-color
-Page Yield: 100 Pages
-Item: Original HP 65XL Black
-Page Yield: 300 Pages
-Item: Original HP 65XL Tri-color
-Page Yield: 300 Pages
-Hardware Compatibility: HP DeskJet 2220 / 2255 / 3720 / 3721 / 3723 / 3755 All-in-One Printer / ENVY 5020
-** Page yield is base on 5% page coverage (ISO Standard)</t>
-  </si>
-  <si>
     <t xml:space="preserve">【Finally! A Real RGB Mechanical Keyboard in Singapore That Is Not Expensive!】
 THE BLUE SWITCHES - 12 Months Warranty
 What I like about the blue switches - seriously the "clickity clack" sound is nothing short of mesmerizing and near therapeutic THERAPEUTIC. I am not joking! When i got it, I have an unexplained urge to keep typing, the sound and feel is just so comfortable. 😊😊😊
@@ -3629,16 +3412,6 @@
 #ipad2021 #ipad9   #ipad2  #mini   #ipad air4  air3  #air3 pro</t>
   </si>
   <si>
-    <t>Item: Original Canon PG-47 Black
-Page Yield: 400 Pages
-Item: Original Canon CL-57 Colour
-Page Yield: 300 Pages
-Item: Original Canon CL-57s Colour
-Page Yield: 180 Pages
-Hardware Compatibility: PIXMA E400 / E460 / E477 / E480 / E3170 / E410 / E3370 / E4270 / E470 
-** Page yield is based on 5% page coverage (ISO Standard)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description：
 POP/M350 Mouse Wireless Mouse
 SystemRequirements：
@@ -3996,18 +3769,6 @@
 Soft and wearable, more comfortable for office and home time.
 Anti-scratches and spills.
 Double-sided colour design, two-sided universal, allows you to choose the style that best suits you.</t>
-  </si>
-  <si>
-    <t>Item: Original HP 965 Black
-Page Yield: 1000 Pages
-Item: Original HP 965 Cyan, Magenta &amp; Yellow
-Page Yield: 700 Pages
-Item: Original HP 965XL Black
-Page Yield: 2000 Pages
-Item: Original HP 965XL Cyan, Magenta &amp; Yellow
-Page Yield: 1600 Pages
-Hardware Compatibility: 9010, 9012, 9016, 9018, 9019, 9020, 9026, 9028
-** Page yield is base on 5% page coverage (ISO Standard)</t>
   </si>
   <si>
     <t>Specification:
@@ -5042,24 +4803,15 @@
     <t>https://cf.shopee.sg/file/sg-11134201-23010-53ufgwh21nmv88</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/df323213e5f98d0a8b72e6c888ec0523</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/b1facd61d01c3e4c6315d55e22161628</t>
   </si>
   <si>
     <t>https://cf.shopee.sg/file/5ce71e7e37315ba732389b9598af240d</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22120-99ubk2rb9elvc2</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/af376f561f68dbec0d63e7f34bfcdebd</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/a5c52a50e2069ac4a24e2410f55d6adf</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/d616dd8aadd3b9eb99e4d5d6a0cdbe4e</t>
   </si>
   <si>
@@ -5111,9 +4863,6 @@
     <t>https://cf.shopee.sg/file/4387b574f3906b2f6ccf721caf30213a</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/f078581a468a1b8bde8dcf21a5647a9e</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/sg-11134201-22100-affu0desm5iv70</t>
   </si>
   <si>
@@ -5141,18 +4890,12 @@
     <t>https://cf.shopee.sg/file/8765dade4c977df3cf1b3e3a9c4a7be7</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22120-xstjxr1rnalv0b</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/dde14a67cec083999cd0eba6c84cf7a8</t>
   </si>
   <si>
     <t>https://cf.shopee.sg/file/5c51c42e2106d859edec4405962db271</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22110-zlk24txhgojv9d</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/c89176c61f6e90e45d94ebd22770bcaf</t>
   </si>
   <si>
@@ -5177,9 +4920,6 @@
     <t>https://cf.shopee.sg/file/6ddf03c836fa863710628f38d331edb2</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/5c1527d972ddea07697738c7f1048128</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/d6fed9fe635e3dfb2d966b51c6cb5e64</t>
   </si>
   <si>
@@ -5189,9 +4929,6 @@
     <t>https://cf.shopee.sg/file/89f22784b34a1d5feccbbc93b5891cd5</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/aadbf9b073a238b1ab92386103142b35</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/25884913b39408a457ed0cd9c9067560</t>
   </si>
   <si>
@@ -5243,15 +4980,9 @@
     <t>https://cf.shopee.sg/file/e70ff0263b237df062dd8421447e9048</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/666bda08b1c043e1fef2c3a1295925c1</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/fcdd9fb37bdf2049b1892913986cf3f5</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22120-k7ml3jfrnalv13</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/7460ff5fac1235b736d835bb50661e9b</t>
   </si>
   <si>
@@ -5333,9 +5064,6 @@
     <t>https://cf.shopee.sg/file/7c6024d12b44dbb754f530481e34474a</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22120-hg0e27mrnalva4</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/a05810a1ecf19ef2be828b6916f9a55f</t>
   </si>
   <si>
@@ -5345,9 +5073,6 @@
     <t>https://cf.shopee.sg/file/af8858ca469c68a0d79ac7d7355d923c</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/c16eb84749f071f76289a4ee19916939</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/sg-11134201-22120-xy8cxchpa6kvdb</t>
   </si>
   <si>
@@ -5393,9 +5118,6 @@
     <t>https://cf.shopee.sg/file/6fd9a431146506ea4bfe7acd662b9793</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/sg-11134201-22120-zo3jsd8tnalvb4</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/42230fdec83886d383b3d51c09e4c951</t>
   </si>
   <si>
@@ -5483,9 +5205,6 @@
     <t>https://cf.shopee.sg/file/6d040edb1da4fd2515d2acad2b0d9b39</t>
   </si>
   <si>
-    <t>https://cf.shopee.sg/file/f83e236cadeff5fd665f005c44149e31</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/eebe18fc8b48375080cd8f5aa8c6a243</t>
   </si>
   <si>
@@ -5531,51 +5250,51 @@
     <t>Hard Drives</t>
   </si>
   <si>
+    <t>Laptop Bags &amp; Cases</t>
+  </si>
+  <si>
+    <t>Mice</t>
+  </si>
+  <si>
+    <t>USB Hubs &amp; Card Readers</t>
+  </si>
+  <si>
+    <t>Laptop Backpacks</t>
+  </si>
+  <si>
     <t>Thermal &amp; Barcode Printers</t>
   </si>
   <si>
-    <t>Laptop Bags &amp; Cases</t>
-  </si>
-  <si>
-    <t>Mice</t>
-  </si>
-  <si>
-    <t>USB Hubs &amp; Card Readers</t>
+    <t>Cooling Pads</t>
+  </si>
+  <si>
+    <t>Power Supply Units</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Mouse Pads</t>
+  </si>
+  <si>
+    <t>Hard Disk Casings &amp; Dockings</t>
+  </si>
+  <si>
+    <t>Modems &amp; Wireless Routers</t>
   </si>
   <si>
     <t>Softwares</t>
   </si>
   <si>
-    <t>Laptop Backpacks</t>
-  </si>
-  <si>
-    <t>Cooling Pads</t>
-  </si>
-  <si>
-    <t>Power Supply Units</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Mouse Pads</t>
+    <t>Wireless Adapters &amp; Network Cards</t>
+  </si>
+  <si>
+    <t>Laptop Chargers &amp; Adaptors</t>
   </si>
   <si>
     <t>Inks &amp; Toners</t>
   </si>
   <si>
-    <t>Hard Disk Casings &amp; Dockings</t>
-  </si>
-  <si>
-    <t>Modems &amp; Wireless Routers</t>
-  </si>
-  <si>
-    <t>Wireless Adapters &amp; Network Cards</t>
-  </si>
-  <si>
-    <t>Laptop Chargers &amp; Adaptors</t>
-  </si>
-  <si>
     <t>Laptop Stands &amp; Foldable Laptop Desks</t>
   </si>
   <si>
@@ -5670,9 +5389,6 @@
   </si>
   <si>
     <t>Shoe Storage Boxes</t>
-  </si>
-  <si>
-    <t>Pillows</t>
   </si>
   <si>
     <t>Cups, Mugs &amp; Glasses</t>
@@ -6061,7 +5777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6119,7 +5835,7 @@
         <v>16556809203</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>29.81</v>
@@ -6131,19 +5847,19 @@
         <v>48.74</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="I2">
         <v>4.38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="K2">
         <v>823</v>
       </c>
       <c r="L2" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="M2">
         <v>457</v>
@@ -6160,7 +5876,7 @@
         <v>13698127662</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>14.73</v>
@@ -6172,19 +5888,19 @@
         <v>44.19</v>
       </c>
       <c r="H3" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="I3">
         <v>4.6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="K3">
         <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="M3">
         <v>18</v>
@@ -6195,40 +5911,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>189053145</v>
+        <v>162297388</v>
       </c>
       <c r="C4">
-        <v>8731434283</v>
+        <v>16148196943</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E4">
-        <v>6.14</v>
+        <v>6.46</v>
       </c>
       <c r="F4">
-        <v>27.16</v>
+        <v>21.79</v>
       </c>
       <c r="G4">
-        <v>16.65</v>
+        <v>14.13</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="I4">
-        <v>2.66</v>
+        <v>4.25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="K4">
-        <v>5293</v>
+        <v>1436</v>
       </c>
       <c r="L4" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="M4">
-        <v>558</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6236,40 +5952,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>162297388</v>
+        <v>471742988</v>
       </c>
       <c r="C5">
-        <v>16148196943</v>
+        <v>10449251562</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E5">
-        <v>6.46</v>
+        <v>20.71</v>
       </c>
       <c r="F5">
-        <v>21.79</v>
+        <v>20.71</v>
       </c>
       <c r="G5">
-        <v>14.13</v>
+        <v>20.71</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="I5">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="K5">
-        <v>1436</v>
+        <v>1350</v>
       </c>
       <c r="L5" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="M5">
-        <v>202</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6277,40 +5993,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>471742988</v>
+        <v>285719570</v>
       </c>
       <c r="C6">
-        <v>10449251562</v>
+        <v>20121722507</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E6">
-        <v>20.71</v>
+        <v>5.19</v>
       </c>
       <c r="F6">
-        <v>20.71</v>
+        <v>6.17</v>
       </c>
       <c r="G6">
-        <v>20.71</v>
+        <v>5.68</v>
       </c>
       <c r="H6" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>3.32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="K6">
-        <v>1350</v>
+        <v>154</v>
       </c>
       <c r="L6" t="s">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="M6">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6318,40 +6034,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>883743929</v>
+        <v>223946658</v>
       </c>
       <c r="C7">
-        <v>23213676583</v>
+        <v>11315955990</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E7">
-        <v>5.18</v>
+        <v>13.63</v>
       </c>
       <c r="F7">
-        <v>5.18</v>
+        <v>46.72</v>
       </c>
       <c r="G7">
-        <v>5.18</v>
+        <v>30.18</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="I7">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="K7">
-        <v>216</v>
+        <v>4122</v>
       </c>
       <c r="L7" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6359,40 +6075,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>285719570</v>
+        <v>549921474</v>
       </c>
       <c r="C8">
-        <v>20121722507</v>
+        <v>14447403371</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E8">
-        <v>5.19</v>
+        <v>2.11</v>
       </c>
       <c r="F8">
-        <v>6.17</v>
+        <v>2.11</v>
       </c>
       <c r="G8">
-        <v>5.68</v>
+        <v>2.11</v>
       </c>
       <c r="H8" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="I8">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="K8">
-        <v>154</v>
+        <v>1070</v>
       </c>
       <c r="L8" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6400,40 +6116,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>217781738</v>
+        <v>659092716</v>
       </c>
       <c r="C9">
-        <v>6657733363</v>
+        <v>20715716730</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E9">
-        <v>14.37</v>
+        <v>36.14</v>
       </c>
       <c r="F9">
-        <v>36.66</v>
+        <v>39.28</v>
       </c>
       <c r="G9">
-        <v>25.52</v>
+        <v>37.71</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="I9">
-        <v>3.68</v>
+        <v>3.15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="K9">
-        <v>1791</v>
+        <v>558</v>
       </c>
       <c r="L9" t="s">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="M9">
-        <v>468</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6441,40 +6157,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>223946658</v>
+        <v>271813511</v>
       </c>
       <c r="C10">
-        <v>11315955990</v>
+        <v>6967504523</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E10">
-        <v>13.63</v>
+        <v>20.47</v>
       </c>
       <c r="F10">
-        <v>46.72</v>
+        <v>134.83</v>
       </c>
       <c r="G10">
-        <v>30.18</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="I10">
-        <v>2.86</v>
+        <v>3.68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="K10">
-        <v>4122</v>
+        <v>3755</v>
       </c>
       <c r="L10" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
       <c r="M10">
-        <v>919</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6482,40 +6198,40 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>549921474</v>
+        <v>807587892</v>
       </c>
       <c r="C11">
-        <v>14447403371</v>
+        <v>20147103165</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E11">
-        <v>2.11</v>
+        <v>4.43</v>
       </c>
       <c r="F11">
-        <v>2.11</v>
+        <v>22.49</v>
       </c>
       <c r="G11">
-        <v>2.11</v>
+        <v>13.46</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="I11">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="K11">
-        <v>1070</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="M11">
-        <v>238</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6523,40 +6239,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>659092716</v>
+        <v>401297909</v>
       </c>
       <c r="C12">
-        <v>20715716730</v>
+        <v>19315708456</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E12">
-        <v>36.14</v>
+        <v>4.38</v>
       </c>
       <c r="F12">
-        <v>39.28</v>
+        <v>24.01</v>
       </c>
       <c r="G12">
-        <v>37.71</v>
+        <v>14.19</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="I12">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="K12">
-        <v>558</v>
+        <v>798</v>
       </c>
       <c r="L12" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6564,40 +6280,40 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>271813511</v>
+        <v>594893584</v>
       </c>
       <c r="C13">
-        <v>6967504523</v>
+        <v>18443701183</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E13">
-        <v>20.47</v>
+        <v>47.84</v>
       </c>
       <c r="F13">
-        <v>134.83</v>
+        <v>79.73</v>
       </c>
       <c r="G13">
-        <v>77.65000000000001</v>
+        <v>63.79</v>
       </c>
       <c r="H13" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="I13">
-        <v>3.68</v>
+        <v>3.04</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="K13">
-        <v>3755</v>
+        <v>735</v>
       </c>
       <c r="L13" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="M13">
-        <v>619</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6605,40 +6321,40 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>807587892</v>
+        <v>131332496</v>
       </c>
       <c r="C14">
-        <v>20147103165</v>
+        <v>7115370896</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E14">
-        <v>4.43</v>
+        <v>47.64</v>
       </c>
       <c r="F14">
-        <v>22.49</v>
+        <v>311.64</v>
       </c>
       <c r="G14">
-        <v>13.46</v>
+        <v>179.64</v>
       </c>
       <c r="H14" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="I14">
-        <v>2.68</v>
+        <v>4.07</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="K14">
-        <v>193</v>
+        <v>9914</v>
       </c>
       <c r="L14" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6646,40 +6362,40 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>401297909</v>
+        <v>26913943</v>
       </c>
       <c r="C15">
-        <v>19315708456</v>
+        <v>16378377822</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E15">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="F15">
-        <v>24.01</v>
+        <v>15.86</v>
       </c>
       <c r="G15">
-        <v>14.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="I15">
-        <v>3.37</v>
+        <v>2.72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="K15">
-        <v>798</v>
+        <v>465</v>
       </c>
       <c r="L15" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="M15">
-        <v>223</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6687,40 +6403,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>594893584</v>
+        <v>345334570</v>
       </c>
       <c r="C16">
-        <v>18443701183</v>
+        <v>9802184451</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E16">
-        <v>47.84</v>
+        <v>2.37</v>
       </c>
       <c r="F16">
-        <v>79.73</v>
+        <v>4.16</v>
       </c>
       <c r="G16">
-        <v>63.79</v>
+        <v>3.27</v>
       </c>
       <c r="H16" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="I16">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="K16">
-        <v>735</v>
+        <v>4357</v>
       </c>
       <c r="L16" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="M16">
-        <v>295</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6728,40 +6444,40 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>131332496</v>
+        <v>223946658</v>
       </c>
       <c r="C17">
-        <v>7115370896</v>
+        <v>10152719600</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E17">
-        <v>47.64</v>
+        <v>24.75</v>
       </c>
       <c r="F17">
-        <v>311.64</v>
+        <v>24.75</v>
       </c>
       <c r="G17">
-        <v>179.64</v>
+        <v>24.75</v>
       </c>
       <c r="H17" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="I17">
-        <v>4.07</v>
+        <v>3.51</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="K17">
-        <v>9914</v>
+        <v>985</v>
       </c>
       <c r="L17" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
       <c r="M17">
-        <v>1845</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6769,40 +6485,40 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>26913943</v>
+        <v>341987306</v>
       </c>
       <c r="C18">
-        <v>16378377822</v>
+        <v>9762712988</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E18">
-        <v>3.55</v>
+        <v>18.88</v>
       </c>
       <c r="F18">
-        <v>15.86</v>
+        <v>24.27</v>
       </c>
       <c r="G18">
-        <v>9.710000000000001</v>
+        <v>21.57</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="I18">
-        <v>2.72</v>
+        <v>3.72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="K18">
-        <v>465</v>
+        <v>1615</v>
       </c>
       <c r="L18" t="s">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6810,40 +6526,40 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>345334570</v>
+        <v>51134277</v>
       </c>
       <c r="C19">
-        <v>9802184451</v>
+        <v>22307684396</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E19">
-        <v>2.37</v>
+        <v>4.83</v>
       </c>
       <c r="F19">
-        <v>4.16</v>
+        <v>9.27</v>
       </c>
       <c r="G19">
-        <v>3.27</v>
+        <v>7.05</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="I19">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="K19">
-        <v>4357</v>
+        <v>274</v>
       </c>
       <c r="L19" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="M19">
-        <v>447</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -6851,40 +6567,40 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>223946658</v>
+        <v>131332496</v>
       </c>
       <c r="C20">
-        <v>10152719600</v>
+        <v>4751627578</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E20">
-        <v>24.75</v>
+        <v>52.55</v>
       </c>
       <c r="F20">
-        <v>24.75</v>
+        <v>321.44</v>
       </c>
       <c r="G20">
-        <v>24.75</v>
+        <v>186.99</v>
       </c>
       <c r="H20" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="I20">
-        <v>3.51</v>
+        <v>3.29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="K20">
-        <v>985</v>
+        <v>3756</v>
       </c>
       <c r="L20" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="M20">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6892,40 +6608,40 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>341987306</v>
+        <v>223946658</v>
       </c>
       <c r="C21">
-        <v>9762712988</v>
+        <v>12216530963</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E21">
-        <v>18.88</v>
+        <v>23.49</v>
       </c>
       <c r="F21">
-        <v>24.27</v>
+        <v>46.15</v>
       </c>
       <c r="G21">
-        <v>21.57</v>
+        <v>34.82</v>
       </c>
       <c r="H21" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="I21">
-        <v>3.72</v>
+        <v>2.86</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="K21">
-        <v>1615</v>
+        <v>1245</v>
       </c>
       <c r="L21" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="M21">
-        <v>488</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6933,40 +6649,40 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>51134277</v>
+        <v>199314921</v>
       </c>
       <c r="C22">
-        <v>22307684396</v>
+        <v>5052802905</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E22">
-        <v>4.83</v>
+        <v>7.1</v>
       </c>
       <c r="F22">
-        <v>9.27</v>
+        <v>11.43</v>
       </c>
       <c r="G22">
-        <v>7.05</v>
+        <v>9.26</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="I22">
-        <v>2.62</v>
+        <v>4.48</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="K22">
-        <v>274</v>
+        <v>1133</v>
       </c>
       <c r="L22" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6974,40 +6690,40 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>131332496</v>
+        <v>549252859</v>
       </c>
       <c r="C23">
-        <v>4751627578</v>
+        <v>10284605700</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E23">
-        <v>52.55</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F23">
-        <v>321.44</v>
+        <v>15.87</v>
       </c>
       <c r="G23">
-        <v>186.99</v>
+        <v>12.5</v>
       </c>
       <c r="H23" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="I23">
-        <v>3.29</v>
+        <v>4.37</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="K23">
-        <v>3756</v>
+        <v>816</v>
       </c>
       <c r="L23" t="s">
-        <v>663</v>
+        <v>609</v>
       </c>
       <c r="M23">
-        <v>496</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7015,40 +6731,40 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>223946658</v>
+        <v>51134277</v>
       </c>
       <c r="C24">
-        <v>12216530963</v>
+        <v>8888120988</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E24">
-        <v>23.49</v>
+        <v>6.65</v>
       </c>
       <c r="F24">
-        <v>46.15</v>
+        <v>6.65</v>
       </c>
       <c r="G24">
-        <v>34.82</v>
+        <v>6.65</v>
       </c>
       <c r="H24" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="I24">
-        <v>2.86</v>
+        <v>4.83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="K24">
-        <v>1245</v>
+        <v>1597</v>
       </c>
       <c r="L24" t="s">
-        <v>669</v>
+        <v>613</v>
       </c>
       <c r="M24">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7056,40 +6772,40 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>199314921</v>
+        <v>223946658</v>
       </c>
       <c r="C25">
-        <v>5052802905</v>
+        <v>11052640563</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E25">
-        <v>7.1</v>
+        <v>25.46</v>
       </c>
       <c r="F25">
-        <v>11.43</v>
+        <v>49.39</v>
       </c>
       <c r="G25">
-        <v>9.26</v>
+        <v>37.43</v>
       </c>
       <c r="H25" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="I25">
-        <v>4.48</v>
+        <v>3.24</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="K25">
-        <v>1133</v>
+        <v>2256</v>
       </c>
       <c r="L25" t="s">
-        <v>670</v>
+        <v>614</v>
       </c>
       <c r="M25">
-        <v>1320</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7097,40 +6813,40 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>549252859</v>
+        <v>520130789</v>
       </c>
       <c r="C26">
-        <v>10284605700</v>
+        <v>15306817355</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E26">
-        <v>9.119999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="F26">
-        <v>15.87</v>
+        <v>48.92</v>
       </c>
       <c r="G26">
-        <v>12.5</v>
+        <v>34.28</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="I26">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="K26">
-        <v>816</v>
+        <v>4130</v>
       </c>
       <c r="L26" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="M26">
-        <v>116</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7138,37 +6854,37 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>189053145</v>
+        <v>631898723</v>
       </c>
       <c r="C27">
-        <v>17269074660</v>
+        <v>17057310419</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E27">
-        <v>18.7</v>
+        <v>24.93</v>
       </c>
       <c r="F27">
-        <v>35.16</v>
+        <v>141.29</v>
       </c>
       <c r="G27">
-        <v>26.93</v>
+        <v>83.11</v>
       </c>
       <c r="H27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I27">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="K27">
-        <v>1487</v>
+        <v>614</v>
       </c>
       <c r="L27" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="M27">
         <v>99</v>
@@ -7179,40 +6895,40 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>51134277</v>
+        <v>289707458</v>
       </c>
       <c r="C28">
-        <v>8888120988</v>
+        <v>20245897604</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E28">
-        <v>6.65</v>
+        <v>7.56</v>
       </c>
       <c r="F28">
-        <v>6.65</v>
+        <v>7.9</v>
       </c>
       <c r="G28">
-        <v>6.65</v>
+        <v>7.73</v>
       </c>
       <c r="H28" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="I28">
-        <v>4.83</v>
+        <v>3.06</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="K28">
-        <v>1597</v>
+        <v>365</v>
       </c>
       <c r="L28" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="M28">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7220,40 +6936,40 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>223946658</v>
+        <v>28090800</v>
       </c>
       <c r="C29">
-        <v>11052640563</v>
+        <v>19024915704</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E29">
-        <v>25.46</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F29">
-        <v>49.39</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G29">
-        <v>37.43</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="I29">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="K29">
-        <v>2256</v>
+        <v>370</v>
       </c>
       <c r="L29" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="M29">
-        <v>536</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7261,40 +6977,40 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>520130789</v>
+        <v>51134277</v>
       </c>
       <c r="C30">
-        <v>15306817355</v>
+        <v>22905043757</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E30">
-        <v>19.63</v>
+        <v>6.03</v>
       </c>
       <c r="F30">
-        <v>48.92</v>
+        <v>6.03</v>
       </c>
       <c r="G30">
-        <v>34.28</v>
+        <v>6.03</v>
       </c>
       <c r="H30" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="I30">
-        <v>4.38</v>
+        <v>3.4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="K30">
-        <v>4130</v>
+        <v>396</v>
       </c>
       <c r="L30" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="M30">
-        <v>785</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7302,40 +7018,40 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>631898723</v>
+        <v>341987306</v>
       </c>
       <c r="C31">
-        <v>17057310419</v>
+        <v>11408710090</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E31">
-        <v>24.93</v>
+        <v>12.75</v>
       </c>
       <c r="F31">
-        <v>141.29</v>
+        <v>16.39</v>
       </c>
       <c r="G31">
-        <v>83.11</v>
+        <v>14.57</v>
       </c>
       <c r="H31" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="I31">
-        <v>4.22</v>
+        <v>4.34</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="K31">
-        <v>614</v>
+        <v>2682</v>
       </c>
       <c r="L31" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="M31">
-        <v>99</v>
+        <v>940</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7343,40 +7059,40 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>289707458</v>
+        <v>223946658</v>
       </c>
       <c r="C32">
-        <v>20245897604</v>
+        <v>4493125778</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E32">
-        <v>7.56</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F32">
-        <v>7.9</v>
+        <v>16.94</v>
       </c>
       <c r="G32">
-        <v>7.73</v>
+        <v>12.65</v>
       </c>
       <c r="H32" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="I32">
-        <v>3.06</v>
+        <v>3.82</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="K32">
-        <v>365</v>
+        <v>3451</v>
       </c>
       <c r="L32" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7384,40 +7100,40 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>28090800</v>
+        <v>237211081</v>
       </c>
       <c r="C33">
-        <v>19024915704</v>
+        <v>18202504405</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E33">
-        <v>8.390000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="F33">
-        <v>8.390000000000001</v>
+        <v>15.11</v>
       </c>
       <c r="G33">
-        <v>8.390000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="H33" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="I33">
-        <v>3.23</v>
+        <v>2.98</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="K33">
-        <v>370</v>
+        <v>3586</v>
       </c>
       <c r="L33" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>790</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7425,40 +7141,40 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>51134277</v>
+        <v>46769394</v>
       </c>
       <c r="C34">
-        <v>22905043757</v>
+        <v>3570238977</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E34">
-        <v>6.03</v>
+        <v>10.61</v>
       </c>
       <c r="F34">
-        <v>6.03</v>
+        <v>10.61</v>
       </c>
       <c r="G34">
-        <v>6.03</v>
+        <v>10.61</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="I34">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="K34">
-        <v>396</v>
+        <v>1704</v>
       </c>
       <c r="L34" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="M34">
-        <v>84</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7466,40 +7182,40 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>341987306</v>
+        <v>21596473</v>
       </c>
       <c r="C35">
-        <v>11408710090</v>
+        <v>17285934126</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E35">
-        <v>12.75</v>
+        <v>4.41</v>
       </c>
       <c r="F35">
-        <v>16.39</v>
+        <v>19.79</v>
       </c>
       <c r="G35">
-        <v>14.57</v>
+        <v>12.1</v>
       </c>
       <c r="H35" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="I35">
-        <v>4.34</v>
+        <v>3.36</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="K35">
-        <v>2682</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="M35">
-        <v>940</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7507,40 +7223,40 @@
         <v>47</v>
       </c>
       <c r="B36">
-        <v>223946658</v>
+        <v>51134277</v>
       </c>
       <c r="C36">
-        <v>4493125778</v>
+        <v>19562324507</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E36">
-        <v>8.359999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="F36">
-        <v>16.94</v>
+        <v>11.42</v>
       </c>
       <c r="G36">
-        <v>12.65</v>
+        <v>11.22</v>
       </c>
       <c r="H36" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="I36">
-        <v>3.82</v>
+        <v>4.22</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="K36">
-        <v>3451</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
       <c r="M36">
-        <v>472</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -7548,40 +7264,40 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>301789278</v>
+        <v>127826146</v>
       </c>
       <c r="C37">
-        <v>5768068944</v>
+        <v>19364755590</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E37">
-        <v>39.12</v>
+        <v>39.01</v>
       </c>
       <c r="F37">
-        <v>101.64</v>
+        <v>39.01</v>
       </c>
       <c r="G37">
-        <v>70.38</v>
+        <v>39.01</v>
       </c>
       <c r="H37" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="I37">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="K37">
-        <v>5923</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="M37">
-        <v>977</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -7589,40 +7305,40 @@
         <v>49</v>
       </c>
       <c r="B38">
-        <v>237211081</v>
+        <v>54615708</v>
       </c>
       <c r="C38">
-        <v>18202504405</v>
+        <v>4989165482</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E38">
-        <v>5.21</v>
+        <v>3.31</v>
       </c>
       <c r="F38">
-        <v>15.11</v>
+        <v>3.31</v>
       </c>
       <c r="G38">
-        <v>10.16</v>
+        <v>3.31</v>
       </c>
       <c r="H38" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="I38">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="K38">
-        <v>3586</v>
+        <v>4372</v>
       </c>
       <c r="L38" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="M38">
-        <v>790</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -7630,40 +7346,40 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>46769394</v>
+        <v>71443621</v>
       </c>
       <c r="C39">
-        <v>3570238977</v>
+        <v>3179868886</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E39">
-        <v>10.61</v>
+        <v>8.81</v>
       </c>
       <c r="F39">
-        <v>10.61</v>
+        <v>56.02</v>
       </c>
       <c r="G39">
-        <v>10.61</v>
+        <v>32.42</v>
       </c>
       <c r="H39" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="I39">
-        <v>3.34</v>
+        <v>4.23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="K39">
-        <v>1704</v>
+        <v>24304</v>
       </c>
       <c r="L39" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="M39">
-        <v>378</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -7671,40 +7387,40 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>703107608</v>
+        <v>26913943</v>
       </c>
       <c r="C40">
-        <v>21961174478</v>
+        <v>3955904272</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E40">
-        <v>5.39</v>
+        <v>4.72</v>
       </c>
       <c r="F40">
-        <v>5.39</v>
+        <v>14.98</v>
       </c>
       <c r="G40">
-        <v>5.39</v>
+        <v>9.85</v>
       </c>
       <c r="H40" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I40">
-        <v>4.22</v>
+        <v>3.23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="K40">
-        <v>137</v>
+        <v>4531</v>
       </c>
       <c r="L40" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -7712,40 +7428,40 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>21596473</v>
+        <v>218198564</v>
       </c>
       <c r="C41">
-        <v>17285934126</v>
+        <v>5483918703</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E41">
-        <v>4.41</v>
+        <v>26.31</v>
       </c>
       <c r="F41">
-        <v>19.79</v>
+        <v>61.62</v>
       </c>
       <c r="G41">
-        <v>12.1</v>
+        <v>43.96</v>
       </c>
       <c r="H41" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="I41">
-        <v>3.36</v>
+        <v>3.02</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="K41">
-        <v>271</v>
+        <v>1701</v>
       </c>
       <c r="L41" t="s">
-        <v>663</v>
+        <v>622</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -7753,40 +7469,40 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>51134277</v>
+        <v>320070742</v>
       </c>
       <c r="C42">
-        <v>19562324507</v>
+        <v>5766743646</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E42">
-        <v>11.02</v>
+        <v>4.19</v>
       </c>
       <c r="F42">
-        <v>11.42</v>
+        <v>4.19</v>
       </c>
       <c r="G42">
-        <v>11.22</v>
+        <v>4.19</v>
       </c>
       <c r="H42" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="I42">
-        <v>4.22</v>
+        <v>4.62</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="K42">
-        <v>330</v>
+        <v>1310</v>
       </c>
       <c r="L42" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -7794,40 +7510,40 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>127826146</v>
+        <v>135527190</v>
       </c>
       <c r="C43">
-        <v>19364755590</v>
+        <v>6251168665</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E43">
-        <v>39.01</v>
+        <v>5.71</v>
       </c>
       <c r="F43">
-        <v>39.01</v>
+        <v>5.71</v>
       </c>
       <c r="G43">
-        <v>39.01</v>
+        <v>5.71</v>
       </c>
       <c r="H43" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="I43">
-        <v>2.85</v>
+        <v>4.14</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="K43">
-        <v>109</v>
+        <v>2311</v>
       </c>
       <c r="L43" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -7835,40 +7551,40 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>54615708</v>
+        <v>182541768</v>
       </c>
       <c r="C44">
-        <v>4989165482</v>
+        <v>4808929520</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E44">
-        <v>3.31</v>
+        <v>2.41</v>
       </c>
       <c r="F44">
-        <v>3.31</v>
+        <v>5.8</v>
       </c>
       <c r="G44">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="H44" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="I44">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="K44">
-        <v>4372</v>
+        <v>9803</v>
       </c>
       <c r="L44" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="M44">
-        <v>629</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -7876,40 +7592,40 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>71443621</v>
+        <v>489184415</v>
       </c>
       <c r="C45">
-        <v>3179868886</v>
+        <v>9182118098</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E45">
-        <v>8.81</v>
+        <v>2.13</v>
       </c>
       <c r="F45">
-        <v>56.02</v>
+        <v>14.91</v>
       </c>
       <c r="G45">
-        <v>32.42</v>
+        <v>8.52</v>
       </c>
       <c r="H45" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="I45">
-        <v>4.23</v>
+        <v>3.15</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="K45">
-        <v>24304</v>
+        <v>3708</v>
       </c>
       <c r="L45" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="M45">
-        <v>1937</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -7917,40 +7633,40 @@
         <v>57</v>
       </c>
       <c r="B46">
-        <v>26913943</v>
+        <v>51134277</v>
       </c>
       <c r="C46">
-        <v>3955904272</v>
+        <v>21545578387</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E46">
-        <v>4.72</v>
+        <v>3.24</v>
       </c>
       <c r="F46">
-        <v>14.98</v>
+        <v>7.73</v>
       </c>
       <c r="G46">
-        <v>9.85</v>
+        <v>5.49</v>
       </c>
       <c r="H46" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="I46">
-        <v>3.23</v>
+        <v>4.3</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="K46">
-        <v>4531</v>
+        <v>489</v>
       </c>
       <c r="L46" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="M46">
-        <v>1014</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -7958,40 +7674,40 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>218198564</v>
+        <v>268028767</v>
       </c>
       <c r="C47">
-        <v>5483918703</v>
+        <v>21514740859</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E47">
-        <v>26.31</v>
+        <v>14.93</v>
       </c>
       <c r="F47">
-        <v>61.62</v>
+        <v>14.93</v>
       </c>
       <c r="G47">
-        <v>43.96</v>
+        <v>14.93</v>
       </c>
       <c r="H47" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="I47">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="K47">
-        <v>1701</v>
+        <v>452</v>
       </c>
       <c r="L47" t="s">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="M47">
-        <v>419</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -7999,40 +7715,40 @@
         <v>59</v>
       </c>
       <c r="B48">
-        <v>320070742</v>
+        <v>628365983</v>
       </c>
       <c r="C48">
-        <v>5766743646</v>
+        <v>14221606651</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E48">
-        <v>4.19</v>
+        <v>11.71</v>
       </c>
       <c r="F48">
-        <v>4.19</v>
+        <v>20.99</v>
       </c>
       <c r="G48">
-        <v>4.19</v>
+        <v>16.35</v>
       </c>
       <c r="H48" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="I48">
-        <v>4.62</v>
+        <v>4.86</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="K48">
-        <v>1310</v>
+        <v>1366</v>
       </c>
       <c r="L48" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="M48">
-        <v>319</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8040,40 +7756,40 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <v>301789278</v>
+        <v>484374948</v>
       </c>
       <c r="C49">
-        <v>5151248061</v>
+        <v>11017334319</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E49">
-        <v>26.51</v>
+        <v>7.09</v>
       </c>
       <c r="F49">
-        <v>86.25</v>
+        <v>13.2</v>
       </c>
       <c r="G49">
-        <v>56.38</v>
+        <v>10.14</v>
       </c>
       <c r="H49" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="I49">
-        <v>3.77</v>
+        <v>4.63</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="K49">
-        <v>9006</v>
+        <v>5172</v>
       </c>
       <c r="L49" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="M49">
-        <v>1266</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8081,40 +7797,40 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>135527190</v>
+        <v>223946658</v>
       </c>
       <c r="C50">
-        <v>6251168665</v>
+        <v>9075274421</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E50">
-        <v>5.71</v>
+        <v>29.72</v>
       </c>
       <c r="F50">
-        <v>5.71</v>
+        <v>31.8</v>
       </c>
       <c r="G50">
-        <v>5.71</v>
+        <v>30.76</v>
       </c>
       <c r="H50" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="I50">
-        <v>4.14</v>
+        <v>4.85</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="K50">
-        <v>2311</v>
+        <v>3520</v>
       </c>
       <c r="L50" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="M50">
-        <v>340</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8122,40 +7838,40 @@
         <v>62</v>
       </c>
       <c r="B51">
-        <v>182541768</v>
+        <v>182919813</v>
       </c>
       <c r="C51">
-        <v>4808929520</v>
+        <v>21937440952</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E51">
-        <v>2.41</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="F51">
-        <v>5.8</v>
+        <v>191.71</v>
       </c>
       <c r="G51">
-        <v>4.11</v>
+        <v>139.74</v>
       </c>
       <c r="H51" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="I51">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="K51">
-        <v>9803</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s">
-        <v>670</v>
+        <v>610</v>
       </c>
       <c r="M51">
-        <v>1417</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8163,40 +7879,40 @@
         <v>63</v>
       </c>
       <c r="B52">
-        <v>489184415</v>
+        <v>13486527</v>
       </c>
       <c r="C52">
-        <v>9182118098</v>
+        <v>16200339957</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E52">
-        <v>2.13</v>
+        <v>6.2</v>
       </c>
       <c r="F52">
-        <v>14.91</v>
+        <v>6.2</v>
       </c>
       <c r="G52">
-        <v>8.52</v>
+        <v>6.2</v>
       </c>
       <c r="H52" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="I52">
-        <v>3.15</v>
+        <v>2.93</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="K52">
-        <v>3708</v>
+        <v>1415</v>
       </c>
       <c r="L52" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="M52">
-        <v>491</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8204,40 +7920,40 @@
         <v>64</v>
       </c>
       <c r="B53">
-        <v>301789278</v>
+        <v>271813511</v>
       </c>
       <c r="C53">
-        <v>4268120614</v>
+        <v>9095218627</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E53">
-        <v>22.35</v>
+        <v>18.54</v>
       </c>
       <c r="F53">
-        <v>120.4</v>
+        <v>41.22</v>
       </c>
       <c r="G53">
-        <v>71.37</v>
+        <v>29.88</v>
       </c>
       <c r="H53" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="I53">
-        <v>4.39</v>
+        <v>2.93</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="K53">
-        <v>2895</v>
+        <v>1104</v>
       </c>
       <c r="L53" t="s">
-        <v>673</v>
+        <v>618</v>
       </c>
       <c r="M53">
-        <v>483</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8245,40 +7961,40 @@
         <v>65</v>
       </c>
       <c r="B54">
-        <v>51134277</v>
+        <v>520130789</v>
       </c>
       <c r="C54">
-        <v>21545578387</v>
+        <v>12815045869</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E54">
-        <v>3.24</v>
+        <v>7.92</v>
       </c>
       <c r="F54">
-        <v>7.73</v>
+        <v>11.73</v>
       </c>
       <c r="G54">
-        <v>5.49</v>
+        <v>9.83</v>
       </c>
       <c r="H54" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="I54">
-        <v>4.3</v>
+        <v>2.83</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="K54">
-        <v>489</v>
+        <v>6658</v>
       </c>
       <c r="L54" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="M54">
-        <v>67</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8286,40 +8002,40 @@
         <v>66</v>
       </c>
       <c r="B55">
-        <v>268028767</v>
+        <v>12480907</v>
       </c>
       <c r="C55">
-        <v>21514740859</v>
+        <v>9446349914</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E55">
-        <v>14.93</v>
+        <v>14.86</v>
       </c>
       <c r="F55">
-        <v>14.93</v>
+        <v>14.86</v>
       </c>
       <c r="G55">
-        <v>14.93</v>
+        <v>14.86</v>
       </c>
       <c r="H55" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="I55">
-        <v>4.54</v>
+        <v>4.23</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="K55">
-        <v>452</v>
+        <v>3868</v>
       </c>
       <c r="L55" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="M55">
-        <v>54</v>
+        <v>836</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8327,40 +8043,40 @@
         <v>67</v>
       </c>
       <c r="B56">
-        <v>628365983</v>
+        <v>35062141</v>
       </c>
       <c r="C56">
-        <v>14221606651</v>
+        <v>7947473332</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E56">
-        <v>11.71</v>
+        <v>7.91</v>
       </c>
       <c r="F56">
-        <v>20.99</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G56">
-        <v>16.35</v>
+        <v>8.31</v>
       </c>
       <c r="H56" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="I56">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="K56">
-        <v>1366</v>
+        <v>8475</v>
       </c>
       <c r="L56" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="M56">
-        <v>154</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8368,40 +8084,40 @@
         <v>68</v>
       </c>
       <c r="B57">
-        <v>484374948</v>
+        <v>189061974</v>
       </c>
       <c r="C57">
-        <v>11017334319</v>
+        <v>7702233581</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E57">
-        <v>7.09</v>
+        <v>36.38</v>
       </c>
       <c r="F57">
-        <v>13.2</v>
+        <v>36.38</v>
       </c>
       <c r="G57">
-        <v>10.14</v>
+        <v>36.38</v>
       </c>
       <c r="H57" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="I57">
-        <v>4.63</v>
+        <v>3.3</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="K57">
-        <v>5172</v>
+        <v>8140</v>
       </c>
       <c r="L57" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="M57">
-        <v>630</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8409,40 +8125,40 @@
         <v>69</v>
       </c>
       <c r="B58">
-        <v>223946658</v>
+        <v>785454343</v>
       </c>
       <c r="C58">
-        <v>9075274421</v>
+        <v>20150543700</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E58">
-        <v>29.72</v>
+        <v>7.36</v>
       </c>
       <c r="F58">
-        <v>31.8</v>
+        <v>22.81</v>
       </c>
       <c r="G58">
-        <v>30.76</v>
+        <v>15.09</v>
       </c>
       <c r="H58" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="I58">
-        <v>4.85</v>
+        <v>3.32</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="K58">
-        <v>3520</v>
+        <v>590</v>
       </c>
       <c r="L58" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="M58">
-        <v>555</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8450,40 +8166,40 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>182919813</v>
+        <v>830853957</v>
       </c>
       <c r="C59">
-        <v>21937440952</v>
+        <v>22800923022</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E59">
-        <v>87.76000000000001</v>
+        <v>15.92</v>
       </c>
       <c r="F59">
-        <v>191.71</v>
+        <v>15.92</v>
       </c>
       <c r="G59">
-        <v>139.74</v>
+        <v>15.92</v>
       </c>
       <c r="H59" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="I59">
-        <v>2.99</v>
+        <v>4.52</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="K59">
-        <v>388</v>
+        <v>944</v>
       </c>
       <c r="L59" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="M59">
-        <v>74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8491,40 +8207,40 @@
         <v>71</v>
       </c>
       <c r="B60">
-        <v>13486527</v>
+        <v>478791243</v>
       </c>
       <c r="C60">
-        <v>16200339957</v>
+        <v>12541031778</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E60">
-        <v>6.2</v>
+        <v>17.71</v>
       </c>
       <c r="F60">
-        <v>6.2</v>
+        <v>26.65</v>
       </c>
       <c r="G60">
-        <v>6.2</v>
+        <v>22.18</v>
       </c>
       <c r="H60" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I60">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="K60">
-        <v>1415</v>
+        <v>5450</v>
       </c>
       <c r="L60" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="M60">
-        <v>161</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8532,40 +8248,40 @@
         <v>72</v>
       </c>
       <c r="B61">
-        <v>271813511</v>
+        <v>131332496</v>
       </c>
       <c r="C61">
-        <v>9095218627</v>
+        <v>1990434408</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E61">
-        <v>18.54</v>
+        <v>10.83</v>
       </c>
       <c r="F61">
-        <v>41.22</v>
+        <v>74.52</v>
       </c>
       <c r="G61">
-        <v>29.88</v>
+        <v>42.67</v>
       </c>
       <c r="H61" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I61">
-        <v>2.93</v>
+        <v>4.24</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="K61">
-        <v>1104</v>
+        <v>31021</v>
       </c>
       <c r="L61" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="M61">
-        <v>144</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8573,40 +8289,40 @@
         <v>73</v>
       </c>
       <c r="B62">
-        <v>520130789</v>
+        <v>415978729</v>
       </c>
       <c r="C62">
-        <v>12815045869</v>
+        <v>17868931721</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E62">
-        <v>7.92</v>
+        <v>0.51</v>
       </c>
       <c r="F62">
-        <v>11.73</v>
+        <v>1.76</v>
       </c>
       <c r="G62">
-        <v>9.83</v>
+        <v>1.14</v>
       </c>
       <c r="H62" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="I62">
-        <v>2.83</v>
+        <v>4.03</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="K62">
-        <v>6658</v>
+        <v>100097</v>
       </c>
       <c r="L62" t="s">
-        <v>665</v>
+        <v>609</v>
       </c>
       <c r="M62">
-        <v>1695</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8614,40 +8330,40 @@
         <v>74</v>
       </c>
       <c r="B63">
-        <v>12480907</v>
+        <v>262807707</v>
       </c>
       <c r="C63">
-        <v>9446349914</v>
+        <v>21311931803</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E63">
-        <v>14.86</v>
+        <v>14.87</v>
       </c>
       <c r="F63">
-        <v>14.86</v>
+        <v>21.9</v>
       </c>
       <c r="G63">
-        <v>14.86</v>
+        <v>18.39</v>
       </c>
       <c r="H63" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I63">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="K63">
-        <v>3868</v>
+        <v>3878</v>
       </c>
       <c r="L63" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="M63">
-        <v>836</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8655,40 +8371,40 @@
         <v>75</v>
       </c>
       <c r="B64">
-        <v>35062141</v>
+        <v>498173133</v>
       </c>
       <c r="C64">
-        <v>7947473332</v>
+        <v>13721662789</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E64">
-        <v>7.91</v>
+        <v>21.95</v>
       </c>
       <c r="F64">
-        <v>8.710000000000001</v>
+        <v>37.49</v>
       </c>
       <c r="G64">
-        <v>8.31</v>
+        <v>29.72</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I64">
-        <v>3.93</v>
+        <v>4.87</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="K64">
-        <v>8475</v>
+        <v>1740</v>
       </c>
       <c r="L64" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
       <c r="M64">
-        <v>1341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8696,40 +8412,40 @@
         <v>76</v>
       </c>
       <c r="B65">
-        <v>189061974</v>
+        <v>2417589</v>
       </c>
       <c r="C65">
-        <v>7702233581</v>
+        <v>8628644303</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E65">
-        <v>36.38</v>
+        <v>13.35</v>
       </c>
       <c r="F65">
-        <v>36.38</v>
+        <v>29.25</v>
       </c>
       <c r="G65">
-        <v>36.38</v>
+        <v>21.3</v>
       </c>
       <c r="H65" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="I65">
-        <v>3.3</v>
+        <v>3.99</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="K65">
-        <v>8140</v>
+        <v>1541</v>
       </c>
       <c r="L65" t="s">
-        <v>673</v>
+        <v>611</v>
       </c>
       <c r="M65">
-        <v>669</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8740,37 +8456,37 @@
         <v>785454343</v>
       </c>
       <c r="C66">
-        <v>20150543700</v>
+        <v>18307792312</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E66">
-        <v>7.36</v>
+        <v>6.49</v>
       </c>
       <c r="F66">
-        <v>22.81</v>
+        <v>15.1</v>
       </c>
       <c r="G66">
-        <v>15.09</v>
+        <v>10.8</v>
       </c>
       <c r="H66" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="I66">
-        <v>3.32</v>
+        <v>2.62</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="K66">
-        <v>590</v>
+        <v>2713</v>
       </c>
       <c r="L66" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="M66">
-        <v>158</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8778,40 +8494,40 @@
         <v>78</v>
       </c>
       <c r="B67">
-        <v>830853957</v>
+        <v>182524985</v>
       </c>
       <c r="C67">
-        <v>22800923022</v>
+        <v>8326053759</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E67">
-        <v>15.92</v>
+        <v>20.63</v>
       </c>
       <c r="F67">
-        <v>15.92</v>
+        <v>20.63</v>
       </c>
       <c r="G67">
-        <v>15.92</v>
+        <v>20.63</v>
       </c>
       <c r="H67" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="I67">
-        <v>4.52</v>
+        <v>4.18</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="K67">
-        <v>944</v>
+        <v>12913</v>
       </c>
       <c r="L67" t="s">
-        <v>671</v>
+        <v>627</v>
       </c>
       <c r="M67">
-        <v>217</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -8819,40 +8535,40 @@
         <v>79</v>
       </c>
       <c r="B68">
-        <v>478791243</v>
+        <v>254321715</v>
       </c>
       <c r="C68">
-        <v>12541031778</v>
+        <v>20466885066</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E68">
-        <v>17.71</v>
+        <v>17.21</v>
       </c>
       <c r="F68">
-        <v>26.65</v>
+        <v>17.21</v>
       </c>
       <c r="G68">
-        <v>22.18</v>
+        <v>17.21</v>
       </c>
       <c r="H68" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="I68">
-        <v>2.77</v>
+        <v>4.71</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="K68">
-        <v>5450</v>
+        <v>406</v>
       </c>
       <c r="L68" t="s">
-        <v>678</v>
+        <v>609</v>
       </c>
       <c r="M68">
-        <v>671</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -8860,40 +8576,40 @@
         <v>80</v>
       </c>
       <c r="B69">
-        <v>131332496</v>
+        <v>480420433</v>
       </c>
       <c r="C69">
-        <v>1990434408</v>
+        <v>12038345648</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E69">
-        <v>10.83</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F69">
-        <v>74.52</v>
+        <v>15.32</v>
       </c>
       <c r="G69">
-        <v>42.67</v>
+        <v>12.31</v>
       </c>
       <c r="H69" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="I69">
-        <v>4.24</v>
+        <v>4.38</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="K69">
-        <v>31021</v>
+        <v>1273</v>
       </c>
       <c r="L69" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="M69">
-        <v>2706</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -8901,40 +8617,40 @@
         <v>81</v>
       </c>
       <c r="B70">
-        <v>415978729</v>
+        <v>338563812</v>
       </c>
       <c r="C70">
-        <v>17868931721</v>
+        <v>7174604813</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E70">
-        <v>0.51</v>
+        <v>9.08</v>
       </c>
       <c r="F70">
-        <v>1.76</v>
+        <v>9.08</v>
       </c>
       <c r="G70">
-        <v>1.14</v>
+        <v>9.08</v>
       </c>
       <c r="H70" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="I70">
-        <v>4.03</v>
+        <v>4.54</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="K70">
-        <v>100097</v>
+        <v>31456</v>
       </c>
       <c r="L70" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="M70">
-        <v>197</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -8942,40 +8658,40 @@
         <v>82</v>
       </c>
       <c r="B71">
-        <v>35062141</v>
+        <v>189166995</v>
       </c>
       <c r="C71">
-        <v>14316248775</v>
+        <v>14409700190</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E71">
-        <v>15.43</v>
+        <v>12.04</v>
       </c>
       <c r="F71">
-        <v>15.43</v>
+        <v>82.88</v>
       </c>
       <c r="G71">
-        <v>15.43</v>
+        <v>47.46</v>
       </c>
       <c r="H71" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="I71">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="K71">
-        <v>1730</v>
+        <v>1385</v>
       </c>
       <c r="L71" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="M71">
-        <v>239</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -8983,40 +8699,40 @@
         <v>83</v>
       </c>
       <c r="B72">
-        <v>262807707</v>
+        <v>325375667</v>
       </c>
       <c r="C72">
-        <v>21311931803</v>
+        <v>20555001651</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E72">
-        <v>14.87</v>
+        <v>5.53</v>
       </c>
       <c r="F72">
-        <v>21.9</v>
+        <v>9.69</v>
       </c>
       <c r="G72">
-        <v>18.39</v>
+        <v>7.61</v>
       </c>
       <c r="H72" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="K72">
-        <v>3878</v>
+        <v>321</v>
       </c>
       <c r="L72" t="s">
-        <v>678</v>
+        <v>609</v>
       </c>
       <c r="M72">
-        <v>634</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -9024,40 +8740,40 @@
         <v>84</v>
       </c>
       <c r="B73">
-        <v>301789278</v>
+        <v>241947465</v>
       </c>
       <c r="C73">
-        <v>6750711038</v>
+        <v>3643074024</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E73">
-        <v>33.34</v>
+        <v>14.48</v>
       </c>
       <c r="F73">
-        <v>120.09</v>
+        <v>32.99</v>
       </c>
       <c r="G73">
-        <v>76.70999999999999</v>
+        <v>23.74</v>
       </c>
       <c r="H73" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="I73">
-        <v>4.54</v>
+        <v>4.23</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="K73">
-        <v>4132</v>
+        <v>1880</v>
       </c>
       <c r="L73" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="M73">
-        <v>1075</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -9065,40 +8781,40 @@
         <v>85</v>
       </c>
       <c r="B74">
-        <v>498173133</v>
+        <v>95236751</v>
       </c>
       <c r="C74">
-        <v>13721662789</v>
+        <v>21410021594</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E74">
-        <v>21.95</v>
+        <v>11.33</v>
       </c>
       <c r="F74">
-        <v>37.49</v>
+        <v>19.84</v>
       </c>
       <c r="G74">
-        <v>29.72</v>
+        <v>15.58</v>
       </c>
       <c r="H74" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="I74">
-        <v>4.87</v>
+        <v>3.59</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="K74">
-        <v>1740</v>
+        <v>2486</v>
       </c>
       <c r="L74" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="M74">
-        <v>217</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -9106,40 +8822,40 @@
         <v>86</v>
       </c>
       <c r="B75">
-        <v>2417589</v>
+        <v>21596473</v>
       </c>
       <c r="C75">
-        <v>8628644303</v>
+        <v>21249982124</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E75">
-        <v>13.35</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F75">
-        <v>29.25</v>
+        <v>30.05</v>
       </c>
       <c r="G75">
-        <v>21.3</v>
+        <v>19.5</v>
       </c>
       <c r="H75" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="I75">
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="K75">
-        <v>1541</v>
+        <v>1060</v>
       </c>
       <c r="L75" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="M75">
-        <v>459</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -9150,37 +8866,37 @@
         <v>785454343</v>
       </c>
       <c r="C76">
-        <v>18307792312</v>
+        <v>20845602448</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E76">
-        <v>6.49</v>
+        <v>6.75</v>
       </c>
       <c r="F76">
-        <v>15.1</v>
+        <v>10.22</v>
       </c>
       <c r="G76">
-        <v>10.8</v>
+        <v>8.49</v>
       </c>
       <c r="H76" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="I76">
-        <v>2.62</v>
+        <v>4.19</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="K76">
-        <v>2713</v>
+        <v>176</v>
       </c>
       <c r="L76" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
       <c r="M76">
-        <v>381</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -9188,40 +8904,40 @@
         <v>88</v>
       </c>
       <c r="B77">
-        <v>182524985</v>
+        <v>213436201</v>
       </c>
       <c r="C77">
-        <v>8326053759</v>
+        <v>7512686643</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E77">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="F77">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="G77">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="H77" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="I77">
-        <v>4.18</v>
+        <v>4.89</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="K77">
-        <v>12913</v>
+        <v>3744</v>
       </c>
       <c r="L77" t="s">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="M77">
-        <v>587</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9229,40 +8945,40 @@
         <v>89</v>
       </c>
       <c r="B78">
-        <v>254321715</v>
+        <v>89768730</v>
       </c>
       <c r="C78">
-        <v>20466885066</v>
+        <v>2123103366</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E78">
-        <v>17.21</v>
+        <v>14.02</v>
       </c>
       <c r="F78">
-        <v>17.21</v>
+        <v>21.04</v>
       </c>
       <c r="G78">
-        <v>17.21</v>
+        <v>17.53</v>
       </c>
       <c r="H78" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="I78">
-        <v>4.71</v>
+        <v>3.9</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="K78">
-        <v>406</v>
+        <v>9487</v>
       </c>
       <c r="L78" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="M78">
-        <v>64</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9270,40 +8986,40 @@
         <v>90</v>
       </c>
       <c r="B79">
-        <v>480420433</v>
+        <v>329852619</v>
       </c>
       <c r="C79">
-        <v>12038345648</v>
+        <v>5263643072</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E79">
-        <v>9.289999999999999</v>
+        <v>17.29</v>
       </c>
       <c r="F79">
-        <v>15.32</v>
+        <v>40.55</v>
       </c>
       <c r="G79">
-        <v>12.31</v>
+        <v>28.92</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="I79">
-        <v>4.38</v>
+        <v>3.15</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="K79">
-        <v>1273</v>
+        <v>2940</v>
       </c>
       <c r="L79" t="s">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="M79">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9311,40 +9027,40 @@
         <v>91</v>
       </c>
       <c r="B80">
-        <v>338563812</v>
+        <v>220997827</v>
       </c>
       <c r="C80">
-        <v>7174604813</v>
+        <v>6441629901</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E80">
-        <v>9.08</v>
+        <v>33.28</v>
       </c>
       <c r="F80">
-        <v>9.08</v>
+        <v>58.53</v>
       </c>
       <c r="G80">
-        <v>9.08</v>
+        <v>45.9</v>
       </c>
       <c r="H80" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="I80">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="K80">
-        <v>31456</v>
+        <v>18053</v>
       </c>
       <c r="L80" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="M80">
-        <v>4147</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -9352,40 +9068,40 @@
         <v>92</v>
       </c>
       <c r="B81">
-        <v>189166995</v>
+        <v>346434736</v>
       </c>
       <c r="C81">
-        <v>14409700190</v>
+        <v>15222431498</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E81">
-        <v>12.04</v>
+        <v>19.96</v>
       </c>
       <c r="F81">
-        <v>82.88</v>
+        <v>25.12</v>
       </c>
       <c r="G81">
-        <v>47.46</v>
+        <v>22.54</v>
       </c>
       <c r="H81" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="I81">
-        <v>3.51</v>
+        <v>4.32</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="K81">
-        <v>1385</v>
+        <v>2210</v>
       </c>
       <c r="L81" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="M81">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -9393,40 +9109,40 @@
         <v>93</v>
       </c>
       <c r="B82">
-        <v>325375667</v>
+        <v>453949818</v>
       </c>
       <c r="C82">
-        <v>20555001651</v>
+        <v>11154392834</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E82">
-        <v>5.53</v>
+        <v>6.53</v>
       </c>
       <c r="F82">
-        <v>9.69</v>
+        <v>13.26</v>
       </c>
       <c r="G82">
-        <v>7.61</v>
+        <v>9.9</v>
       </c>
       <c r="H82" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="I82">
-        <v>4.26</v>
+        <v>3.88</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="K82">
-        <v>321</v>
+        <v>2924</v>
       </c>
       <c r="L82" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="M82">
-        <v>49</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -9434,40 +9150,40 @@
         <v>94</v>
       </c>
       <c r="B83">
-        <v>241947465</v>
+        <v>236279386</v>
       </c>
       <c r="C83">
-        <v>3643074024</v>
+        <v>7532275614</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E83">
-        <v>14.48</v>
+        <v>18.82</v>
       </c>
       <c r="F83">
-        <v>32.99</v>
+        <v>18.82</v>
       </c>
       <c r="G83">
-        <v>23.74</v>
+        <v>18.82</v>
       </c>
       <c r="H83" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="I83">
-        <v>4.23</v>
+        <v>2.6</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="K83">
-        <v>1880</v>
+        <v>4943</v>
       </c>
       <c r="L83" t="s">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="M83">
-        <v>241</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -9475,40 +9191,40 @@
         <v>95</v>
       </c>
       <c r="B84">
-        <v>95236751</v>
+        <v>217949200</v>
       </c>
       <c r="C84">
-        <v>21410021594</v>
+        <v>5414642836</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E84">
-        <v>11.33</v>
+        <v>12.1</v>
       </c>
       <c r="F84">
-        <v>19.84</v>
+        <v>12.1</v>
       </c>
       <c r="G84">
-        <v>15.58</v>
+        <v>12.1</v>
       </c>
       <c r="H84" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="I84">
-        <v>3.59</v>
+        <v>4.59</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="K84">
-        <v>2486</v>
+        <v>6904</v>
       </c>
       <c r="L84" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="M84">
-        <v>285</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -9516,40 +9232,40 @@
         <v>96</v>
       </c>
       <c r="B85">
-        <v>21596473</v>
+        <v>138542808</v>
       </c>
       <c r="C85">
-        <v>21249982124</v>
+        <v>7548151640</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E85">
-        <v>8.949999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="F85">
-        <v>30.05</v>
+        <v>5.99</v>
       </c>
       <c r="G85">
-        <v>19.5</v>
+        <v>5.99</v>
       </c>
       <c r="H85" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="I85">
-        <v>3.06</v>
+        <v>2.61</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="K85">
-        <v>1060</v>
+        <v>2745</v>
       </c>
       <c r="L85" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="M85">
-        <v>200</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -9557,40 +9273,40 @@
         <v>97</v>
       </c>
       <c r="B86">
-        <v>785454343</v>
+        <v>127249066</v>
       </c>
       <c r="C86">
-        <v>20845602448</v>
+        <v>10144536014</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E86">
-        <v>6.75</v>
+        <v>3.2</v>
       </c>
       <c r="F86">
-        <v>10.22</v>
+        <v>3.2</v>
       </c>
       <c r="G86">
-        <v>8.49</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="I86">
-        <v>4.19</v>
+        <v>4</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="K86">
-        <v>176</v>
+        <v>2610</v>
       </c>
       <c r="L86" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="M86">
-        <v>43</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -9598,40 +9314,40 @@
         <v>98</v>
       </c>
       <c r="B87">
-        <v>213436201</v>
+        <v>189166995</v>
       </c>
       <c r="C87">
-        <v>7512686643</v>
+        <v>6175626711</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E87">
-        <v>19.87</v>
+        <v>13.52</v>
       </c>
       <c r="F87">
-        <v>19.87</v>
+        <v>94.61</v>
       </c>
       <c r="G87">
-        <v>19.87</v>
+        <v>54.07</v>
       </c>
       <c r="H87" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="I87">
-        <v>4.89</v>
+        <v>3.71</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="K87">
-        <v>3744</v>
+        <v>20073</v>
       </c>
       <c r="L87" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="M87">
-        <v>1107</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -9639,40 +9355,40 @@
         <v>99</v>
       </c>
       <c r="B88">
-        <v>89768730</v>
+        <v>338563812</v>
       </c>
       <c r="C88">
-        <v>2123103366</v>
+        <v>5174612538</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E88">
-        <v>14.02</v>
+        <v>6.89</v>
       </c>
       <c r="F88">
-        <v>21.04</v>
+        <v>6.89</v>
       </c>
       <c r="G88">
-        <v>17.53</v>
+        <v>6.89</v>
       </c>
       <c r="H88" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="I88">
-        <v>3.9</v>
+        <v>2.76</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="K88">
-        <v>9487</v>
+        <v>2750</v>
       </c>
       <c r="L88" t="s">
-        <v>682</v>
+        <v>612</v>
       </c>
       <c r="M88">
-        <v>1249</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -9680,40 +9396,40 @@
         <v>100</v>
       </c>
       <c r="B89">
-        <v>329852619</v>
+        <v>368100296</v>
       </c>
       <c r="C89">
-        <v>5263643072</v>
+        <v>5178772669</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E89">
-        <v>17.29</v>
+        <v>8.98</v>
       </c>
       <c r="F89">
-        <v>40.55</v>
+        <v>30.56</v>
       </c>
       <c r="G89">
-        <v>28.92</v>
+        <v>19.77</v>
       </c>
       <c r="H89" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="I89">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="K89">
-        <v>2940</v>
+        <v>6719</v>
       </c>
       <c r="L89" t="s">
-        <v>673</v>
+        <v>611</v>
       </c>
       <c r="M89">
-        <v>252</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -9721,40 +9437,40 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>220997827</v>
+        <v>446883346</v>
       </c>
       <c r="C90">
-        <v>6441629901</v>
+        <v>8758404910</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E90">
-        <v>33.28</v>
+        <v>5.6</v>
       </c>
       <c r="F90">
-        <v>58.53</v>
+        <v>5.6</v>
       </c>
       <c r="G90">
-        <v>45.9</v>
+        <v>5.6</v>
       </c>
       <c r="H90" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="I90">
-        <v>4.56</v>
+        <v>2.54</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="K90">
-        <v>18053</v>
+        <v>6675</v>
       </c>
       <c r="L90" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="M90">
-        <v>2364</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -9762,40 +9478,40 @@
         <v>102</v>
       </c>
       <c r="B91">
-        <v>346434736</v>
+        <v>154953096</v>
       </c>
       <c r="C91">
-        <v>15222431498</v>
+        <v>5345617515</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E91">
-        <v>19.96</v>
+        <v>43.3</v>
       </c>
       <c r="F91">
-        <v>25.12</v>
+        <v>53.49</v>
       </c>
       <c r="G91">
-        <v>22.54</v>
+        <v>48.4</v>
       </c>
       <c r="H91" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="I91">
-        <v>4.32</v>
+        <v>3.01</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="K91">
-        <v>2210</v>
+        <v>5061</v>
       </c>
       <c r="L91" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="M91">
-        <v>256</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -9803,40 +9519,40 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>453949818</v>
+        <v>63663065</v>
       </c>
       <c r="C92">
-        <v>11154392834</v>
+        <v>10703421998</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E92">
-        <v>6.53</v>
+        <v>17.14</v>
       </c>
       <c r="F92">
-        <v>13.26</v>
+        <v>28.32</v>
       </c>
       <c r="G92">
-        <v>9.9</v>
+        <v>22.73</v>
       </c>
       <c r="H92" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="I92">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K92">
-        <v>2924</v>
+        <v>3702</v>
       </c>
       <c r="L92" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
       <c r="M92">
-        <v>342</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -9844,40 +9560,40 @@
         <v>104</v>
       </c>
       <c r="B93">
-        <v>236279386</v>
+        <v>327481064</v>
       </c>
       <c r="C93">
-        <v>7532275614</v>
+        <v>9065480511</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E93">
-        <v>18.82</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F93">
-        <v>18.82</v>
+        <v>13.26</v>
       </c>
       <c r="G93">
-        <v>18.82</v>
+        <v>10.78</v>
       </c>
       <c r="H93" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="I93">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="K93">
-        <v>4943</v>
+        <v>11226</v>
       </c>
       <c r="L93" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="M93">
-        <v>533</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -9885,40 +9601,40 @@
         <v>105</v>
       </c>
       <c r="B94">
-        <v>217949200</v>
+        <v>51134277</v>
       </c>
       <c r="C94">
-        <v>5414642836</v>
+        <v>22111692563</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E94">
-        <v>12.1</v>
+        <v>10.31</v>
       </c>
       <c r="F94">
-        <v>12.1</v>
+        <v>11.21</v>
       </c>
       <c r="G94">
-        <v>12.1</v>
+        <v>10.76</v>
       </c>
       <c r="H94" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="I94">
-        <v>4.59</v>
+        <v>3.52</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="K94">
-        <v>6904</v>
+        <v>360</v>
       </c>
       <c r="L94" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="M94">
-        <v>1153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -9926,40 +9642,40 @@
         <v>106</v>
       </c>
       <c r="B95">
-        <v>138542808</v>
+        <v>35062141</v>
       </c>
       <c r="C95">
-        <v>7548151640</v>
+        <v>15747750478</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E95">
-        <v>5.99</v>
+        <v>11.79</v>
       </c>
       <c r="F95">
-        <v>5.99</v>
+        <v>22.21</v>
       </c>
       <c r="G95">
-        <v>5.99</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="I95">
-        <v>2.61</v>
+        <v>3.96</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="K95">
-        <v>2745</v>
+        <v>279</v>
       </c>
       <c r="L95" t="s">
-        <v>662</v>
+        <v>623</v>
       </c>
       <c r="M95">
-        <v>382</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -9967,40 +9683,40 @@
         <v>107</v>
       </c>
       <c r="B96">
-        <v>127249066</v>
+        <v>890696211</v>
       </c>
       <c r="C96">
-        <v>10144536014</v>
+        <v>19358611914</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E96">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="F96">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="G96">
-        <v>3.2</v>
+        <v>2.03</v>
       </c>
       <c r="H96" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>4.72</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="K96">
-        <v>2610</v>
+        <v>323</v>
       </c>
       <c r="L96" t="s">
-        <v>678</v>
+        <v>624</v>
       </c>
       <c r="M96">
-        <v>299</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -10008,40 +9724,40 @@
         <v>108</v>
       </c>
       <c r="B97">
-        <v>189166995</v>
+        <v>15997873</v>
       </c>
       <c r="C97">
-        <v>6175626711</v>
+        <v>3239831745</v>
       </c>
       <c r="D97" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E97">
-        <v>13.52</v>
+        <v>3.26</v>
       </c>
       <c r="F97">
-        <v>94.61</v>
+        <v>3.26</v>
       </c>
       <c r="G97">
-        <v>54.07</v>
+        <v>3.26</v>
       </c>
       <c r="H97" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="I97">
-        <v>3.71</v>
+        <v>2.61</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="K97">
-        <v>20073</v>
+        <v>4759</v>
       </c>
       <c r="L97" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="M97">
-        <v>2371</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -10049,40 +9765,40 @@
         <v>109</v>
       </c>
       <c r="B98">
-        <v>338563812</v>
+        <v>135527190</v>
       </c>
       <c r="C98">
-        <v>5174612538</v>
+        <v>4648512743</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E98">
-        <v>6.89</v>
+        <v>5.29</v>
       </c>
       <c r="F98">
-        <v>6.89</v>
+        <v>13.25</v>
       </c>
       <c r="G98">
-        <v>6.89</v>
+        <v>9.27</v>
       </c>
       <c r="H98" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="I98">
-        <v>2.76</v>
+        <v>3.54</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="K98">
-        <v>2750</v>
+        <v>10190</v>
       </c>
       <c r="L98" t="s">
-        <v>665</v>
+        <v>609</v>
       </c>
       <c r="M98">
-        <v>579</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -10090,40 +9806,40 @@
         <v>110</v>
       </c>
       <c r="B99">
-        <v>368100296</v>
+        <v>422388243</v>
       </c>
       <c r="C99">
-        <v>5178772669</v>
+        <v>9545036795</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E99">
-        <v>8.98</v>
+        <v>38.96</v>
       </c>
       <c r="F99">
-        <v>30.56</v>
+        <v>198.12</v>
       </c>
       <c r="G99">
-        <v>19.77</v>
+        <v>118.54</v>
       </c>
       <c r="H99" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="I99">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="K99">
-        <v>6719</v>
+        <v>1445</v>
       </c>
       <c r="L99" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="M99">
-        <v>1495</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -10131,40 +9847,40 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>446883346</v>
+        <v>326528295</v>
       </c>
       <c r="C100">
-        <v>8758404910</v>
+        <v>6462006056</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E100">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="F100">
-        <v>5.6</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G100">
-        <v>5.6</v>
+        <v>7.57</v>
       </c>
       <c r="H100" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="I100">
-        <v>2.54</v>
+        <v>4.71</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="K100">
-        <v>6675</v>
+        <v>42165</v>
       </c>
       <c r="L100" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="M100">
-        <v>3065</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -10172,40 +9888,40 @@
         <v>112</v>
       </c>
       <c r="B101">
-        <v>301789278</v>
+        <v>91594760</v>
       </c>
       <c r="C101">
-        <v>4150699607</v>
+        <v>2703839911</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E101">
-        <v>35.04</v>
+        <v>21.5</v>
       </c>
       <c r="F101">
-        <v>123.89</v>
+        <v>21.5</v>
       </c>
       <c r="G101">
-        <v>79.47</v>
+        <v>21.5</v>
       </c>
       <c r="H101" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="I101">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="K101">
-        <v>9972</v>
+        <v>4019</v>
       </c>
       <c r="L101" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="M101">
-        <v>1395</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -10213,40 +9929,40 @@
         <v>113</v>
       </c>
       <c r="B102">
-        <v>154953096</v>
+        <v>290965435</v>
       </c>
       <c r="C102">
-        <v>5345617515</v>
+        <v>7244422510</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E102">
-        <v>43.3</v>
+        <v>2.94</v>
       </c>
       <c r="F102">
-        <v>53.49</v>
+        <v>2.94</v>
       </c>
       <c r="G102">
-        <v>48.4</v>
+        <v>2.94</v>
       </c>
       <c r="H102" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="I102">
-        <v>3.01</v>
+        <v>3.88</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="K102">
-        <v>5061</v>
+        <v>11868</v>
       </c>
       <c r="L102" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="M102">
-        <v>2320</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -10254,40 +9970,40 @@
         <v>114</v>
       </c>
       <c r="B103">
-        <v>63663065</v>
+        <v>368100296</v>
       </c>
       <c r="C103">
-        <v>10703421998</v>
+        <v>7586433816</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E103">
-        <v>17.14</v>
+        <v>11.76</v>
       </c>
       <c r="F103">
-        <v>28.32</v>
+        <v>17.65</v>
       </c>
       <c r="G103">
-        <v>22.73</v>
+        <v>14.7</v>
       </c>
       <c r="H103" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="I103">
-        <v>3.44</v>
+        <v>4.9</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="K103">
-        <v>3702</v>
+        <v>2881</v>
       </c>
       <c r="L103" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="M103">
-        <v>494</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -10295,40 +10011,40 @@
         <v>115</v>
       </c>
       <c r="B104">
-        <v>327481064</v>
+        <v>348277166</v>
       </c>
       <c r="C104">
-        <v>9065480511</v>
+        <v>11406983187</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E104">
-        <v>8.289999999999999</v>
+        <v>18.22</v>
       </c>
       <c r="F104">
-        <v>13.26</v>
+        <v>33.56</v>
       </c>
       <c r="G104">
-        <v>10.78</v>
+        <v>25.89</v>
       </c>
       <c r="H104" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="I104">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="K104">
-        <v>11226</v>
+        <v>688</v>
       </c>
       <c r="L104" t="s">
-        <v>682</v>
+        <v>626</v>
       </c>
       <c r="M104">
-        <v>2190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -10336,40 +10052,40 @@
         <v>116</v>
       </c>
       <c r="B105">
-        <v>301789278</v>
+        <v>189166995</v>
       </c>
       <c r="C105">
-        <v>5454949576</v>
+        <v>7441905446</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E105">
-        <v>19.31</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F105">
-        <v>29.03</v>
+        <v>49.67</v>
       </c>
       <c r="G105">
-        <v>24.17</v>
+        <v>29.41</v>
       </c>
       <c r="H105" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="I105">
-        <v>4.89</v>
+        <v>4.22</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="K105">
-        <v>2862</v>
+        <v>21645</v>
       </c>
       <c r="L105" t="s">
-        <v>673</v>
+        <v>615</v>
       </c>
       <c r="M105">
-        <v>567</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -10377,40 +10093,40 @@
         <v>117</v>
       </c>
       <c r="B106">
-        <v>51134277</v>
+        <v>290965435</v>
       </c>
       <c r="C106">
-        <v>22111692563</v>
+        <v>4389746576</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E106">
-        <v>10.31</v>
+        <v>0.35</v>
       </c>
       <c r="F106">
-        <v>11.21</v>
+        <v>0.35</v>
       </c>
       <c r="G106">
-        <v>10.76</v>
+        <v>0.35</v>
       </c>
       <c r="H106" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="I106">
-        <v>3.52</v>
+        <v>4.26</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>602</v>
+        <v>564</v>
       </c>
       <c r="K106">
-        <v>360</v>
+        <v>304849</v>
       </c>
       <c r="L106" t="s">
-        <v>665</v>
+        <v>609</v>
       </c>
       <c r="M106">
-        <v>56</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -10418,40 +10134,40 @@
         <v>118</v>
       </c>
       <c r="B107">
-        <v>35062141</v>
+        <v>299742</v>
       </c>
       <c r="C107">
-        <v>15747750478</v>
+        <v>4601993848</v>
       </c>
       <c r="D107" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E107">
-        <v>11.79</v>
+        <v>112.57</v>
       </c>
       <c r="F107">
-        <v>22.21</v>
+        <v>128.67</v>
       </c>
       <c r="G107">
-        <v>17</v>
+        <v>120.62</v>
       </c>
       <c r="H107" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="I107">
-        <v>3.96</v>
+        <v>2.66</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="K107">
-        <v>279</v>
+        <v>13828</v>
       </c>
       <c r="L107" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="M107">
-        <v>102</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -10459,40 +10175,40 @@
         <v>119</v>
       </c>
       <c r="B108">
-        <v>890696211</v>
+        <v>323750093</v>
       </c>
       <c r="C108">
-        <v>19358611914</v>
+        <v>10235261616</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E108">
-        <v>1.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F108">
-        <v>2.15</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G108">
-        <v>2.03</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H108" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="I108">
-        <v>4.72</v>
+        <v>4.09</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="K108">
-        <v>323</v>
+        <v>556</v>
       </c>
       <c r="L108" t="s">
-        <v>677</v>
+        <v>619</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -10500,40 +10216,40 @@
         <v>120</v>
       </c>
       <c r="B109">
-        <v>15997873</v>
+        <v>567493313</v>
       </c>
       <c r="C109">
-        <v>3239831745</v>
+        <v>12866945589</v>
       </c>
       <c r="D109" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E109">
-        <v>3.26</v>
+        <v>1.49</v>
       </c>
       <c r="F109">
-        <v>3.26</v>
+        <v>7.12</v>
       </c>
       <c r="G109">
-        <v>3.26</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="I109">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="K109">
-        <v>4759</v>
+        <v>16178</v>
       </c>
       <c r="L109" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="M109">
-        <v>167</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -10541,40 +10257,40 @@
         <v>121</v>
       </c>
       <c r="B110">
-        <v>135527190</v>
+        <v>54615708</v>
       </c>
       <c r="C110">
-        <v>4648512743</v>
+        <v>20312538726</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E110">
-        <v>5.29</v>
+        <v>1.98</v>
       </c>
       <c r="F110">
-        <v>13.25</v>
+        <v>4.09</v>
       </c>
       <c r="G110">
-        <v>9.27</v>
+        <v>3.04</v>
       </c>
       <c r="H110" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="I110">
-        <v>3.54</v>
+        <v>2.87</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="K110">
-        <v>10190</v>
+        <v>10624</v>
       </c>
       <c r="L110" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="M110">
-        <v>2405</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -10582,40 +10298,40 @@
         <v>122</v>
       </c>
       <c r="B111">
-        <v>422388243</v>
+        <v>277390263</v>
       </c>
       <c r="C111">
-        <v>9545036795</v>
+        <v>8786863720</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E111">
-        <v>38.96</v>
+        <v>6.58</v>
       </c>
       <c r="F111">
-        <v>198.12</v>
+        <v>44.8</v>
       </c>
       <c r="G111">
-        <v>118.54</v>
+        <v>25.69</v>
       </c>
       <c r="H111" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="I111">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="K111">
-        <v>1445</v>
+        <v>10433</v>
       </c>
       <c r="L111" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="M111">
-        <v>217</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -10623,40 +10339,40 @@
         <v>123</v>
       </c>
       <c r="B112">
-        <v>326528295</v>
+        <v>498018387</v>
       </c>
       <c r="C112">
-        <v>6462006056</v>
+        <v>3397689550</v>
       </c>
       <c r="D112" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E112">
-        <v>5.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F112">
-        <v>9.470000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G112">
-        <v>7.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H112" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="I112">
-        <v>4.71</v>
+        <v>3.27</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="K112">
-        <v>42165</v>
+        <v>13830</v>
       </c>
       <c r="L112" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
       <c r="M112">
-        <v>4560</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10664,40 +10380,40 @@
         <v>124</v>
       </c>
       <c r="B113">
-        <v>91594760</v>
+        <v>224587652</v>
       </c>
       <c r="C113">
-        <v>2703839911</v>
+        <v>5716330077</v>
       </c>
       <c r="D113" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E113">
-        <v>21.5</v>
+        <v>3.27</v>
       </c>
       <c r="F113">
-        <v>21.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G113">
-        <v>21.5</v>
+        <v>5.73</v>
       </c>
       <c r="H113" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="I113">
-        <v>2.73</v>
+        <v>4.23</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="K113">
-        <v>4019</v>
+        <v>55078</v>
       </c>
       <c r="L113" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="M113">
-        <v>426</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10705,40 +10421,40 @@
         <v>125</v>
       </c>
       <c r="B114">
-        <v>290965435</v>
+        <v>258452033</v>
       </c>
       <c r="C114">
-        <v>7244422510</v>
+        <v>6833792124</v>
       </c>
       <c r="D114" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E114">
-        <v>2.94</v>
+        <v>1.98</v>
       </c>
       <c r="F114">
-        <v>2.94</v>
+        <v>5.56</v>
       </c>
       <c r="G114">
-        <v>2.94</v>
+        <v>3.77</v>
       </c>
       <c r="H114" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="I114">
-        <v>3.88</v>
+        <v>4.25</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="K114">
-        <v>11868</v>
+        <v>45781</v>
       </c>
       <c r="L114" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="M114">
-        <v>1422</v>
+        <v>11169</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10746,40 +10462,40 @@
         <v>126</v>
       </c>
       <c r="B115">
-        <v>368100296</v>
+        <v>309740850</v>
       </c>
       <c r="C115">
-        <v>7586433816</v>
+        <v>4552408603</v>
       </c>
       <c r="D115" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E115">
-        <v>11.76</v>
+        <v>0.82</v>
       </c>
       <c r="F115">
-        <v>17.65</v>
+        <v>1.36</v>
       </c>
       <c r="G115">
-        <v>14.7</v>
+        <v>1.09</v>
       </c>
       <c r="H115" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="I115">
-        <v>4.9</v>
+        <v>3.99</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="K115">
-        <v>2881</v>
+        <v>62069</v>
       </c>
       <c r="L115" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="M115">
-        <v>923</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -10787,40 +10503,40 @@
         <v>127</v>
       </c>
       <c r="B116">
-        <v>348277166</v>
+        <v>565068251</v>
       </c>
       <c r="C116">
-        <v>11406983187</v>
+        <v>13833125344</v>
       </c>
       <c r="D116" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E116">
-        <v>18.22</v>
+        <v>11.37</v>
       </c>
       <c r="F116">
-        <v>33.56</v>
+        <v>53.94</v>
       </c>
       <c r="G116">
-        <v>25.89</v>
+        <v>32.66</v>
       </c>
       <c r="H116" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="I116">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="K116">
-        <v>688</v>
+        <v>8731</v>
       </c>
       <c r="L116" t="s">
-        <v>678</v>
+        <v>640</v>
       </c>
       <c r="M116">
-        <v>176</v>
+        <v>865</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10828,40 +10544,40 @@
         <v>128</v>
       </c>
       <c r="B117">
-        <v>189166995</v>
+        <v>61595324</v>
       </c>
       <c r="C117">
-        <v>7441905446</v>
+        <v>4259916835</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E117">
-        <v>9.140000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="F117">
-        <v>49.67</v>
+        <v>2.08</v>
       </c>
       <c r="G117">
-        <v>29.41</v>
+        <v>2.08</v>
       </c>
       <c r="H117" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="I117">
-        <v>4.22</v>
+        <v>3.85</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="K117">
-        <v>21645</v>
+        <v>30174</v>
       </c>
       <c r="L117" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="M117">
-        <v>1998</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10869,40 +10585,40 @@
         <v>129</v>
       </c>
       <c r="B118">
-        <v>290965435</v>
+        <v>127249066</v>
       </c>
       <c r="C118">
-        <v>4389746576</v>
+        <v>20909574510</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E118">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
       <c r="F118">
-        <v>0.35</v>
+        <v>1.36</v>
       </c>
       <c r="G118">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
       <c r="H118" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="I118">
-        <v>4.26</v>
+        <v>3.81</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="K118">
-        <v>304849</v>
+        <v>2630</v>
       </c>
       <c r="L118" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="M118">
-        <v>669</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -10910,40 +10626,40 @@
         <v>130</v>
       </c>
       <c r="B119">
-        <v>299742</v>
+        <v>329494459</v>
       </c>
       <c r="C119">
-        <v>4601993848</v>
+        <v>21413462442</v>
       </c>
       <c r="D119" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E119">
-        <v>112.57</v>
+        <v>2.68</v>
       </c>
       <c r="F119">
-        <v>128.67</v>
+        <v>7.91</v>
       </c>
       <c r="G119">
-        <v>120.62</v>
+        <v>5.29</v>
       </c>
       <c r="H119" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="I119">
-        <v>2.66</v>
+        <v>4.86</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="K119">
-        <v>13828</v>
+        <v>4660</v>
       </c>
       <c r="L119" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="M119">
-        <v>3509</v>
+        <v>954</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -10951,40 +10667,40 @@
         <v>131</v>
       </c>
       <c r="B120">
-        <v>323750093</v>
+        <v>809624709</v>
       </c>
       <c r="C120">
-        <v>10235261616</v>
+        <v>21167359947</v>
       </c>
       <c r="D120" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E120">
-        <v>8.039999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="F120">
-        <v>8.859999999999999</v>
+        <v>14.88</v>
       </c>
       <c r="G120">
-        <v>8.449999999999999</v>
+        <v>11.11</v>
       </c>
       <c r="H120" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="I120">
-        <v>4.09</v>
+        <v>2.82</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="K120">
-        <v>556</v>
+        <v>413</v>
       </c>
       <c r="L120" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="M120">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -10992,40 +10708,40 @@
         <v>132</v>
       </c>
       <c r="B121">
-        <v>301789278</v>
+        <v>235307152</v>
       </c>
       <c r="C121">
-        <v>8851724720</v>
+        <v>8742747229</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E121">
-        <v>51.79</v>
+        <v>1.1</v>
       </c>
       <c r="F121">
-        <v>289.01</v>
+        <v>6.72</v>
       </c>
       <c r="G121">
-        <v>170.4</v>
+        <v>3.91</v>
       </c>
       <c r="H121" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="I121">
-        <v>4.73</v>
+        <v>2.57</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="K121">
-        <v>2283</v>
+        <v>47761</v>
       </c>
       <c r="L121" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="M121">
-        <v>330</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11033,40 +10749,40 @@
         <v>133</v>
       </c>
       <c r="B122">
-        <v>567493313</v>
+        <v>857068188</v>
       </c>
       <c r="C122">
-        <v>12866945589</v>
+        <v>19458919861</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E122">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="F122">
-        <v>7.12</v>
+        <v>6.41</v>
       </c>
       <c r="G122">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="H122" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="I122">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="K122">
-        <v>16178</v>
+        <v>1118</v>
       </c>
       <c r="L122" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="M122">
-        <v>1336</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11074,40 +10790,40 @@
         <v>134</v>
       </c>
       <c r="B123">
-        <v>54615708</v>
+        <v>84204959</v>
       </c>
       <c r="C123">
-        <v>20312538726</v>
+        <v>6644641216</v>
       </c>
       <c r="D123" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E123">
-        <v>1.98</v>
+        <v>6.02</v>
       </c>
       <c r="F123">
-        <v>4.09</v>
+        <v>20.4</v>
       </c>
       <c r="G123">
-        <v>3.04</v>
+        <v>13.21</v>
       </c>
       <c r="H123" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="I123">
         <v>2.87</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="K123">
-        <v>10624</v>
+        <v>74832</v>
       </c>
       <c r="L123" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="M123">
-        <v>1538</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -11115,40 +10831,40 @@
         <v>135</v>
       </c>
       <c r="B124">
-        <v>277390263</v>
+        <v>39869582</v>
       </c>
       <c r="C124">
-        <v>8786863720</v>
+        <v>22019679566</v>
       </c>
       <c r="D124" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E124">
-        <v>6.58</v>
+        <v>3.58</v>
       </c>
       <c r="F124">
-        <v>44.8</v>
+        <v>3.58</v>
       </c>
       <c r="G124">
-        <v>25.69</v>
+        <v>3.58</v>
       </c>
       <c r="H124" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="I124">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="K124">
-        <v>10433</v>
+        <v>1121</v>
       </c>
       <c r="L124" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="M124">
-        <v>2526</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -11156,40 +10872,40 @@
         <v>136</v>
       </c>
       <c r="B125">
-        <v>498018387</v>
+        <v>81087530</v>
       </c>
       <c r="C125">
-        <v>3397689550</v>
+        <v>9534101347</v>
       </c>
       <c r="D125" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E125">
-        <v>0.6899999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="F125">
-        <v>0.6899999999999999</v>
+        <v>5.04</v>
       </c>
       <c r="G125">
-        <v>0.6899999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="I125">
-        <v>3.27</v>
+        <v>3.01</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="K125">
-        <v>13830</v>
+        <v>32670</v>
       </c>
       <c r="L125" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="M125">
-        <v>606</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -11197,40 +10913,40 @@
         <v>137</v>
       </c>
       <c r="B126">
-        <v>224587652</v>
+        <v>256689540</v>
       </c>
       <c r="C126">
-        <v>5716330077</v>
+        <v>7641862066</v>
       </c>
       <c r="D126" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E126">
-        <v>3.27</v>
+        <v>24.91</v>
       </c>
       <c r="F126">
-        <v>8.199999999999999</v>
+        <v>32.7</v>
       </c>
       <c r="G126">
-        <v>5.73</v>
+        <v>28.8</v>
       </c>
       <c r="H126" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="I126">
-        <v>4.23</v>
+        <v>3.01</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="K126">
-        <v>55078</v>
+        <v>38921</v>
       </c>
       <c r="L126" t="s">
-        <v>689</v>
+        <v>648</v>
       </c>
       <c r="M126">
-        <v>5909</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -11238,40 +10954,40 @@
         <v>138</v>
       </c>
       <c r="B127">
-        <v>258452033</v>
+        <v>785454343</v>
       </c>
       <c r="C127">
-        <v>6833792124</v>
+        <v>18907792814</v>
       </c>
       <c r="D127" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E127">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="F127">
-        <v>5.56</v>
+        <v>5.81</v>
       </c>
       <c r="G127">
-        <v>3.77</v>
+        <v>4.11</v>
       </c>
       <c r="H127" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="I127">
-        <v>4.25</v>
+        <v>4.69</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="K127">
-        <v>45781</v>
+        <v>15812</v>
       </c>
       <c r="L127" t="s">
-        <v>690</v>
+        <v>649</v>
       </c>
       <c r="M127">
-        <v>11169</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -11279,40 +10995,40 @@
         <v>139</v>
       </c>
       <c r="B128">
-        <v>309740850</v>
+        <v>472472246</v>
       </c>
       <c r="C128">
-        <v>4552408603</v>
+        <v>10113962114</v>
       </c>
       <c r="D128" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E128">
-        <v>0.82</v>
+        <v>5.15</v>
       </c>
       <c r="F128">
-        <v>1.36</v>
+        <v>14.39</v>
       </c>
       <c r="G128">
-        <v>1.09</v>
+        <v>9.77</v>
       </c>
       <c r="H128" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="I128">
-        <v>3.99</v>
+        <v>3.41</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="K128">
-        <v>62069</v>
+        <v>6715</v>
       </c>
       <c r="L128" t="s">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="M128">
-        <v>3148</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -11320,40 +11036,40 @@
         <v>140</v>
       </c>
       <c r="B129">
-        <v>565068251</v>
+        <v>86826200</v>
       </c>
       <c r="C129">
-        <v>13833125344</v>
+        <v>6858574616</v>
       </c>
       <c r="D129" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E129">
-        <v>11.37</v>
+        <v>1.22</v>
       </c>
       <c r="F129">
-        <v>53.94</v>
+        <v>7.12</v>
       </c>
       <c r="G129">
-        <v>32.66</v>
+        <v>4.17</v>
       </c>
       <c r="H129" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="I129">
-        <v>4.9</v>
+        <v>4.51</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="K129">
-        <v>8731</v>
+        <v>28347</v>
       </c>
       <c r="L129" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="M129">
-        <v>865</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -11361,40 +11077,40 @@
         <v>141</v>
       </c>
       <c r="B130">
-        <v>61595324</v>
+        <v>290396710</v>
       </c>
       <c r="C130">
-        <v>4259916835</v>
+        <v>9657436402</v>
       </c>
       <c r="D130" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E130">
-        <v>2.08</v>
+        <v>2.59</v>
       </c>
       <c r="F130">
-        <v>2.08</v>
+        <v>6.56</v>
       </c>
       <c r="G130">
-        <v>2.08</v>
+        <v>4.57</v>
       </c>
       <c r="H130" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="I130">
-        <v>3.85</v>
+        <v>2.65</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="K130">
-        <v>30174</v>
+        <v>41169</v>
       </c>
       <c r="L130" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="M130">
-        <v>3265</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -11402,40 +11118,40 @@
         <v>142</v>
       </c>
       <c r="B131">
-        <v>127249066</v>
+        <v>499648059</v>
       </c>
       <c r="C131">
-        <v>20909574510</v>
+        <v>9488114909</v>
       </c>
       <c r="D131" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E131">
-        <v>0.73</v>
+        <v>1.3</v>
       </c>
       <c r="F131">
-        <v>1.36</v>
+        <v>3.44</v>
       </c>
       <c r="G131">
-        <v>1.04</v>
+        <v>2.37</v>
       </c>
       <c r="H131" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="I131">
-        <v>3.81</v>
+        <v>3.02</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="K131">
-        <v>2630</v>
+        <v>33329</v>
       </c>
       <c r="L131" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="M131">
-        <v>111</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -11443,40 +11159,40 @@
         <v>143</v>
       </c>
       <c r="B132">
-        <v>329494459</v>
+        <v>289407107</v>
       </c>
       <c r="C132">
-        <v>21413462442</v>
+        <v>7651229025</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E132">
-        <v>2.68</v>
+        <v>1.69</v>
       </c>
       <c r="F132">
-        <v>7.91</v>
+        <v>10.08</v>
       </c>
       <c r="G132">
-        <v>5.29</v>
+        <v>5.89</v>
       </c>
       <c r="H132" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="I132">
-        <v>4.86</v>
+        <v>4.68</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="K132">
-        <v>4660</v>
+        <v>44009</v>
       </c>
       <c r="L132" t="s">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="M132">
-        <v>954</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -11484,40 +11200,40 @@
         <v>144</v>
       </c>
       <c r="B133">
-        <v>809624709</v>
+        <v>274167532</v>
       </c>
       <c r="C133">
-        <v>21167359947</v>
+        <v>12148419679</v>
       </c>
       <c r="D133" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E133">
-        <v>7.34</v>
+        <v>9.6</v>
       </c>
       <c r="F133">
-        <v>14.88</v>
+        <v>11.26</v>
       </c>
       <c r="G133">
-        <v>11.11</v>
+        <v>10.43</v>
       </c>
       <c r="H133" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="I133">
-        <v>2.82</v>
+        <v>3.19</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="K133">
-        <v>413</v>
+        <v>7881</v>
       </c>
       <c r="L133" t="s">
-        <v>696</v>
+        <v>653</v>
       </c>
       <c r="M133">
-        <v>51</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -11525,40 +11241,40 @@
         <v>145</v>
       </c>
       <c r="B134">
-        <v>235307152</v>
+        <v>72567956</v>
       </c>
       <c r="C134">
-        <v>8742747229</v>
+        <v>5533655031</v>
       </c>
       <c r="D134" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E134">
-        <v>1.1</v>
+        <v>4.01</v>
       </c>
       <c r="F134">
-        <v>6.72</v>
+        <v>4.89</v>
       </c>
       <c r="G134">
-        <v>3.91</v>
+        <v>4.45</v>
       </c>
       <c r="H134" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="I134">
         <v>2.57</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="K134">
-        <v>47761</v>
+        <v>94761</v>
       </c>
       <c r="L134" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="M134">
-        <v>2400</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -11566,40 +11282,40 @@
         <v>146</v>
       </c>
       <c r="B135">
-        <v>857068188</v>
+        <v>499648059</v>
       </c>
       <c r="C135">
-        <v>19458919861</v>
+        <v>8086698232</v>
       </c>
       <c r="D135" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E135">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="F135">
-        <v>6.41</v>
+        <v>1.81</v>
       </c>
       <c r="G135">
-        <v>4.43</v>
+        <v>1.73</v>
       </c>
       <c r="H135" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="I135">
-        <v>3.24</v>
+        <v>2.64</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="K135">
-        <v>1118</v>
+        <v>10583</v>
       </c>
       <c r="L135" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="M135">
-        <v>274</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -11607,40 +11323,40 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>84204959</v>
+        <v>299742</v>
       </c>
       <c r="C136">
-        <v>6644641216</v>
+        <v>2222904835</v>
       </c>
       <c r="D136" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E136">
-        <v>6.02</v>
+        <v>12.83</v>
       </c>
       <c r="F136">
-        <v>20.4</v>
+        <v>33.92</v>
       </c>
       <c r="G136">
-        <v>13.21</v>
+        <v>23.37</v>
       </c>
       <c r="H136" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="I136">
-        <v>2.87</v>
+        <v>3.69</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="K136">
-        <v>74832</v>
+        <v>20678</v>
       </c>
       <c r="L136" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M136">
-        <v>4646</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -11648,40 +11364,40 @@
         <v>148</v>
       </c>
       <c r="B137">
-        <v>39869582</v>
+        <v>474850985</v>
       </c>
       <c r="C137">
-        <v>22019679566</v>
+        <v>13323692269</v>
       </c>
       <c r="D137" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E137">
-        <v>3.58</v>
+        <v>3.19</v>
       </c>
       <c r="F137">
-        <v>3.58</v>
+        <v>3.19</v>
       </c>
       <c r="G137">
-        <v>3.58</v>
+        <v>3.19</v>
       </c>
       <c r="H137" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="I137">
-        <v>3.17</v>
+        <v>4.47</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K137">
-        <v>1121</v>
+        <v>43294</v>
       </c>
       <c r="L137" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="M137">
-        <v>76</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -11689,40 +11405,40 @@
         <v>149</v>
       </c>
       <c r="B138">
-        <v>81087530</v>
+        <v>347119246</v>
       </c>
       <c r="C138">
-        <v>9534101347</v>
+        <v>6771613098</v>
       </c>
       <c r="D138" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E138">
-        <v>1.17</v>
+        <v>2.95</v>
       </c>
       <c r="F138">
-        <v>5.04</v>
+        <v>15.38</v>
       </c>
       <c r="G138">
-        <v>3.1</v>
+        <v>9.16</v>
       </c>
       <c r="H138" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="I138">
-        <v>3.01</v>
+        <v>4.04</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="K138">
-        <v>32670</v>
+        <v>31038</v>
       </c>
       <c r="L138" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="M138">
-        <v>7878</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -11730,40 +11446,40 @@
         <v>150</v>
       </c>
       <c r="B139">
-        <v>256689540</v>
+        <v>275897983</v>
       </c>
       <c r="C139">
-        <v>7641862066</v>
+        <v>8591247393</v>
       </c>
       <c r="D139" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E139">
-        <v>24.91</v>
+        <v>1.28</v>
       </c>
       <c r="F139">
-        <v>32.7</v>
+        <v>2.69</v>
       </c>
       <c r="G139">
-        <v>28.8</v>
+        <v>1.98</v>
       </c>
       <c r="H139" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="I139">
-        <v>3.01</v>
+        <v>4.28</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="K139">
-        <v>38921</v>
+        <v>64324</v>
       </c>
       <c r="L139" t="s">
-        <v>700</v>
+        <v>639</v>
       </c>
       <c r="M139">
-        <v>4297</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -11771,40 +11487,40 @@
         <v>151</v>
       </c>
       <c r="B140">
-        <v>785454343</v>
+        <v>283571173</v>
       </c>
       <c r="C140">
-        <v>18907792814</v>
+        <v>6178131085</v>
       </c>
       <c r="D140" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E140">
-        <v>2.42</v>
+        <v>3.18</v>
       </c>
       <c r="F140">
-        <v>5.81</v>
+        <v>3.18</v>
       </c>
       <c r="G140">
-        <v>4.11</v>
+        <v>3.18</v>
       </c>
       <c r="H140" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="I140">
-        <v>4.69</v>
+        <v>3.42</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="K140">
-        <v>15812</v>
+        <v>32775</v>
       </c>
       <c r="L140" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="M140">
-        <v>586</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -11812,40 +11528,40 @@
         <v>152</v>
       </c>
       <c r="B141">
-        <v>472472246</v>
+        <v>189531438</v>
       </c>
       <c r="C141">
-        <v>10113962114</v>
+        <v>18515704452</v>
       </c>
       <c r="D141" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E141">
-        <v>5.15</v>
+        <v>1.42</v>
       </c>
       <c r="F141">
-        <v>14.39</v>
+        <v>1.72</v>
       </c>
       <c r="G141">
-        <v>9.77</v>
+        <v>1.57</v>
       </c>
       <c r="H141" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="I141">
-        <v>3.41</v>
+        <v>2.8</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="K141">
-        <v>6715</v>
+        <v>7677</v>
       </c>
       <c r="L141" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="M141">
-        <v>1847</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -11853,40 +11569,40 @@
         <v>153</v>
       </c>
       <c r="B142">
-        <v>86826200</v>
+        <v>322587491</v>
       </c>
       <c r="C142">
-        <v>6858574616</v>
+        <v>15935520089</v>
       </c>
       <c r="D142" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E142">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="F142">
-        <v>7.12</v>
+        <v>1.92</v>
       </c>
       <c r="G142">
-        <v>4.17</v>
+        <v>1.48</v>
       </c>
       <c r="H142" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="I142">
-        <v>4.51</v>
+        <v>2.77</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="K142">
-        <v>28347</v>
+        <v>13315</v>
       </c>
       <c r="L142" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="M142">
-        <v>3531</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -11894,40 +11610,40 @@
         <v>154</v>
       </c>
       <c r="B143">
-        <v>290396710</v>
+        <v>369852783</v>
       </c>
       <c r="C143">
-        <v>9657436402</v>
+        <v>16200002466</v>
       </c>
       <c r="D143" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E143">
-        <v>2.59</v>
+        <v>1.71</v>
       </c>
       <c r="F143">
-        <v>6.56</v>
+        <v>9.33</v>
       </c>
       <c r="G143">
-        <v>4.57</v>
+        <v>5.52</v>
       </c>
       <c r="H143" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="I143">
-        <v>2.65</v>
+        <v>4.56</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="K143">
-        <v>41169</v>
+        <v>75024</v>
       </c>
       <c r="L143" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="M143">
-        <v>2825</v>
+        <v>22182</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -11935,40 +11651,40 @@
         <v>155</v>
       </c>
       <c r="B144">
-        <v>499648059</v>
+        <v>456336437</v>
       </c>
       <c r="C144">
-        <v>9488114909</v>
+        <v>19819860007</v>
       </c>
       <c r="D144" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E144">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="F144">
-        <v>3.44</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G144">
-        <v>2.37</v>
+        <v>5.29</v>
       </c>
       <c r="H144" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="I144">
-        <v>3.02</v>
+        <v>4.7</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="K144">
-        <v>33329</v>
+        <v>8084</v>
       </c>
       <c r="L144" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="M144">
-        <v>2843</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -11976,40 +11692,40 @@
         <v>156</v>
       </c>
       <c r="B145">
-        <v>289407107</v>
+        <v>264542185</v>
       </c>
       <c r="C145">
-        <v>7651229025</v>
+        <v>3957222866</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E145">
-        <v>1.69</v>
+        <v>3.6</v>
       </c>
       <c r="F145">
-        <v>10.08</v>
+        <v>4.33</v>
       </c>
       <c r="G145">
-        <v>5.89</v>
+        <v>3.96</v>
       </c>
       <c r="H145" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="I145">
-        <v>4.68</v>
+        <v>3.46</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="K145">
-        <v>44009</v>
+        <v>50030</v>
       </c>
       <c r="L145" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="M145">
-        <v>2491</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -12017,40 +11733,40 @@
         <v>157</v>
       </c>
       <c r="B146">
-        <v>274167532</v>
+        <v>274578160</v>
       </c>
       <c r="C146">
-        <v>12148419679</v>
+        <v>3742303573</v>
       </c>
       <c r="D146" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E146">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="F146">
-        <v>11.26</v>
+        <v>27.86</v>
       </c>
       <c r="G146">
-        <v>10.43</v>
+        <v>24.93</v>
       </c>
       <c r="H146" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="I146">
-        <v>3.19</v>
+        <v>3.58</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="K146">
-        <v>7881</v>
+        <v>11980</v>
       </c>
       <c r="L146" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="M146">
-        <v>1697</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -12058,40 +11774,40 @@
         <v>158</v>
       </c>
       <c r="B147">
-        <v>72567956</v>
+        <v>264007932</v>
       </c>
       <c r="C147">
-        <v>5533655031</v>
+        <v>6635268625</v>
       </c>
       <c r="D147" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E147">
-        <v>4.01</v>
+        <v>12.81</v>
       </c>
       <c r="F147">
-        <v>4.89</v>
+        <v>26.51</v>
       </c>
       <c r="G147">
-        <v>4.45</v>
+        <v>19.66</v>
       </c>
       <c r="H147" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="I147">
-        <v>2.57</v>
+        <v>4.48</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="K147">
-        <v>94761</v>
+        <v>28163</v>
       </c>
       <c r="L147" t="s">
-        <v>706</v>
+        <v>648</v>
       </c>
       <c r="M147">
-        <v>12879</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -12099,40 +11815,40 @@
         <v>159</v>
       </c>
       <c r="B148">
-        <v>499648059</v>
+        <v>16524014</v>
       </c>
       <c r="C148">
-        <v>8086698232</v>
+        <v>4808427197</v>
       </c>
       <c r="D148" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E148">
-        <v>1.65</v>
+        <v>3.99</v>
       </c>
       <c r="F148">
-        <v>1.81</v>
+        <v>27.81</v>
       </c>
       <c r="G148">
-        <v>1.73</v>
+        <v>15.9</v>
       </c>
       <c r="H148" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="I148">
-        <v>2.64</v>
+        <v>3.19</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="K148">
-        <v>10583</v>
+        <v>22535</v>
       </c>
       <c r="L148" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
       <c r="M148">
-        <v>1057</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -12140,40 +11856,40 @@
         <v>160</v>
       </c>
       <c r="B149">
-        <v>299742</v>
+        <v>292248419</v>
       </c>
       <c r="C149">
-        <v>2222904835</v>
+        <v>5246917295</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E149">
-        <v>12.83</v>
+        <v>6.54</v>
       </c>
       <c r="F149">
-        <v>33.92</v>
+        <v>6.54</v>
       </c>
       <c r="G149">
-        <v>23.37</v>
+        <v>6.54</v>
       </c>
       <c r="H149" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="I149">
-        <v>3.69</v>
+        <v>4.45</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="K149">
-        <v>20678</v>
+        <v>57496</v>
       </c>
       <c r="L149" t="s">
-        <v>708</v>
+        <v>663</v>
       </c>
       <c r="M149">
-        <v>3769</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -12181,613 +11897,39 @@
         <v>161</v>
       </c>
       <c r="B150">
-        <v>474850985</v>
+        <v>286481403</v>
       </c>
       <c r="C150">
-        <v>13323692269</v>
+        <v>19049897654</v>
       </c>
       <c r="D150" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E150">
-        <v>3.19</v>
+        <v>10.45</v>
       </c>
       <c r="F150">
-        <v>3.19</v>
+        <v>25.98</v>
       </c>
       <c r="G150">
-        <v>3.19</v>
+        <v>18.22</v>
       </c>
       <c r="H150" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="I150">
-        <v>4.47</v>
+        <v>3.27</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="K150">
-        <v>43294</v>
+        <v>2877</v>
       </c>
       <c r="L150" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="M150">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B151">
-        <v>20720050</v>
-      </c>
-      <c r="C151">
-        <v>6179407358</v>
-      </c>
-      <c r="D151" t="s">
-        <v>325</v>
-      </c>
-      <c r="E151">
-        <v>8.6</v>
-      </c>
-      <c r="F151">
-        <v>53.36</v>
-      </c>
-      <c r="G151">
-        <v>30.98</v>
-      </c>
-      <c r="H151" t="s">
-        <v>341</v>
-      </c>
-      <c r="I151">
-        <v>2.83</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="K151">
-        <v>43378</v>
-      </c>
-      <c r="L151" t="s">
-        <v>710</v>
-      </c>
-      <c r="M151">
-        <v>5828</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152">
-        <v>347119246</v>
-      </c>
-      <c r="C152">
-        <v>6771613098</v>
-      </c>
-      <c r="D152" t="s">
-        <v>326</v>
-      </c>
-      <c r="E152">
-        <v>2.95</v>
-      </c>
-      <c r="F152">
-        <v>15.38</v>
-      </c>
-      <c r="G152">
-        <v>9.16</v>
-      </c>
-      <c r="H152" t="s">
-        <v>485</v>
-      </c>
-      <c r="I152">
-        <v>4.04</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="K152">
-        <v>31038</v>
-      </c>
-      <c r="L152" t="s">
-        <v>711</v>
-      </c>
-      <c r="M152">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B153">
-        <v>275897983</v>
-      </c>
-      <c r="C153">
-        <v>8591247393</v>
-      </c>
-      <c r="D153" t="s">
-        <v>327</v>
-      </c>
-      <c r="E153">
-        <v>1.28</v>
-      </c>
-      <c r="F153">
-        <v>2.69</v>
-      </c>
-      <c r="G153">
-        <v>1.98</v>
-      </c>
-      <c r="H153" t="s">
-        <v>486</v>
-      </c>
-      <c r="I153">
-        <v>4.28</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="K153">
-        <v>64324</v>
-      </c>
-      <c r="L153" t="s">
-        <v>691</v>
-      </c>
-      <c r="M153">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154">
-        <v>283571173</v>
-      </c>
-      <c r="C154">
-        <v>6178131085</v>
-      </c>
-      <c r="D154" t="s">
-        <v>328</v>
-      </c>
-      <c r="E154">
-        <v>3.18</v>
-      </c>
-      <c r="F154">
-        <v>3.18</v>
-      </c>
-      <c r="G154">
-        <v>3.18</v>
-      </c>
-      <c r="H154" t="s">
-        <v>487</v>
-      </c>
-      <c r="I154">
-        <v>3.42</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="K154">
-        <v>32775</v>
-      </c>
-      <c r="L154" t="s">
-        <v>712</v>
-      </c>
-      <c r="M154">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155">
-        <v>189531438</v>
-      </c>
-      <c r="C155">
-        <v>18515704452</v>
-      </c>
-      <c r="D155" t="s">
-        <v>329</v>
-      </c>
-      <c r="E155">
-        <v>1.42</v>
-      </c>
-      <c r="F155">
-        <v>1.72</v>
-      </c>
-      <c r="G155">
-        <v>1.57</v>
-      </c>
-      <c r="H155" t="s">
-        <v>488</v>
-      </c>
-      <c r="I155">
-        <v>2.8</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="K155">
-        <v>7677</v>
-      </c>
-      <c r="L155" t="s">
-        <v>713</v>
-      </c>
-      <c r="M155">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156">
-        <v>322587491</v>
-      </c>
-      <c r="C156">
-        <v>15935520089</v>
-      </c>
-      <c r="D156" t="s">
-        <v>330</v>
-      </c>
-      <c r="E156">
-        <v>1.04</v>
-      </c>
-      <c r="F156">
-        <v>1.92</v>
-      </c>
-      <c r="G156">
-        <v>1.48</v>
-      </c>
-      <c r="H156" t="s">
-        <v>489</v>
-      </c>
-      <c r="I156">
-        <v>2.77</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K156">
-        <v>13315</v>
-      </c>
-      <c r="L156" t="s">
-        <v>699</v>
-      </c>
-      <c r="M156">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157">
-        <v>369852783</v>
-      </c>
-      <c r="C157">
-        <v>16200002466</v>
-      </c>
-      <c r="D157" t="s">
-        <v>331</v>
-      </c>
-      <c r="E157">
-        <v>1.71</v>
-      </c>
-      <c r="F157">
-        <v>9.33</v>
-      </c>
-      <c r="G157">
-        <v>5.52</v>
-      </c>
-      <c r="H157" t="s">
-        <v>490</v>
-      </c>
-      <c r="I157">
-        <v>4.56</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="K157">
-        <v>75024</v>
-      </c>
-      <c r="L157" t="s">
-        <v>714</v>
-      </c>
-      <c r="M157">
-        <v>22182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158">
-        <v>456336437</v>
-      </c>
-      <c r="C158">
-        <v>19819860007</v>
-      </c>
-      <c r="D158" t="s">
-        <v>332</v>
-      </c>
-      <c r="E158">
-        <v>1.68</v>
-      </c>
-      <c r="F158">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="G158">
-        <v>5.29</v>
-      </c>
-      <c r="H158" t="s">
-        <v>491</v>
-      </c>
-      <c r="I158">
-        <v>4.7</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="K158">
-        <v>8084</v>
-      </c>
-      <c r="L158" t="s">
-        <v>715</v>
-      </c>
-      <c r="M158">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159">
-        <v>264542185</v>
-      </c>
-      <c r="C159">
-        <v>3957222866</v>
-      </c>
-      <c r="D159" t="s">
-        <v>333</v>
-      </c>
-      <c r="E159">
-        <v>3.6</v>
-      </c>
-      <c r="F159">
-        <v>4.33</v>
-      </c>
-      <c r="G159">
-        <v>3.96</v>
-      </c>
-      <c r="H159" t="s">
-        <v>492</v>
-      </c>
-      <c r="I159">
-        <v>3.46</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="K159">
-        <v>50030</v>
-      </c>
-      <c r="L159" t="s">
-        <v>716</v>
-      </c>
-      <c r="M159">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160">
-        <v>274578160</v>
-      </c>
-      <c r="C160">
-        <v>3742303573</v>
-      </c>
-      <c r="D160" t="s">
-        <v>334</v>
-      </c>
-      <c r="E160">
-        <v>22</v>
-      </c>
-      <c r="F160">
-        <v>27.86</v>
-      </c>
-      <c r="G160">
-        <v>24.93</v>
-      </c>
-      <c r="H160" t="s">
-        <v>493</v>
-      </c>
-      <c r="I160">
-        <v>3.58</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K160">
-        <v>11980</v>
-      </c>
-      <c r="L160" t="s">
-        <v>708</v>
-      </c>
-      <c r="M160">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161">
-        <v>264007932</v>
-      </c>
-      <c r="C161">
-        <v>6635268625</v>
-      </c>
-      <c r="D161" t="s">
-        <v>335</v>
-      </c>
-      <c r="E161">
-        <v>12.81</v>
-      </c>
-      <c r="F161">
-        <v>26.51</v>
-      </c>
-      <c r="G161">
-        <v>19.66</v>
-      </c>
-      <c r="H161" t="s">
-        <v>494</v>
-      </c>
-      <c r="I161">
-        <v>4.48</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="K161">
-        <v>28163</v>
-      </c>
-      <c r="L161" t="s">
-        <v>700</v>
-      </c>
-      <c r="M161">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162">
-        <v>16524014</v>
-      </c>
-      <c r="C162">
-        <v>4808427197</v>
-      </c>
-      <c r="D162" t="s">
-        <v>336</v>
-      </c>
-      <c r="E162">
-        <v>3.99</v>
-      </c>
-      <c r="F162">
-        <v>27.81</v>
-      </c>
-      <c r="G162">
-        <v>15.9</v>
-      </c>
-      <c r="H162" t="s">
-        <v>495</v>
-      </c>
-      <c r="I162">
-        <v>3.19</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="K162">
-        <v>22535</v>
-      </c>
-      <c r="L162" t="s">
-        <v>701</v>
-      </c>
-      <c r="M162">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163">
-        <v>292248419</v>
-      </c>
-      <c r="C163">
-        <v>5246917295</v>
-      </c>
-      <c r="D163" t="s">
-        <v>337</v>
-      </c>
-      <c r="E163">
-        <v>6.54</v>
-      </c>
-      <c r="F163">
-        <v>6.54</v>
-      </c>
-      <c r="G163">
-        <v>6.54</v>
-      </c>
-      <c r="H163" t="s">
-        <v>496</v>
-      </c>
-      <c r="I163">
-        <v>4.45</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="K163">
-        <v>57496</v>
-      </c>
-      <c r="L163" t="s">
-        <v>716</v>
-      </c>
-      <c r="M163">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164">
-        <v>286481403</v>
-      </c>
-      <c r="C164">
-        <v>19049897654</v>
-      </c>
-      <c r="D164" t="s">
-        <v>338</v>
-      </c>
-      <c r="E164">
-        <v>10.45</v>
-      </c>
-      <c r="F164">
-        <v>25.98</v>
-      </c>
-      <c r="G164">
-        <v>18.22</v>
-      </c>
-      <c r="H164" t="s">
-        <v>497</v>
-      </c>
-      <c r="I164">
-        <v>3.27</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="K164">
-        <v>2877</v>
-      </c>
-      <c r="L164" t="s">
-        <v>685</v>
-      </c>
-      <c r="M164">
         <v>382</v>
       </c>
     </row>
@@ -13091,34 +12233,6 @@
     <hyperlink ref="J149" r:id="rId296"/>
     <hyperlink ref="A150" r:id="rId297"/>
     <hyperlink ref="J150" r:id="rId298"/>
-    <hyperlink ref="A151" r:id="rId299"/>
-    <hyperlink ref="J151" r:id="rId300"/>
-    <hyperlink ref="A152" r:id="rId301"/>
-    <hyperlink ref="J152" r:id="rId302"/>
-    <hyperlink ref="A153" r:id="rId303"/>
-    <hyperlink ref="J153" r:id="rId304"/>
-    <hyperlink ref="A154" r:id="rId305"/>
-    <hyperlink ref="J154" r:id="rId306"/>
-    <hyperlink ref="A155" r:id="rId307"/>
-    <hyperlink ref="J155" r:id="rId308"/>
-    <hyperlink ref="A156" r:id="rId309"/>
-    <hyperlink ref="J156" r:id="rId310"/>
-    <hyperlink ref="A157" r:id="rId311"/>
-    <hyperlink ref="J157" r:id="rId312"/>
-    <hyperlink ref="A158" r:id="rId313"/>
-    <hyperlink ref="J158" r:id="rId314"/>
-    <hyperlink ref="A159" r:id="rId315"/>
-    <hyperlink ref="J159" r:id="rId316"/>
-    <hyperlink ref="A160" r:id="rId317"/>
-    <hyperlink ref="J160" r:id="rId318"/>
-    <hyperlink ref="A161" r:id="rId319"/>
-    <hyperlink ref="J161" r:id="rId320"/>
-    <hyperlink ref="A162" r:id="rId321"/>
-    <hyperlink ref="J162" r:id="rId322"/>
-    <hyperlink ref="A163" r:id="rId323"/>
-    <hyperlink ref="J163" r:id="rId324"/>
-    <hyperlink ref="A164" r:id="rId325"/>
-    <hyperlink ref="J164" r:id="rId326"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
